--- a/uCOS操作系统/操作系统笔记.xlsx
+++ b/uCOS操作系统/操作系统笔记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="812" activeTab="8"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="812" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="410">
   <si>
     <t>操作系统</t>
   </si>
@@ -1068,7 +1068,37 @@
     <t>首先提出问题，然后给出代码，分析，看结果</t>
   </si>
   <si>
-    <t>假设有共享资源R，允许两个任务分时访问，那么信号量设置为2，系统中仨个任务访问R，分别是A，B，C优先级是7，6，5。三个任务在操作系统初始化和启动多任务</t>
+    <t>假设有共享资源R，允许两个任务分时访问，那么信号量设置为2，系统中仨个任务访问R，分别是A，B，C优先级是7，6，5。</t>
+  </si>
+  <si>
+    <t>三个任务在操作系统初始化和启动多任务之前被创建，任务A创建信号量，访问R，访问结束后A给自己阻塞1000个时间片，</t>
+  </si>
+  <si>
+    <t>任务B先给自己阻塞300个时间片，然后跟A做相同的操作，任务C先给自己阻塞400个时间片，然后跟A做相同的操作，</t>
+  </si>
+  <si>
+    <t>3个任务占用R的时间都是1000个时间片，操作R期间用延时函数，根据要求代码放在user.c里面</t>
+  </si>
+  <si>
+    <t>代码在工程</t>
+  </si>
+  <si>
+    <t>4.4互斥信号量管理</t>
+  </si>
+  <si>
+    <t>互斥信号量是一种特殊的信号量，取值只能是0和1，也就是说只有一把钥匙，为了解决优先级反转的问题，信号量采用了优先级管理机制</t>
+  </si>
+  <si>
+    <t>优先级反转问题：假如当前任务优先级是50，申请了信号量，这时优先级3的任务就绪，3任务运行请求信号量没请求到被阻塞了，优先级20的任务就绪了，20任务运行，</t>
+  </si>
+  <si>
+    <t>这时30任务和40任务也就绪了，一直跑不到50任务，50任务就一直不释放信号量，这样3任务就一直阻塞着。出现了优先级反转问题，解决方法就是临时调整50任务的优先级变成1，这样就纠正了反转</t>
+  </si>
+  <si>
+    <t>4.4.5-4.4.8没学</t>
+  </si>
+  <si>
+    <t>4.5事件标志组管理</t>
   </si>
   <si>
     <t>源码</t>
@@ -1229,10 +1259,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1285,6 +1315,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1293,9 +1359,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1310,105 +1430,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1464,7 +1494,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1476,7 +1524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1488,31 +1542,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1524,25 +1554,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1554,25 +1578,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1596,25 +1602,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1626,25 +1626,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1809,35 +1839,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1876,16 +1880,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1904,6 +1899,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1912,10 +1942,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1924,19 +1954,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1945,113 +1975,113 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5709,53 +5739,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="14525625" cy="9039225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -8714,8 +8697,8 @@
   <sheetPr/>
   <dimension ref="A1:AE123"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="190" zoomScaleNormal="190" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="J72" sqref="J72"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -9313,19 +9296,55 @@
         <v>348</v>
       </c>
     </row>
+    <row r="76" spans="4:4">
+      <c r="D76" s="43" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4">
+      <c r="D77" s="43" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4">
+      <c r="D78" s="43" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4">
+      <c r="D79" s="43" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="43" t="s">
+        <v>353</v>
+      </c>
+    </row>
     <row r="81" s="43" customFormat="1" spans="3:3">
-      <c r="C81" s="47"/>
+      <c r="C81" s="47" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="82" s="43" customFormat="1" spans="3:3">
-      <c r="C82" s="44"/>
+      <c r="C82" s="44" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="83" s="43" customFormat="1" spans="3:3">
-      <c r="C83" s="47"/>
+      <c r="C83" s="47" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="84" s="43" customFormat="1" spans="3:3">
-      <c r="C84" s="47"/>
-    </row>
-    <row r="85" s="43" customFormat="1" spans="3:3">
+      <c r="C84" s="45" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="85" s="43" customFormat="1" spans="2:3">
+      <c r="B85" s="43" t="s">
+        <v>358</v>
+      </c>
       <c r="C85" s="44"/>
     </row>
     <row r="91" s="43" customFormat="1" spans="3:5">
@@ -9893,12 +9912,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -9924,7 +9943,7 @@
   <sheetData>
     <row r="35" customFormat="1" spans="1:1">
       <c r="A35" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
     </row>
     <row r="36" customFormat="1"/>
@@ -9949,7 +9968,7 @@
     <row r="55" customFormat="1"/>
     <row r="56" customFormat="1" spans="1:1">
       <c r="A56" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="57" customFormat="1"/>
@@ -9966,12 +9985,12 @@
     <row r="68" customFormat="1"/>
     <row r="69" customFormat="1" spans="1:1">
       <c r="A69" s="34" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:1">
       <c r="A70" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="71" customFormat="1"/>
@@ -9986,12 +10005,12 @@
     <row r="80" customFormat="1"/>
     <row r="134" spans="1:1">
       <c r="A134" s="34" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="34" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="136" spans="1:1">
@@ -10009,7 +10028,7 @@
   <sheetPr/>
   <dimension ref="A1:AB53"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" topLeftCell="L1" workbookViewId="0">
       <selection activeCell="Z46" sqref="Z46"/>
     </sheetView>
   </sheetViews>
@@ -10017,55 +10036,55 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="C2" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="H3" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="D4" s="2"/>
       <c r="H4" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="N4" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="3" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="D5" s="2"/>
       <c r="H5" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="N5" s="20"/>
       <c r="X5" s="28"/>
@@ -10076,11 +10095,11 @@
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="3" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="2" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="D6" s="2"/>
       <c r="H6" s="5">
@@ -10089,11 +10108,11 @@
       <c r="I6" s="21"/>
       <c r="N6" s="22"/>
       <c r="P6" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="X6" s="28"/>
       <c r="Y6" s="28" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="Z6" s="28"/>
       <c r="AA6" s="28"/>
@@ -10101,11 +10120,11 @@
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="3" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="2" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="D7" s="2"/>
       <c r="H7" s="5">
@@ -10113,32 +10132,32 @@
       </c>
       <c r="I7" s="21"/>
       <c r="N7" s="22" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="P7" s="23" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="Q7" s="29"/>
       <c r="S7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="X7" s="28"/>
       <c r="Y7" s="32" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="Z7" s="33"/>
       <c r="AA7" s="28" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AB7" s="28"/>
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="3" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="2" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="D8" s="2"/>
       <c r="H8" s="5">
@@ -10150,21 +10169,21 @@
       <c r="Q8" s="30"/>
       <c r="X8" s="28"/>
       <c r="Y8" s="32" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="Z8" s="33"/>
       <c r="AA8" s="28" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="AB8" s="28"/>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="3" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="2" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="D9" s="2"/>
       <c r="H9" s="5">
@@ -10176,17 +10195,17 @@
       <c r="Q9" s="30"/>
       <c r="X9" s="28"/>
       <c r="Y9" s="32" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="Z9" s="33"/>
       <c r="AA9" s="28" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="AB9" s="28"/>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="6" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -10196,30 +10215,30 @@
       </c>
       <c r="I10" s="21"/>
       <c r="N10" s="25" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="P10" s="24"/>
       <c r="Q10" s="30"/>
       <c r="S10" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="X10" s="28"/>
       <c r="Y10" s="32" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="Z10" s="33"/>
       <c r="AA10" s="28" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="AB10" s="28"/>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="6" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="D11" s="6"/>
       <c r="H11" s="5">
@@ -10227,29 +10246,29 @@
       </c>
       <c r="I11" s="21"/>
       <c r="P11" s="26" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="Q11" s="21"/>
       <c r="S11" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="X11" s="28"/>
       <c r="Y11" s="32" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="Z11" s="33"/>
       <c r="AA11" s="28" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="AB11" s="28"/>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="6" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="D12" s="6"/>
       <c r="H12" s="5">
@@ -10257,33 +10276,33 @@
       </c>
       <c r="I12" s="21"/>
       <c r="P12" s="26" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="Q12" s="21"/>
       <c r="S12" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="X12" s="28"/>
       <c r="Y12" s="32" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="Z12" s="33"/>
       <c r="AA12" s="28" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AB12" s="28"/>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="6" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="D13" s="6"/>
       <c r="H13" s="5" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="I13" s="21"/>
       <c r="P13" s="24"/>
@@ -10292,22 +10311,22 @@
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="6" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="D14" s="6"/>
       <c r="H14" s="5" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="I14" s="21"/>
       <c r="P14" s="24"/>
       <c r="Q14" s="30"/>
       <c r="X14" s="28"/>
       <c r="Y14" s="28" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="Z14" s="28"/>
       <c r="AA14" s="28"/>
@@ -10315,35 +10334,35 @@
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="6" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="D15" s="6"/>
       <c r="N15" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="P15" s="24"/>
       <c r="Q15" s="30"/>
       <c r="X15" s="28"/>
       <c r="Y15" s="32" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="Z15" s="33"/>
       <c r="AA15" s="28" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AB15" s="28"/>
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="6" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="D16" s="6"/>
       <c r="N16" s="20"/>
@@ -10351,35 +10370,35 @@
       <c r="Q16" s="31"/>
       <c r="X16" s="28"/>
       <c r="Y16" s="32" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="Z16" s="33"/>
       <c r="AA16" s="28" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="AB16" s="28"/>
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="9" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="H17" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="N17" s="22"/>
       <c r="P17" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="X17" s="28"/>
       <c r="Y17" s="32" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="Z17" s="33"/>
       <c r="AA17" s="28" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="AB17" s="28"/>
     </row>
@@ -10389,28 +10408,28 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="H18" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="N18" s="22" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="P18" s="23" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="Q18" s="29"/>
       <c r="X18" s="28"/>
       <c r="Y18" s="32" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="Z18" s="33"/>
       <c r="AA18" s="28" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="AB18" s="28"/>
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="10" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -10420,21 +10439,21 @@
       <c r="Q19" s="30"/>
       <c r="X19" s="28"/>
       <c r="Y19" s="32" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="Z19" s="33"/>
       <c r="AA19" s="28" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="AB19" s="28"/>
     </row>
     <row r="20" spans="1:28">
       <c r="A20" s="11" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="10" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="D20" s="10"/>
       <c r="N20" s="22"/>
@@ -10442,25 +10461,25 @@
       <c r="Q20" s="30"/>
       <c r="X20" s="28"/>
       <c r="Y20" s="32" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="Z20" s="33"/>
       <c r="AA20" s="28" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AB20" s="28"/>
     </row>
     <row r="21" spans="1:24">
       <c r="A21" s="11" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="10" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="D21" s="10"/>
       <c r="N21" s="25" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="P21" s="24"/>
       <c r="Q21" s="30"/>
@@ -10468,20 +10487,20 @@
     </row>
     <row r="22" spans="1:28">
       <c r="A22" s="11" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="10" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="D22" s="10"/>
       <c r="P22" s="26" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="Q22" s="21"/>
       <c r="X22" s="28"/>
       <c r="Y22" s="28" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="Z22" s="28"/>
       <c r="AA22" s="28"/>
@@ -10489,15 +10508,15 @@
     </row>
     <row r="23" spans="1:28">
       <c r="A23" s="11" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="10" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="D23" s="10"/>
       <c r="P23" s="26" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="Q23" s="21"/>
       <c r="X23" s="28"/>
@@ -10508,18 +10527,18 @@
     </row>
     <row r="24" spans="1:28">
       <c r="A24" s="11" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="10" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="D24" s="10"/>
       <c r="P24" s="24"/>
       <c r="Q24" s="30"/>
       <c r="X24" s="28"/>
       <c r="Y24" s="28" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="Z24" s="28"/>
       <c r="AA24" s="28"/>
@@ -10527,50 +10546,50 @@
     </row>
     <row r="25" spans="1:28">
       <c r="A25" s="11" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="10" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="D25" s="10"/>
       <c r="P25" s="24"/>
       <c r="Q25" s="30"/>
       <c r="X25" s="28"/>
       <c r="Y25" s="32" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="Z25" s="33"/>
       <c r="AA25" s="28" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AB25" s="28"/>
     </row>
     <row r="26" spans="1:28">
       <c r="A26" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="C26" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="N26" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="P26" s="24"/>
       <c r="Q26" s="30"/>
       <c r="X26" s="28"/>
       <c r="Y26" s="32" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="Z26" s="33"/>
       <c r="AA26" s="28" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="AB26" s="28"/>
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="2" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -10580,61 +10599,61 @@
       <c r="Q27" s="31"/>
       <c r="X27" s="28"/>
       <c r="Y27" s="32" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="Z27" s="33"/>
       <c r="AA27" s="28" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="AB27" s="28"/>
     </row>
     <row r="28" spans="1:28">
       <c r="A28" s="3" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="N28" s="22"/>
       <c r="P28" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="X28" s="28"/>
       <c r="Y28" s="32" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="Z28" s="33"/>
       <c r="AA28" s="28" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="AB28" s="28"/>
     </row>
     <row r="29" spans="1:28">
       <c r="A29" s="3" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="N29" s="22" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="P29" s="23" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="Q29" s="29"/>
       <c r="Y29" s="32" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="Z29" s="33"/>
       <c r="AA29" s="28" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="AB29" s="28"/>
     </row>
     <row r="30" spans="1:28">
       <c r="A30" s="3" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="2"/>
@@ -10643,17 +10662,17 @@
       <c r="P30" s="24"/>
       <c r="Q30" s="30"/>
       <c r="Y30" s="32" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="Z30" s="33"/>
       <c r="AA30" s="28" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AB30" s="28"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="3" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="2"/>
@@ -10664,44 +10683,44 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="3" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="N32" s="25" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="P32" s="24"/>
       <c r="Q32" s="30"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="3" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="P33" s="26" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="Q33" s="21"/>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="6" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="P34" s="26" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="Q34" s="21"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="13" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="6"/>
@@ -10711,7 +10730,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="6"/>
@@ -10721,20 +10740,20 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="N37" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="P37" s="24"/>
       <c r="Q37" s="30"/>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="13" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="6"/>
@@ -10745,28 +10764,28 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="N39" s="22"/>
       <c r="P39" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="N40" s="22" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="P40" s="23" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="Q40" s="29"/>
     </row>
@@ -10790,44 +10809,44 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="10" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="N43" s="25" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="P43" s="24"/>
       <c r="Q43" s="30"/>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="14" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="P44" s="26" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="Q44" s="21"/>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="15" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="P45" s="26" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="Q45" s="21"/>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="10" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B46" s="17"/>
       <c r="C46" s="10"/>
@@ -10837,7 +10856,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="11" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="10"/>
@@ -10847,7 +10866,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="18" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="10"/>
@@ -10857,7 +10876,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="15" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B49" s="15"/>
       <c r="C49" s="19"/>
@@ -10867,79 +10886,79 @@
     </row>
     <row r="53" s="1" customFormat="1" spans="1:25">
       <c r="A53" s="1" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -10954,7 +10973,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -10962,6 +10981,5 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/uCOS操作系统/操作系统笔记.xlsx
+++ b/uCOS操作系统/操作系统笔记.xlsx
@@ -11,18 +11,19 @@
     <sheet name="第二章" sheetId="3" r:id="rId2"/>
     <sheet name="第三章" sheetId="12" r:id="rId3"/>
     <sheet name="第四章" sheetId="13" r:id="rId4"/>
-    <sheet name="任务控制块源码" sheetId="4" r:id="rId5"/>
-    <sheet name="任务控制块Init源码" sheetId="9" r:id="rId6"/>
-    <sheet name="OS_Init源码" sheetId="10" r:id="rId7"/>
-    <sheet name="内存中数据结构" sheetId="11" r:id="rId8"/>
-    <sheet name="书签" sheetId="14" r:id="rId9"/>
+    <sheet name="第五章" sheetId="15" r:id="rId5"/>
+    <sheet name="任务控制块源码" sheetId="4" r:id="rId6"/>
+    <sheet name="任务控制块Init源码" sheetId="9" r:id="rId7"/>
+    <sheet name="OS_Init源码" sheetId="10" r:id="rId8"/>
+    <sheet name="内存中数据结构" sheetId="11" r:id="rId9"/>
+    <sheet name="书签" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="415">
   <si>
     <t>操作系统</t>
   </si>
@@ -1095,10 +1096,25 @@
     <t>这时30任务和40任务也就绪了，一直跑不到50任务，50任务就一直不释放信号量，这样3任务就一直阻塞着。出现了优先级反转问题，解决方法就是临时调整50任务的优先级变成1，这样就纠正了反转</t>
   </si>
   <si>
-    <t>4.4.5-4.4.8没学</t>
+    <t>4.4.8没学，之后学</t>
   </si>
   <si>
     <t>4.5事件标志组管理</t>
+  </si>
+  <si>
+    <t>在信号量和互斥信号量的管理中，任务请求资源，资源空闲可继续运行，不空闲就只能阻塞自己，等待资源的释放。</t>
+  </si>
+  <si>
+    <t>第五章：消息管理</t>
+  </si>
+  <si>
+    <t>5.1消息邮箱</t>
+  </si>
+  <si>
+    <t>消息邮箱是ucos的另一种通信机制，可以从一个任务或中断中向另一个任务发送消息。传递这个消息的媒介是一个指针，指针指向了消息的数据结构</t>
+  </si>
+  <si>
+    <t>A给B发消息，相当于A传地址给B，B根据地址找到消息，操作系统允许多个邮箱的存在，邮箱使用的数据结构就是ECB，每个消息所能容纳的消息数量是1</t>
   </si>
   <si>
     <t>源码</t>
@@ -1259,10 +1275,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1309,58 +1325,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1374,33 +1339,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1413,9 +1353,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1431,7 +1378,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1439,6 +1408,53 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1494,7 +1510,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1506,61 +1588,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1572,61 +1600,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1644,7 +1624,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1656,25 +1678,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1837,11 +1853,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1862,30 +1893,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1896,15 +1903,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1920,6 +1918,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1942,10 +1958,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1954,19 +1970,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1975,113 +1991,113 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6029,7 +6045,7 @@
   <dimension ref="A1:AE128"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+      <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -6837,13 +6853,29 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AE249"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -8062,7 +8094,7 @@
   <dimension ref="A1:AE123"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+      <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -8697,8 +8729,8 @@
   <sheetPr/>
   <dimension ref="A1:AE123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="J76" sqref="J76"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -9347,6 +9379,11 @@
       </c>
       <c r="C85" s="44"/>
     </row>
+    <row r="86" spans="3:3">
+      <c r="C86" s="43" t="s">
+        <v>359</v>
+      </c>
+    </row>
     <row r="91" s="43" customFormat="1" spans="3:5">
       <c r="C91" s="44"/>
       <c r="E91" s="44"/>
@@ -9394,10 +9431,538 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:AE123"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="4.875" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="42" customFormat="1" ht="22.5" spans="1:31">
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="H1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="V1" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="44"/>
+    </row>
+    <row r="2" s="42" customFormat="1" spans="1:27">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="49"/>
+    </row>
+    <row r="3" s="42" customFormat="1" spans="1:10">
+      <c r="A3" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="J3" s="43"/>
+    </row>
+    <row r="4" s="42" customFormat="1" spans="1:10">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="C4" s="43"/>
+      <c r="J4" s="43"/>
+    </row>
+    <row r="5" s="42" customFormat="1" spans="1:10">
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="J5" s="43"/>
+    </row>
+    <row r="6" s="42" customFormat="1" spans="1:10">
+      <c r="A6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="J6" s="43"/>
+    </row>
+    <row r="7" s="42" customFormat="1" spans="1:10">
+      <c r="A7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="43"/>
+      <c r="J7" s="43"/>
+    </row>
+    <row r="8" s="42" customFormat="1" spans="1:10">
+      <c r="A8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="43"/>
+      <c r="J8" s="43"/>
+    </row>
+    <row r="9" s="42" customFormat="1" spans="1:10">
+      <c r="A9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="42"/>
+      <c r="J9" s="43"/>
+    </row>
+    <row r="10" s="42" customFormat="1" spans="1:10">
+      <c r="A10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="43"/>
+      <c r="J10" s="43"/>
+    </row>
+    <row r="11" s="42" customFormat="1" spans="1:10">
+      <c r="A11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="42"/>
+      <c r="J11" s="43"/>
+    </row>
+    <row r="12" s="42" customFormat="1" spans="1:10">
+      <c r="A12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="42"/>
+      <c r="J12" s="43"/>
+    </row>
+    <row r="13" s="42" customFormat="1" spans="1:10">
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="42"/>
+      <c r="J13" s="43"/>
+    </row>
+    <row r="14" s="42" customFormat="1" spans="1:10">
+      <c r="A14" s="43"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="43"/>
+      <c r="J14" s="43"/>
+    </row>
+    <row r="15" s="42" customFormat="1" spans="1:10">
+      <c r="A15" s="43"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="43"/>
+      <c r="J15" s="43"/>
+    </row>
+    <row r="16" s="42" customFormat="1" spans="1:10">
+      <c r="A16" s="43"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="43"/>
+      <c r="J16" s="43"/>
+    </row>
+    <row r="17" s="42" customFormat="1" spans="1:10">
+      <c r="A17" s="43"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="43"/>
+      <c r="J17" s="43"/>
+    </row>
+    <row r="18" s="42" customFormat="1" spans="1:10">
+      <c r="A18" s="43"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="43"/>
+      <c r="J18" s="43"/>
+    </row>
+    <row r="19" s="42" customFormat="1" spans="1:10">
+      <c r="A19" s="43"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="43"/>
+      <c r="J19" s="43"/>
+    </row>
+    <row r="20" s="42" customFormat="1" spans="1:10">
+      <c r="A20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="43"/>
+      <c r="J20" s="43"/>
+    </row>
+    <row r="21" s="42" customFormat="1" spans="1:10">
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="42"/>
+      <c r="J21" s="43"/>
+    </row>
+    <row r="22" s="42" customFormat="1" spans="1:10">
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="43"/>
+      <c r="J22" s="43"/>
+    </row>
+    <row r="23" s="42" customFormat="1" spans="1:10">
+      <c r="A23" s="43"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="43"/>
+      <c r="J23" s="43"/>
+    </row>
+    <row r="24" s="42" customFormat="1" spans="1:10">
+      <c r="A24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="43"/>
+      <c r="J24" s="43"/>
+    </row>
+    <row r="25" s="42" customFormat="1" spans="1:10">
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="44"/>
+      <c r="J25" s="43"/>
+    </row>
+    <row r="26" s="42" customFormat="1" spans="1:10">
+      <c r="A26" s="43"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="J26" s="43"/>
+    </row>
+    <row r="27" s="42" customFormat="1" spans="1:10">
+      <c r="A27" s="43"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="J27" s="43"/>
+    </row>
+    <row r="28" s="42" customFormat="1" spans="1:10">
+      <c r="A28" s="43"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="42"/>
+      <c r="J28" s="43"/>
+    </row>
+    <row r="29" s="42" customFormat="1" spans="1:10">
+      <c r="A29" s="43"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="J29" s="43"/>
+    </row>
+    <row r="30" s="42" customFormat="1" spans="1:10">
+      <c r="A30" s="43"/>
+      <c r="B30" s="44"/>
+      <c r="J30" s="43"/>
+    </row>
+    <row r="31" s="42" customFormat="1" spans="3:10">
+      <c r="C31" s="44"/>
+      <c r="D31" s="42"/>
+      <c r="J31" s="43"/>
+    </row>
+    <row r="32" s="42" customFormat="1" spans="1:10">
+      <c r="A32" s="43"/>
+      <c r="B32" s="45"/>
+      <c r="J32" s="43"/>
+    </row>
+    <row r="33" s="42" customFormat="1" spans="1:10">
+      <c r="A33" s="43"/>
+      <c r="B33" s="45"/>
+      <c r="J33" s="43"/>
+    </row>
+    <row r="34" s="42" customFormat="1" spans="10:10">
+      <c r="J34" s="43"/>
+    </row>
+    <row r="35" s="42" customFormat="1" spans="1:10">
+      <c r="A35" s="43"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="44"/>
+      <c r="J35" s="43"/>
+    </row>
+    <row r="36" s="42" customFormat="1" spans="1:10">
+      <c r="A36" s="43"/>
+      <c r="B36" s="45"/>
+      <c r="J36" s="43"/>
+    </row>
+    <row r="37" s="42" customFormat="1" spans="10:10">
+      <c r="J37" s="43"/>
+    </row>
+    <row r="38" s="42" customFormat="1" spans="10:10">
+      <c r="J38" s="43"/>
+    </row>
+    <row r="39" s="42" customFormat="1" spans="1:10">
+      <c r="A39" s="43"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="44"/>
+      <c r="J39" s="43"/>
+    </row>
+    <row r="40" s="42" customFormat="1" spans="1:10">
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="47"/>
+      <c r="J40" s="43"/>
+    </row>
+    <row r="41" s="42" customFormat="1" spans="1:10">
+      <c r="A41" s="43"/>
+      <c r="B41" s="45"/>
+      <c r="J41" s="43"/>
+    </row>
+    <row r="42" s="42" customFormat="1" spans="10:10">
+      <c r="J42" s="43"/>
+    </row>
+    <row r="43" s="42" customFormat="1" spans="10:10">
+      <c r="J43" s="43"/>
+    </row>
+    <row r="44" s="42" customFormat="1" spans="3:10">
+      <c r="C44" s="44"/>
+      <c r="J44" s="43"/>
+    </row>
+    <row r="45" s="42" customFormat="1" spans="1:10">
+      <c r="A45" s="43"/>
+      <c r="J45" s="43"/>
+    </row>
+    <row r="46" s="42" customFormat="1" spans="1:10">
+      <c r="A46" s="43"/>
+      <c r="B46" s="45"/>
+      <c r="J46" s="43"/>
+    </row>
+    <row r="47" s="42" customFormat="1" spans="10:10">
+      <c r="J47" s="43"/>
+    </row>
+    <row r="48" s="42" customFormat="1" spans="1:10">
+      <c r="A48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="J48" s="43"/>
+    </row>
+    <row r="49" s="42" customFormat="1" spans="1:10">
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="J49" s="43"/>
+    </row>
+    <row r="50" s="42" customFormat="1" spans="1:10">
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="42"/>
+      <c r="J50" s="43"/>
+    </row>
+    <row r="51" s="42" customFormat="1" spans="1:16">
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="43"/>
+      <c r="P51" s="47"/>
+    </row>
+    <row r="52" s="42" customFormat="1" spans="1:10">
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="42"/>
+      <c r="J52" s="43"/>
+    </row>
+    <row r="53" s="42" customFormat="1" spans="1:10">
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="J53" s="43"/>
+    </row>
+    <row r="54" s="42" customFormat="1" spans="1:10">
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="42"/>
+      <c r="J54" s="43"/>
+    </row>
+    <row r="55" s="42" customFormat="1" spans="1:16">
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="43"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="43"/>
+      <c r="O55" s="43"/>
+      <c r="P55" s="47"/>
+    </row>
+    <row r="56" s="42" customFormat="1" spans="1:10">
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="44"/>
+      <c r="J56" s="43"/>
+    </row>
+    <row r="57" s="42" customFormat="1" spans="1:10">
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="44"/>
+      <c r="J57" s="43"/>
+    </row>
+    <row r="58" s="42" customFormat="1" spans="1:10">
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="42"/>
+      <c r="J58" s="43"/>
+    </row>
+    <row r="59" s="42" customFormat="1" spans="1:10">
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="J59" s="43"/>
+    </row>
+    <row r="60" s="42" customFormat="1" spans="1:10">
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="J60" s="43"/>
+    </row>
+    <row r="61" s="42" customFormat="1" spans="1:10">
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="J61" s="43"/>
+    </row>
+    <row r="66" s="43" customFormat="1" spans="2:2">
+      <c r="B66" s="45"/>
+    </row>
+    <row r="81" s="43" customFormat="1" spans="3:3">
+      <c r="C81" s="47"/>
+    </row>
+    <row r="82" s="43" customFormat="1" spans="3:3">
+      <c r="C82" s="44"/>
+    </row>
+    <row r="83" s="43" customFormat="1" spans="3:3">
+      <c r="C83" s="47"/>
+    </row>
+    <row r="84" s="43" customFormat="1" spans="3:3">
+      <c r="C84" s="45"/>
+    </row>
+    <row r="85" s="43" customFormat="1" spans="3:3">
+      <c r="C85" s="44"/>
+    </row>
+    <row r="86" s="43" customFormat="1" spans="3:3">
+      <c r="C86" s="45"/>
+    </row>
+    <row r="91" s="43" customFormat="1" spans="3:5">
+      <c r="C91" s="44"/>
+      <c r="E91" s="44"/>
+    </row>
+    <row r="92" s="43" customFormat="1" spans="3:3">
+      <c r="C92" s="45"/>
+    </row>
+    <row r="114" s="43" customFormat="1" spans="2:2">
+      <c r="B114" s="44"/>
+    </row>
+    <row r="115" s="43" customFormat="1" spans="2:2">
+      <c r="B115" s="44"/>
+    </row>
+    <row r="116" s="43" customFormat="1" spans="2:2">
+      <c r="B116" s="44"/>
+    </row>
+    <row r="117" s="43" customFormat="1" spans="2:2">
+      <c r="B117" s="44"/>
+    </row>
+    <row r="118" s="43" customFormat="1" spans="2:2">
+      <c r="B118" s="44"/>
+    </row>
+    <row r="119" s="43" customFormat="1" spans="2:2">
+      <c r="B119" s="44"/>
+    </row>
+    <row r="120" s="43" customFormat="1" spans="2:2">
+      <c r="B120" s="44"/>
+    </row>
+    <row r="121" s="43" customFormat="1" spans="2:2">
+      <c r="B121" s="44"/>
+    </row>
+    <row r="122" s="43" customFormat="1" spans="2:2">
+      <c r="B122" s="44"/>
+    </row>
+    <row r="123" s="43" customFormat="1" spans="2:2">
+      <c r="B123" s="44"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AE122"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -9896,13 +10461,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A80"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -9912,12 +10477,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -9927,13 +10492,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A35:A136"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -9943,7 +10508,7 @@
   <sheetData>
     <row r="35" customFormat="1" spans="1:1">
       <c r="A35" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36" customFormat="1"/>
@@ -9968,7 +10533,7 @@
     <row r="55" customFormat="1"/>
     <row r="56" customFormat="1" spans="1:1">
       <c r="A56" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="57" customFormat="1"/>
@@ -9985,12 +10550,12 @@
     <row r="68" customFormat="1"/>
     <row r="69" customFormat="1" spans="1:1">
       <c r="A69" s="34" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:1">
       <c r="A70" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="71" customFormat="1"/>
@@ -10005,961 +10570,16 @@
     <row r="80" customFormat="1"/>
     <row r="134" spans="1:1">
       <c r="A134" s="34" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="34" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="34"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AB53"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Z46" sqref="Z46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="H3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="H4" t="s">
-        <v>374</v>
-      </c>
-      <c r="N4" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28">
-      <c r="A5" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="H5" t="s">
-        <v>378</v>
-      </c>
-      <c r="N5" s="20"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-    </row>
-    <row r="6" spans="1:28">
-      <c r="A6" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="21"/>
-      <c r="N6" s="22"/>
-      <c r="P6" t="s">
-        <v>381</v>
-      </c>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28" t="s">
-        <v>370</v>
-      </c>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-    </row>
-    <row r="7" spans="1:28">
-      <c r="A7" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="H7" s="5">
-        <v>1</v>
-      </c>
-      <c r="I7" s="21"/>
-      <c r="N7" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="P7" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q7" s="29"/>
-      <c r="S7" t="s">
-        <v>386</v>
-      </c>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="28" t="s">
-        <v>373</v>
-      </c>
-      <c r="AB7" s="28"/>
-    </row>
-    <row r="8" spans="1:28">
-      <c r="A8" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="H8" s="5">
-        <v>2</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="N8" s="22"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="30"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="28" t="s">
-        <v>377</v>
-      </c>
-      <c r="AB8" s="28"/>
-    </row>
-    <row r="9" spans="1:28">
-      <c r="A9" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="H9" s="5">
-        <v>3</v>
-      </c>
-      <c r="I9" s="21"/>
-      <c r="N9" s="22"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="30"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="AB9" s="28"/>
-    </row>
-    <row r="10" spans="1:28">
-      <c r="A10" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="H10" s="5">
-        <v>4</v>
-      </c>
-      <c r="I10" s="21"/>
-      <c r="N10" s="25" t="s">
-        <v>392</v>
-      </c>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="30"/>
-      <c r="S10" t="s">
-        <v>386</v>
-      </c>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="32" t="s">
-        <v>382</v>
-      </c>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="AB10" s="28"/>
-    </row>
-    <row r="11" spans="1:28">
-      <c r="A11" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="H11" s="5">
-        <v>5</v>
-      </c>
-      <c r="I11" s="21"/>
-      <c r="P11" s="26" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q11" s="21"/>
-      <c r="S11" t="s">
-        <v>394</v>
-      </c>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="28" t="s">
-        <v>388</v>
-      </c>
-      <c r="AB11" s="28"/>
-    </row>
-    <row r="12" spans="1:28">
-      <c r="A12" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="H12" s="5">
-        <v>6</v>
-      </c>
-      <c r="I12" s="21"/>
-      <c r="P12" s="26" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q12" s="21"/>
-      <c r="S12" t="s">
-        <v>396</v>
-      </c>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="32" t="s">
-        <v>389</v>
-      </c>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="28" t="s">
-        <v>390</v>
-      </c>
-      <c r="AB12" s="28"/>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="H13" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="I13" s="21"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="30"/>
-      <c r="X13" s="28"/>
-    </row>
-    <row r="14" spans="1:28">
-      <c r="A14" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="H14" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="I14" s="21"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="30"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28" t="s">
-        <v>391</v>
-      </c>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-    </row>
-    <row r="15" spans="1:28">
-      <c r="A15" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="N15" t="s">
-        <v>375</v>
-      </c>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="30"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="28" t="s">
-        <v>373</v>
-      </c>
-      <c r="AB15" s="28"/>
-    </row>
-    <row r="16" spans="1:28">
-      <c r="A16" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="N16" s="20"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="31"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="28" t="s">
-        <v>377</v>
-      </c>
-      <c r="AB16" s="28"/>
-    </row>
-    <row r="17" spans="1:28">
-      <c r="A17" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="H17" t="s">
-        <v>400</v>
-      </c>
-      <c r="N17" s="22"/>
-      <c r="P17" t="s">
-        <v>401</v>
-      </c>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="AB17" s="28"/>
-    </row>
-    <row r="18" spans="1:28">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="H18" t="s">
-        <v>402</v>
-      </c>
-      <c r="N18" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="P18" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q18" s="29"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="32" t="s">
-        <v>382</v>
-      </c>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="AB18" s="28"/>
-    </row>
-    <row r="19" spans="1:28">
-      <c r="A19" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="N19" s="22"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="30"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="28" t="s">
-        <v>388</v>
-      </c>
-      <c r="AB19" s="28"/>
-    </row>
-    <row r="20" spans="1:28">
-      <c r="A20" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="N20" s="22"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="30"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="32" t="s">
-        <v>389</v>
-      </c>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="28" t="s">
-        <v>390</v>
-      </c>
-      <c r="AB20" s="28"/>
-    </row>
-    <row r="21" spans="1:24">
-      <c r="A21" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="N21" s="25" t="s">
-        <v>392</v>
-      </c>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="30"/>
-      <c r="X21" s="28"/>
-    </row>
-    <row r="22" spans="1:28">
-      <c r="A22" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="P22" s="26" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q22" s="21"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28" t="s">
-        <v>399</v>
-      </c>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
-    </row>
-    <row r="23" spans="1:28">
-      <c r="A23" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="P23" s="26" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q23" s="21"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-    </row>
-    <row r="24" spans="1:28">
-      <c r="A24" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="30"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28" t="s">
-        <v>403</v>
-      </c>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-    </row>
-    <row r="25" spans="1:28">
-      <c r="A25" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="30"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="28" t="s">
-        <v>373</v>
-      </c>
-      <c r="AB25" s="28"/>
-    </row>
-    <row r="26" spans="1:28">
-      <c r="A26" t="s">
-        <v>404</v>
-      </c>
-      <c r="C26" t="s">
-        <v>405</v>
-      </c>
-      <c r="N26" t="s">
-        <v>375</v>
-      </c>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="30"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="28" t="s">
-        <v>377</v>
-      </c>
-      <c r="AB26" s="28"/>
-    </row>
-    <row r="27" spans="1:28">
-      <c r="A27" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="N27" s="20"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="31"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="AB27" s="28"/>
-    </row>
-    <row r="28" spans="1:28">
-      <c r="A28" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="N28" s="22"/>
-      <c r="P28" t="s">
-        <v>406</v>
-      </c>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="32" t="s">
-        <v>382</v>
-      </c>
-      <c r="Z28" s="33"/>
-      <c r="AA28" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="AB28" s="28"/>
-    </row>
-    <row r="29" spans="1:28">
-      <c r="A29" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="N29" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="P29" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q29" s="29"/>
-      <c r="Y29" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="28" t="s">
-        <v>388</v>
-      </c>
-      <c r="AB29" s="28"/>
-    </row>
-    <row r="30" spans="1:28">
-      <c r="A30" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="N30" s="22"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="30"/>
-      <c r="Y30" s="32" t="s">
-        <v>389</v>
-      </c>
-      <c r="Z30" s="33"/>
-      <c r="AA30" s="28" t="s">
-        <v>390</v>
-      </c>
-      <c r="AB30" s="28"/>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="N31" s="22"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="30"/>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="N32" s="25" t="s">
-        <v>392</v>
-      </c>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="30"/>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="P33" s="26" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q33" s="21"/>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="P34" s="26" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q34" s="21"/>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="30"/>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="30"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="N37" t="s">
-        <v>375</v>
-      </c>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="30"/>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="N38" s="20"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="31"/>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="N39" s="22"/>
-      <c r="P39" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="N40" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="P40" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q40" s="29"/>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="N41" s="22"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="30"/>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="N42" s="22"/>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="30"/>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="N43" s="25" t="s">
-        <v>392</v>
-      </c>
-      <c r="P43" s="24"/>
-      <c r="Q43" s="30"/>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="P44" s="26" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q44" s="21"/>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="P45" s="26" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q45" s="21"/>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="P46" s="24"/>
-      <c r="Q46" s="30"/>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="30"/>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48" s="18" t="s">
-        <v>399</v>
-      </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="30"/>
-    </row>
-    <row r="49" spans="1:17">
-      <c r="A49" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="10"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="31"/>
-    </row>
-    <row r="53" s="1" customFormat="1" spans="1:25">
-      <c r="A53" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="R53" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="S53" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="T53" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="U53" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="V53" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="W53" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="X53" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="Y53" s="1" t="s">
-        <v>409</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10971,15 +10591,944 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:AB53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="H3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="H4" t="s">
+        <v>379</v>
+      </c>
+      <c r="N4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="H5" t="s">
+        <v>383</v>
+      </c>
+      <c r="N5" s="20"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="N6" s="22"/>
+      <c r="P6" t="s">
+        <v>386</v>
+      </c>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="N7" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="P7" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q7" s="29"/>
+      <c r="S7" t="s">
+        <v>391</v>
+      </c>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="AB7" s="28"/>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="H8" s="5">
+        <v>2</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="N8" s="22"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="30"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="AB8" s="28"/>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="H9" s="5">
+        <v>3</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="N9" s="22"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="30"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="AB9" s="28"/>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="H10" s="5">
+        <v>4</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="N10" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="30"/>
+      <c r="S10" t="s">
+        <v>391</v>
+      </c>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="AB10" s="28"/>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="H11" s="5">
+        <v>5</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="P11" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q11" s="21"/>
+      <c r="S11" t="s">
+        <v>399</v>
+      </c>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="AB11" s="28"/>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="H12" s="5">
+        <v>6</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="P12" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q12" s="21"/>
+      <c r="S12" t="s">
+        <v>401</v>
+      </c>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="AB12" s="28"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="H13" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="30"/>
+      <c r="X13" s="28"/>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="H14" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="30"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="N15" t="s">
+        <v>380</v>
+      </c>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="30"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="AB15" s="28"/>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="N16" s="20"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="31"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="AB16" s="28"/>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="H17" t="s">
+        <v>405</v>
+      </c>
+      <c r="N17" s="22"/>
+      <c r="P17" t="s">
+        <v>406</v>
+      </c>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="AB17" s="28"/>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="H18" t="s">
+        <v>407</v>
+      </c>
+      <c r="N18" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="P18" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q18" s="29"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="AB18" s="28"/>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="N19" s="22"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="30"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="AB19" s="28"/>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="N20" s="22"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="30"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="AB20" s="28"/>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="N21" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="30"/>
+      <c r="X21" s="28"/>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="P22" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q22" s="21"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="P23" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q23" s="21"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="30"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="30"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z25" s="33"/>
+      <c r="AA25" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="AB25" s="28"/>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="A26" t="s">
+        <v>409</v>
+      </c>
+      <c r="C26" t="s">
+        <v>410</v>
+      </c>
+      <c r="N26" t="s">
+        <v>380</v>
+      </c>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="30"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="Z26" s="33"/>
+      <c r="AA26" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="AB26" s="28"/>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="N27" s="20"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="31"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="Z27" s="33"/>
+      <c r="AA27" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="AB27" s="28"/>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="A28" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="N28" s="22"/>
+      <c r="P28" t="s">
+        <v>411</v>
+      </c>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z28" s="33"/>
+      <c r="AA28" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="AB28" s="28"/>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="A29" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="N29" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="P29" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q29" s="29"/>
+      <c r="Y29" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z29" s="33"/>
+      <c r="AA29" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="AB29" s="28"/>
+    </row>
+    <row r="30" spans="1:28">
+      <c r="A30" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="N30" s="22"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="30"/>
+      <c r="Y30" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="Z30" s="33"/>
+      <c r="AA30" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="AB30" s="28"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="N31" s="22"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="30"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="N32" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="30"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="P33" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q33" s="21"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="P34" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q34" s="21"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="30"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="30"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="N37" t="s">
+        <v>380</v>
+      </c>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="30"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="N38" s="20"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="31"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="N39" s="22"/>
+      <c r="P39" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="N40" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="P40" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q40" s="29"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="N41" s="22"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="30"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="N42" s="22"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="30"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="N43" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="30"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="P44" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q44" s="21"/>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="B45" s="16"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="P45" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q45" s="21"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="30"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="30"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="B48" s="16"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="30"/>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="B49" s="15"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="10"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="31"/>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="1:25">
+      <c r="A53" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="T53" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="W53" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="X53" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y53" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/uCOS操作系统/操作系统笔记.xlsx
+++ b/uCOS操作系统/操作系统笔记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="812" activeTab="3"/>
+    <workbookView windowWidth="18530" windowHeight="7130" tabRatio="812" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="429">
   <si>
     <t>操作系统</t>
   </si>
@@ -1096,7 +1096,49 @@
     <t>这时30任务和40任务也就绪了，一直跑不到50任务，50任务就一直不释放信号量，这样3任务就一直阻塞着。出现了优先级反转问题，解决方法就是临时调整50任务的优先级变成1，这样就纠正了反转</t>
   </si>
   <si>
-    <t>4.4.8没学，之后学</t>
+    <t>4.4.8互斥信号量应用举例</t>
+  </si>
+  <si>
+    <t>互斥信号量的特点在于优先级的提升</t>
+  </si>
+  <si>
+    <t>eg：有两个任务，高优先级任务TaskMutex1，低优先级任务TaskMutex2，中优先级任务TaskPrint，任务详情如下</t>
+  </si>
+  <si>
+    <t>任务名</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>TaskMutex1</t>
+  </si>
+  <si>
+    <t>高优先级任务，操作串口，时间戳为0的时候创建互斥信号量，然后延时，在时间片为100的时候访问串口</t>
+  </si>
+  <si>
+    <t>TaskMutex2</t>
+  </si>
+  <si>
+    <t>低优先级任务，操作串口，0时间片开实延时，时间片为90开始访问串口</t>
+  </si>
+  <si>
+    <t>TaskPrint</t>
+  </si>
+  <si>
+    <t>一个和串口无关的中优先级任务，0时间片开始延时，95时间片恢复运行。</t>
+  </si>
+  <si>
+    <t>可见任务1和2都要访问串口这个互斥资源，1的优先级是5，2的优先级是60，2在90的时候访问，1在100的时候访问，因此任务2先运行</t>
+  </si>
+  <si>
+    <t>1运行拿不到信号量，阻塞自己，这是print任务会抢占任务1，出现优先级反转。所以要使用调整优先级，</t>
+  </si>
+  <si>
+    <t>2任务访问互斥信号量时优先级调成2，这样任务2信号量还回去的时候任务1运行，程序在工程中</t>
   </si>
   <si>
     <t>4.5事件标志组管理</t>
@@ -1275,10 +1317,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1324,30 +1366,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1360,9 +1381,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1370,7 +1397,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1385,7 +1427,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1399,8 +1457,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1413,59 +1502,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="ＭＳ ゴシック"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1504,7 +1546,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.25"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1516,37 +1630,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1558,55 +1702,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1618,55 +1714,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1678,24 +1726,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1853,26 +1889,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1893,40 +1931,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1950,6 +1964,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1958,10 +2005,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1970,19 +2017,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1991,117 +2038,117 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2228,29 +2275,50 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -2356,8 +2424,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1114425" y="9543415"/>
-          <a:ext cx="2828925" cy="2094230"/>
+          <a:off x="1021080" y="9886315"/>
+          <a:ext cx="2611120" cy="2176780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2398,8 +2466,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="742950" y="1143000"/>
-          <a:ext cx="5534025" cy="2562225"/>
+          <a:off x="680720" y="1181100"/>
+          <a:ext cx="5098415" cy="2651125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2440,8 +2508,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1485900" y="16059150"/>
-          <a:ext cx="2628900" cy="1805940"/>
+          <a:off x="1361440" y="16649700"/>
+          <a:ext cx="2411095" cy="1869440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2487,8 +2555,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5737860" y="4517390"/>
-          <a:ext cx="11849100" cy="228600"/>
+          <a:off x="5271135" y="4676140"/>
+          <a:ext cx="10853420" cy="241300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2529,8 +2597,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1114425" y="5942965"/>
-          <a:ext cx="2317115" cy="2047240"/>
+          <a:off x="1021080" y="6152515"/>
+          <a:ext cx="2130425" cy="2123440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2571,8 +2639,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4654550" y="8950960"/>
-          <a:ext cx="12061825" cy="228600"/>
+          <a:off x="4281170" y="9274810"/>
+          <a:ext cx="11035030" cy="234950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2613,8 +2681,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2510155" y="10082530"/>
-          <a:ext cx="2319020" cy="433070"/>
+          <a:off x="2323465" y="10450830"/>
+          <a:ext cx="2101215" cy="445770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2655,8 +2723,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1485900" y="12115800"/>
-          <a:ext cx="3032125" cy="641985"/>
+          <a:off x="1361440" y="12560300"/>
+          <a:ext cx="2783205" cy="661035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2689,8 +2757,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3654425" y="12419965"/>
-          <a:ext cx="446405" cy="291465"/>
+          <a:off x="3374390" y="12870815"/>
+          <a:ext cx="384175" cy="304165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2764,8 +2832,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2480945" y="12560935"/>
-          <a:ext cx="1172845" cy="4445"/>
+          <a:off x="2294255" y="13018135"/>
+          <a:ext cx="1079500" cy="4445"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2813,8 +2881,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3416300" y="12565380"/>
-          <a:ext cx="237490" cy="113665"/>
+          <a:off x="3136265" y="13022580"/>
+          <a:ext cx="237490" cy="120015"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2868,8 +2936,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1485900" y="12801600"/>
-          <a:ext cx="3017520" cy="1651635"/>
+          <a:off x="1361440" y="13271500"/>
+          <a:ext cx="2768600" cy="1708785"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2910,8 +2978,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1485900" y="16059150"/>
-          <a:ext cx="3343275" cy="322580"/>
+          <a:off x="1361440" y="16649700"/>
+          <a:ext cx="3063240" cy="328930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2952,8 +3020,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1113790" y="17621250"/>
-          <a:ext cx="1412240" cy="796925"/>
+          <a:off x="1021080" y="18268950"/>
+          <a:ext cx="1318260" cy="822325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2986,8 +3054,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2604770" y="17628235"/>
-          <a:ext cx="1726565" cy="1247775"/>
+          <a:off x="2386965" y="18275935"/>
+          <a:ext cx="1602105" cy="1292225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3147,8 +3215,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1114425" y="21545550"/>
-          <a:ext cx="2304415" cy="1800225"/>
+          <a:off x="1021080" y="22339300"/>
+          <a:ext cx="2117725" cy="1863725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3189,8 +3257,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1114425" y="24631650"/>
-          <a:ext cx="3476625" cy="3248025"/>
+          <a:off x="1021080" y="25539700"/>
+          <a:ext cx="3196590" cy="3362325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3231,8 +3299,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1113790" y="29260165"/>
-          <a:ext cx="1115060" cy="1464945"/>
+          <a:off x="1021080" y="30333315"/>
+          <a:ext cx="1021080" cy="1522095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3273,8 +3341,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1113790" y="31146750"/>
-          <a:ext cx="1350645" cy="682625"/>
+          <a:off x="1021080" y="32296100"/>
+          <a:ext cx="1256665" cy="701675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3320,8 +3388,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1111250" y="2343150"/>
-          <a:ext cx="2012315" cy="1143635"/>
+          <a:off x="1021080" y="2425700"/>
+          <a:ext cx="1853565" cy="1181735"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3362,8 +3430,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1113790" y="3714115"/>
-          <a:ext cx="2196465" cy="1013460"/>
+          <a:off x="1021080" y="3841115"/>
+          <a:ext cx="2040255" cy="1051560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3404,8 +3472,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1112520" y="5600700"/>
-          <a:ext cx="2640965" cy="1864360"/>
+          <a:off x="1021080" y="5803900"/>
+          <a:ext cx="2421255" cy="1927860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3452,7 +3520,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6210300" cy="11610975"/>
+          <a:ext cx="5712460" cy="12036425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3485,8 +3553,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5276850" y="38100"/>
-          <a:ext cx="8296275" cy="866775"/>
+          <a:off x="4841240" y="38100"/>
+          <a:ext cx="7611745" cy="892175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3574,8 +3642,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4133850" y="1266825"/>
-          <a:ext cx="2781935" cy="657860"/>
+          <a:off x="3791585" y="1304925"/>
+          <a:ext cx="2564130" cy="683260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3754,8 +3822,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5216525" y="3664585"/>
-          <a:ext cx="3369310" cy="670560"/>
+          <a:off x="4780915" y="3791585"/>
+          <a:ext cx="3089275" cy="695960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3934,8 +4002,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4702175" y="6781800"/>
-          <a:ext cx="3369310" cy="1762125"/>
+          <a:off x="4328795" y="7023100"/>
+          <a:ext cx="3089275" cy="1831975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4286,8 +4354,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6219825" y="5010150"/>
-          <a:ext cx="5924550" cy="1724025"/>
+          <a:off x="5721985" y="5187950"/>
+          <a:ext cx="5426710" cy="1787525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4328,8 +4396,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6245225" y="8616950"/>
-          <a:ext cx="6019800" cy="1209675"/>
+          <a:off x="5747385" y="8928100"/>
+          <a:ext cx="5490845" cy="1254125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4375,8 +4443,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="171450"/>
-          <a:ext cx="5638800" cy="13173075"/>
+          <a:off x="0" y="177800"/>
+          <a:ext cx="5171440" cy="13655675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4417,8 +4485,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="13716000"/>
-          <a:ext cx="4333875" cy="6934200"/>
+          <a:off x="0" y="14224000"/>
+          <a:ext cx="3983355" cy="7188200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4465,7 +4533,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4581525" cy="5648325"/>
+          <a:ext cx="4201795" cy="5851525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4506,8 +4574,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6000750"/>
-          <a:ext cx="4229100" cy="3283585"/>
+          <a:off x="0" y="6223000"/>
+          <a:ext cx="3878580" cy="3404235"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4548,8 +4616,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="9601200"/>
-          <a:ext cx="4572000" cy="2030730"/>
+          <a:off x="9525" y="9956800"/>
+          <a:ext cx="4192270" cy="2100580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4590,8 +4658,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="12001500"/>
-          <a:ext cx="6172200" cy="10696575"/>
+          <a:off x="0" y="12446000"/>
+          <a:ext cx="5675630" cy="11090275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4629,8 +4697,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9237980" y="1116965"/>
-          <a:ext cx="955675" cy="0"/>
+          <a:off x="8495030" y="1155065"/>
+          <a:ext cx="898525" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4676,8 +4744,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11156315" y="1818005"/>
-          <a:ext cx="1196340" cy="0"/>
+          <a:off x="10241915" y="1881505"/>
+          <a:ext cx="1082040" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4723,8 +4791,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9260205" y="2995295"/>
-          <a:ext cx="955675" cy="0"/>
+          <a:off x="8517255" y="3103245"/>
+          <a:ext cx="898525" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4770,8 +4838,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9260205" y="4881245"/>
-          <a:ext cx="955675" cy="0"/>
+          <a:off x="8517255" y="5059045"/>
+          <a:ext cx="898525" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4817,8 +4885,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9260205" y="6767195"/>
-          <a:ext cx="955675" cy="0"/>
+          <a:off x="8517255" y="7014845"/>
+          <a:ext cx="898525" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4867,8 +4935,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="10225405" y="1798955"/>
-          <a:ext cx="74295" cy="1878330"/>
+          <a:off x="9425305" y="1862455"/>
+          <a:ext cx="17145" cy="1948180"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4916,8 +4984,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="10295890" y="3710305"/>
-          <a:ext cx="17145" cy="1878330"/>
+          <a:off x="9438640" y="3843655"/>
+          <a:ext cx="17145" cy="1948180"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4965,8 +5033,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="10207625" y="5641340"/>
-          <a:ext cx="17145" cy="1878330"/>
+          <a:off x="9407525" y="5844540"/>
+          <a:ext cx="17145" cy="1948180"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5017,8 +5085,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11593830" y="7477125"/>
-          <a:ext cx="213995" cy="1456055"/>
+          <a:off x="10679430" y="7750175"/>
+          <a:ext cx="156845" cy="1513205"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5064,8 +5132,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15476220" y="9598660"/>
-          <a:ext cx="1042670" cy="633730"/>
+          <a:off x="14218920" y="9947910"/>
+          <a:ext cx="928370" cy="659130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5216,8 +5284,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12508865" y="9793605"/>
-          <a:ext cx="984885" cy="640080"/>
+          <a:off x="11480165" y="10155555"/>
+          <a:ext cx="927735" cy="659130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5371,8 +5439,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="14066520" y="8502015"/>
-          <a:ext cx="835025" cy="3025140"/>
+          <a:off x="12879070" y="9010015"/>
+          <a:ext cx="866775" cy="2739390"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector5">
           <a:avLst>
@@ -5425,8 +5493,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="10521315" y="5446395"/>
-          <a:ext cx="6967220" cy="635"/>
+          <a:off x="9248140" y="5646420"/>
+          <a:ext cx="7227570" cy="635"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5482,8 +5550,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4324985" y="3121660"/>
-          <a:ext cx="2763520" cy="1330325"/>
+          <a:off x="3982085" y="3235960"/>
+          <a:ext cx="2534920" cy="1374775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5519,8 +5587,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6179185" y="921385"/>
-          <a:ext cx="4219575" cy="57150"/>
+          <a:off x="5664835" y="953135"/>
+          <a:ext cx="3876675" cy="57150"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
@@ -5569,8 +5637,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14575155" y="1136650"/>
-          <a:ext cx="1851660" cy="112395"/>
+          <a:off x="13375005" y="1174750"/>
+          <a:ext cx="1712595" cy="118745"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5621,8 +5689,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="16458565" y="1332230"/>
-          <a:ext cx="635" cy="1290955"/>
+          <a:off x="15087600" y="1376680"/>
+          <a:ext cx="0" cy="1341755"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5673,8 +5741,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="16465550" y="2710180"/>
-          <a:ext cx="8890" cy="1619885"/>
+          <a:off x="15093950" y="2805430"/>
+          <a:ext cx="8890" cy="1683385"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5725,8 +5793,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="16202660" y="4417695"/>
-          <a:ext cx="243205" cy="4490085"/>
+          <a:off x="14888210" y="4576445"/>
+          <a:ext cx="199390" cy="4655185"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -6048,12 +6116,12 @@
       <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.87272727272727" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="35"/>
+    <col min="1" max="16384" width="4.87272727272727" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="1" ht="22.5" spans="1:31">
+    <row r="1" s="28" customFormat="1" ht="23" spans="1:31">
       <c r="A1" s="35"/>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -6862,7 +6930,7 @@
       <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6878,12 +6946,12 @@
       <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.87272727272727" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="35"/>
+    <col min="1" max="16384" width="4.87272727272727" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="1" ht="22.5" spans="1:31">
+    <row r="1" s="28" customFormat="1" ht="23" spans="1:31">
       <c r="A1" s="35"/>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -7155,7 +7223,7 @@
       <c r="A25" s="35"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
-      <c r="E25" s="50" t="s">
+      <c r="E25" s="57" t="s">
         <v>119</v>
       </c>
       <c r="J25" s="35"/>
@@ -7592,7 +7660,7 @@
     </row>
     <row r="112" s="35" customFormat="1" spans="2:4">
       <c r="B112" s="36"/>
-      <c r="D112" s="51" t="s">
+      <c r="D112" s="58" t="s">
         <v>168</v>
       </c>
     </row>
@@ -7616,7 +7684,7 @@
     </row>
     <row r="116" s="35" customFormat="1" spans="2:4">
       <c r="B116" s="36"/>
-      <c r="D116" s="51" t="s">
+      <c r="D116" s="58" t="s">
         <v>172</v>
       </c>
     </row>
@@ -7650,7 +7718,7 @@
       </c>
     </row>
     <row r="122" spans="4:4">
-      <c r="D122" s="51" t="s">
+      <c r="D122" s="58" t="s">
         <v>168</v>
       </c>
     </row>
@@ -8097,12 +8165,12 @@
       <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.87272727272727" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="35"/>
+    <col min="1" max="16384" width="4.87272727272727" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="1" ht="22.5" spans="1:31">
+    <row r="1" s="28" customFormat="1" ht="23" spans="1:31">
       <c r="A1" s="35"/>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -8727,18 +8795,18 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE123"/>
+  <dimension ref="A1:AE122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="K97" sqref="K97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.87272727272727" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="43"/>
+    <col min="1" max="16384" width="4.87272727272727" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" s="42" customFormat="1" ht="22.5" spans="1:31">
+    <row r="1" s="42" customFormat="1" ht="23" spans="1:31">
       <c r="A1" s="43"/>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -9368,28 +9436,177 @@
         <v>356</v>
       </c>
     </row>
-    <row r="84" s="43" customFormat="1" spans="3:3">
-      <c r="C84" s="45" t="s">
+    <row r="84" s="43" customFormat="1" spans="2:2">
+      <c r="B84" s="43" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="85" s="43" customFormat="1" spans="2:3">
-      <c r="B85" s="43" t="s">
+    <row r="85" spans="3:3">
+      <c r="C85" s="43" t="s">
         <v>358</v>
       </c>
-      <c r="C85" s="44"/>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" s="43" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="91" s="43" customFormat="1" spans="3:5">
-      <c r="C91" s="44"/>
-      <c r="E91" s="44"/>
-    </row>
-    <row r="92" s="43" customFormat="1" spans="3:3">
-      <c r="C92" s="45"/>
+    <row r="87" spans="4:27">
+      <c r="D87" s="50" t="s">
+        <v>360</v>
+      </c>
+      <c r="E87" s="50"/>
+      <c r="F87" s="50"/>
+      <c r="G87" s="50" t="s">
+        <v>361</v>
+      </c>
+      <c r="H87" s="50"/>
+      <c r="I87" s="51" t="s">
+        <v>362</v>
+      </c>
+      <c r="J87" s="52"/>
+      <c r="K87" s="52"/>
+      <c r="L87" s="52"/>
+      <c r="M87" s="52"/>
+      <c r="N87" s="52"/>
+      <c r="O87" s="52"/>
+      <c r="P87" s="52"/>
+      <c r="Q87" s="52"/>
+      <c r="R87" s="52"/>
+      <c r="S87" s="52"/>
+      <c r="T87" s="52"/>
+      <c r="U87" s="52"/>
+      <c r="V87" s="52"/>
+      <c r="W87" s="52"/>
+      <c r="X87" s="52"/>
+      <c r="Y87" s="52"/>
+      <c r="Z87" s="52"/>
+      <c r="AA87" s="55"/>
+    </row>
+    <row r="88" spans="4:27">
+      <c r="D88" s="50" t="s">
+        <v>363</v>
+      </c>
+      <c r="E88" s="50"/>
+      <c r="F88" s="50"/>
+      <c r="G88" s="50">
+        <v>5</v>
+      </c>
+      <c r="H88" s="50"/>
+      <c r="I88" s="53" t="s">
+        <v>364</v>
+      </c>
+      <c r="J88" s="54"/>
+      <c r="K88" s="54"/>
+      <c r="L88" s="54"/>
+      <c r="M88" s="54"/>
+      <c r="N88" s="54"/>
+      <c r="O88" s="54"/>
+      <c r="P88" s="54"/>
+      <c r="Q88" s="54"/>
+      <c r="R88" s="54"/>
+      <c r="S88" s="54"/>
+      <c r="T88" s="54"/>
+      <c r="U88" s="54"/>
+      <c r="V88" s="54"/>
+      <c r="W88" s="54"/>
+      <c r="X88" s="54"/>
+      <c r="Y88" s="54"/>
+      <c r="Z88" s="54"/>
+      <c r="AA88" s="56"/>
+    </row>
+    <row r="89" spans="4:27">
+      <c r="D89" s="50" t="s">
+        <v>365</v>
+      </c>
+      <c r="E89" s="50"/>
+      <c r="F89" s="50"/>
+      <c r="G89" s="50">
+        <v>60</v>
+      </c>
+      <c r="H89" s="50"/>
+      <c r="I89" s="53" t="s">
+        <v>366</v>
+      </c>
+      <c r="J89" s="54"/>
+      <c r="K89" s="54"/>
+      <c r="L89" s="54"/>
+      <c r="M89" s="54"/>
+      <c r="N89" s="54"/>
+      <c r="O89" s="54"/>
+      <c r="P89" s="54"/>
+      <c r="Q89" s="54"/>
+      <c r="R89" s="54"/>
+      <c r="S89" s="54"/>
+      <c r="T89" s="54"/>
+      <c r="U89" s="54"/>
+      <c r="V89" s="54"/>
+      <c r="W89" s="54"/>
+      <c r="X89" s="54"/>
+      <c r="Y89" s="54"/>
+      <c r="Z89" s="54"/>
+      <c r="AA89" s="56"/>
+    </row>
+    <row r="90" s="43" customFormat="1" spans="4:27">
+      <c r="D90" s="50" t="s">
+        <v>367</v>
+      </c>
+      <c r="E90" s="50"/>
+      <c r="F90" s="50"/>
+      <c r="G90" s="50">
+        <v>20</v>
+      </c>
+      <c r="H90" s="50"/>
+      <c r="I90" s="53" t="s">
+        <v>368</v>
+      </c>
+      <c r="J90" s="54"/>
+      <c r="K90" s="54"/>
+      <c r="L90" s="54"/>
+      <c r="M90" s="54"/>
+      <c r="N90" s="54"/>
+      <c r="O90" s="54"/>
+      <c r="P90" s="54"/>
+      <c r="Q90" s="54"/>
+      <c r="R90" s="54"/>
+      <c r="S90" s="54"/>
+      <c r="T90" s="54"/>
+      <c r="U90" s="54"/>
+      <c r="V90" s="54"/>
+      <c r="W90" s="54"/>
+      <c r="X90" s="54"/>
+      <c r="Y90" s="54"/>
+      <c r="Z90" s="54"/>
+      <c r="AA90" s="56"/>
+    </row>
+    <row r="91" s="43" customFormat="1" spans="4:4">
+      <c r="D91" s="43" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4">
+      <c r="D92" s="43" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4">
+      <c r="D93" s="43" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="C94" s="44"/>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95" s="43" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="113" s="43" customFormat="1" spans="2:2">
+      <c r="B113" s="44"/>
     </row>
     <row r="114" s="43" customFormat="1" spans="2:2">
       <c r="B114" s="44"/>
@@ -9418,10 +9635,20 @@
     <row r="122" s="43" customFormat="1" spans="2:2">
       <c r="B122" s="44"/>
     </row>
-    <row r="123" s="43" customFormat="1" spans="2:2">
-      <c r="B123" s="44"/>
-    </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="I88:AA88"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="I89:AA89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="I90:AA90"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -9434,15 +9661,15 @@
   <dimension ref="A1:AE123"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C7" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.87272727272727" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="43"/>
+    <col min="1" max="16384" width="4.87272727272727" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" s="42" customFormat="1" ht="22.5" spans="1:31">
+    <row r="1" s="42" customFormat="1" ht="23" spans="1:31">
       <c r="A1" s="43"/>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -9526,7 +9753,7 @@
     </row>
     <row r="3" s="42" customFormat="1" spans="1:10">
       <c r="A3" s="43" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="B3" s="43"/>
       <c r="J3" s="43"/>
@@ -9534,7 +9761,7 @@
     <row r="4" s="42" customFormat="1" spans="1:10">
       <c r="A4" s="43"/>
       <c r="B4" s="43" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="C4" s="43"/>
       <c r="J4" s="43"/>
@@ -9543,7 +9770,7 @@
       <c r="A5" s="43"/>
       <c r="B5" s="44"/>
       <c r="C5" s="43" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="J5" s="43"/>
     </row>
@@ -9551,7 +9778,7 @@
       <c r="A6" s="43"/>
       <c r="B6" s="44"/>
       <c r="C6" s="43" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="J6" s="43"/>
     </row>
@@ -9571,7 +9798,6 @@
       <c r="A9" s="43"/>
       <c r="B9" s="44"/>
       <c r="C9" s="43"/>
-      <c r="D9" s="42"/>
       <c r="J9" s="43"/>
     </row>
     <row r="10" s="42" customFormat="1" spans="1:10">
@@ -9584,21 +9810,18 @@
       <c r="A11" s="43"/>
       <c r="B11" s="44"/>
       <c r="C11" s="43"/>
-      <c r="D11" s="42"/>
       <c r="J11" s="43"/>
     </row>
     <row r="12" s="42" customFormat="1" spans="1:10">
       <c r="A12" s="43"/>
       <c r="B12" s="44"/>
       <c r="C12" s="43"/>
-      <c r="D12" s="42"/>
       <c r="J12" s="43"/>
     </row>
     <row r="13" s="42" customFormat="1" spans="1:10">
       <c r="A13" s="43"/>
       <c r="B13" s="44"/>
       <c r="C13" s="43"/>
-      <c r="D13" s="42"/>
       <c r="J13" s="43"/>
     </row>
     <row r="14" s="42" customFormat="1" spans="1:10">
@@ -9647,7 +9870,6 @@
       <c r="A21" s="43"/>
       <c r="B21" s="44"/>
       <c r="C21" s="43"/>
-      <c r="D21" s="42"/>
       <c r="J21" s="43"/>
     </row>
     <row r="22" s="42" customFormat="1" spans="1:10">
@@ -9690,7 +9912,6 @@
       <c r="A28" s="43"/>
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
-      <c r="D28" s="42"/>
       <c r="J28" s="43"/>
     </row>
     <row r="29" s="42" customFormat="1" spans="1:10">
@@ -9706,7 +9927,6 @@
     </row>
     <row r="31" s="42" customFormat="1" spans="3:10">
       <c r="C31" s="44"/>
-      <c r="D31" s="42"/>
       <c r="J31" s="43"/>
     </row>
     <row r="32" s="42" customFormat="1" spans="1:10">
@@ -9793,7 +10013,6 @@
       <c r="A50" s="43"/>
       <c r="B50" s="43"/>
       <c r="C50" s="43"/>
-      <c r="D50" s="42"/>
       <c r="J50" s="43"/>
     </row>
     <row r="51" s="42" customFormat="1" spans="1:16">
@@ -9818,7 +10037,6 @@
       <c r="A52" s="43"/>
       <c r="B52" s="43"/>
       <c r="C52" s="43"/>
-      <c r="D52" s="42"/>
       <c r="J52" s="43"/>
     </row>
     <row r="53" s="42" customFormat="1" spans="1:10">
@@ -9832,7 +10050,6 @@
       <c r="A54" s="43"/>
       <c r="B54" s="43"/>
       <c r="C54" s="43"/>
-      <c r="D54" s="42"/>
       <c r="J54" s="43"/>
     </row>
     <row r="55" s="42" customFormat="1" spans="1:16">
@@ -9871,7 +10088,6 @@
       <c r="A58" s="43"/>
       <c r="B58" s="43"/>
       <c r="C58" s="43"/>
-      <c r="D58" s="42"/>
       <c r="J58" s="43"/>
     </row>
     <row r="59" s="42" customFormat="1" spans="1:10">
@@ -9965,12 +10181,12 @@
       <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.87272727272727" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="35"/>
+    <col min="1" max="16384" width="4.87272727272727" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="1" ht="22.5" spans="1:31">
+    <row r="1" s="28" customFormat="1" ht="23" spans="1:31">
       <c r="A1" s="35"/>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -10470,19 +10686,19 @@
       <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.62727272727273" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="4.625" customWidth="1"/>
+    <col min="1" max="16384" width="4.62727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -10501,14 +10717,14 @@
       <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.62727272727273" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="4.625" customWidth="1"/>
+    <col min="1" max="16384" width="4.62727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="35" customFormat="1" spans="1:1">
       <c r="A35" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="36" customFormat="1"/>
@@ -10533,7 +10749,7 @@
     <row r="55" customFormat="1"/>
     <row r="56" customFormat="1" spans="1:1">
       <c r="A56" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
     </row>
     <row r="57" customFormat="1"/>
@@ -10550,12 +10766,12 @@
     <row r="68" customFormat="1"/>
     <row r="69" customFormat="1" spans="1:1">
       <c r="A69" s="34" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:1">
       <c r="A70" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
     </row>
     <row r="71" customFormat="1"/>
@@ -10570,12 +10786,12 @@
     <row r="80" customFormat="1"/>
     <row r="134" spans="1:1">
       <c r="A134" s="34" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="34" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
     </row>
     <row r="136" spans="1:1">
@@ -10597,59 +10813,59 @@
       <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="C2" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="H3" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="D4" s="2"/>
       <c r="H4" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="N4" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="3" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="D5" s="2"/>
       <c r="H5" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="N5" s="20"/>
       <c r="X5" s="28"/>
@@ -10660,11 +10876,11 @@
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="3" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="2" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="D6" s="2"/>
       <c r="H6" s="5">
@@ -10673,11 +10889,11 @@
       <c r="I6" s="21"/>
       <c r="N6" s="22"/>
       <c r="P6" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="X6" s="28"/>
       <c r="Y6" s="28" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="Z6" s="28"/>
       <c r="AA6" s="28"/>
@@ -10685,11 +10901,11 @@
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="3" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="2" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="D7" s="2"/>
       <c r="H7" s="5">
@@ -10697,32 +10913,32 @@
       </c>
       <c r="I7" s="21"/>
       <c r="N7" s="22" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="P7" s="23" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="Q7" s="29"/>
       <c r="S7" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="X7" s="28"/>
       <c r="Y7" s="32" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="Z7" s="33"/>
       <c r="AA7" s="28" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="AB7" s="28"/>
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="3" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="2" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="D8" s="2"/>
       <c r="H8" s="5">
@@ -10734,21 +10950,21 @@
       <c r="Q8" s="30"/>
       <c r="X8" s="28"/>
       <c r="Y8" s="32" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="Z8" s="33"/>
       <c r="AA8" s="28" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="AB8" s="28"/>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="3" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="2" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="D9" s="2"/>
       <c r="H9" s="5">
@@ -10760,17 +10976,17 @@
       <c r="Q9" s="30"/>
       <c r="X9" s="28"/>
       <c r="Y9" s="32" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="Z9" s="33"/>
       <c r="AA9" s="28" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="AB9" s="28"/>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="6" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -10780,30 +10996,30 @@
       </c>
       <c r="I10" s="21"/>
       <c r="N10" s="25" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="P10" s="24"/>
       <c r="Q10" s="30"/>
       <c r="S10" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="X10" s="28"/>
       <c r="Y10" s="32" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="Z10" s="33"/>
       <c r="AA10" s="28" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="AB10" s="28"/>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="7" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="6" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="D11" s="6"/>
       <c r="H11" s="5">
@@ -10811,29 +11027,29 @@
       </c>
       <c r="I11" s="21"/>
       <c r="P11" s="26" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="Q11" s="21"/>
       <c r="S11" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="X11" s="28"/>
       <c r="Y11" s="32" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="Z11" s="33"/>
       <c r="AA11" s="28" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="AB11" s="28"/>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="7" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="6" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="D12" s="6"/>
       <c r="H12" s="5">
@@ -10841,33 +11057,33 @@
       </c>
       <c r="I12" s="21"/>
       <c r="P12" s="26" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="Q12" s="21"/>
       <c r="S12" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="X12" s="28"/>
       <c r="Y12" s="32" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="Z12" s="33"/>
       <c r="AA12" s="28" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="AB12" s="28"/>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="7" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="6" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="D13" s="6"/>
       <c r="H13" s="5" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="I13" s="21"/>
       <c r="P13" s="24"/>
@@ -10876,22 +11092,22 @@
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="7" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="6" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="D14" s="6"/>
       <c r="H14" s="5" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="I14" s="21"/>
       <c r="P14" s="24"/>
       <c r="Q14" s="30"/>
       <c r="X14" s="28"/>
       <c r="Y14" s="28" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="Z14" s="28"/>
       <c r="AA14" s="28"/>
@@ -10899,35 +11115,35 @@
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="7" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="6" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="D15" s="6"/>
       <c r="N15" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="P15" s="24"/>
       <c r="Q15" s="30"/>
       <c r="X15" s="28"/>
       <c r="Y15" s="32" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="Z15" s="33"/>
       <c r="AA15" s="28" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="AB15" s="28"/>
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="7" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="6" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="D16" s="6"/>
       <c r="N16" s="20"/>
@@ -10935,35 +11151,35 @@
       <c r="Q16" s="31"/>
       <c r="X16" s="28"/>
       <c r="Y16" s="32" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="Z16" s="33"/>
       <c r="AA16" s="28" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="AB16" s="28"/>
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="9" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="H17" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="N17" s="22"/>
       <c r="P17" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="X17" s="28"/>
       <c r="Y17" s="32" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="Z17" s="33"/>
       <c r="AA17" s="28" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="AB17" s="28"/>
     </row>
@@ -10973,28 +11189,28 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="H18" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="N18" s="22" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="P18" s="23" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="Q18" s="29"/>
       <c r="X18" s="28"/>
       <c r="Y18" s="32" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="Z18" s="33"/>
       <c r="AA18" s="28" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="AB18" s="28"/>
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="10" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -11004,21 +11220,21 @@
       <c r="Q19" s="30"/>
       <c r="X19" s="28"/>
       <c r="Y19" s="32" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="Z19" s="33"/>
       <c r="AA19" s="28" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="AB19" s="28"/>
     </row>
     <row r="20" spans="1:28">
       <c r="A20" s="11" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="10" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="D20" s="10"/>
       <c r="N20" s="22"/>
@@ -11026,25 +11242,25 @@
       <c r="Q20" s="30"/>
       <c r="X20" s="28"/>
       <c r="Y20" s="32" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="Z20" s="33"/>
       <c r="AA20" s="28" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="AB20" s="28"/>
     </row>
     <row r="21" spans="1:24">
       <c r="A21" s="11" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="10" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="D21" s="10"/>
       <c r="N21" s="25" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="P21" s="24"/>
       <c r="Q21" s="30"/>
@@ -11052,20 +11268,20 @@
     </row>
     <row r="22" spans="1:28">
       <c r="A22" s="11" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="10" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="D22" s="10"/>
       <c r="P22" s="26" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="Q22" s="21"/>
       <c r="X22" s="28"/>
       <c r="Y22" s="28" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="Z22" s="28"/>
       <c r="AA22" s="28"/>
@@ -11073,15 +11289,15 @@
     </row>
     <row r="23" spans="1:28">
       <c r="A23" s="11" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="10" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="D23" s="10"/>
       <c r="P23" s="26" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="Q23" s="21"/>
       <c r="X23" s="28"/>
@@ -11092,18 +11308,18 @@
     </row>
     <row r="24" spans="1:28">
       <c r="A24" s="11" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="10" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="D24" s="10"/>
       <c r="P24" s="24"/>
       <c r="Q24" s="30"/>
       <c r="X24" s="28"/>
       <c r="Y24" s="28" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="Z24" s="28"/>
       <c r="AA24" s="28"/>
@@ -11111,50 +11327,50 @@
     </row>
     <row r="25" spans="1:28">
       <c r="A25" s="11" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="10" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="D25" s="10"/>
       <c r="P25" s="24"/>
       <c r="Q25" s="30"/>
       <c r="X25" s="28"/>
       <c r="Y25" s="32" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="Z25" s="33"/>
       <c r="AA25" s="28" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="AB25" s="28"/>
     </row>
     <row r="26" spans="1:28">
       <c r="A26" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="C26" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="N26" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="P26" s="24"/>
       <c r="Q26" s="30"/>
       <c r="X26" s="28"/>
       <c r="Y26" s="32" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="Z26" s="33"/>
       <c r="AA26" s="28" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="AB26" s="28"/>
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="2" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -11164,61 +11380,61 @@
       <c r="Q27" s="31"/>
       <c r="X27" s="28"/>
       <c r="Y27" s="32" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="Z27" s="33"/>
       <c r="AA27" s="28" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="AB27" s="28"/>
     </row>
     <row r="28" spans="1:28">
       <c r="A28" s="3" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="N28" s="22"/>
       <c r="P28" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="X28" s="28"/>
       <c r="Y28" s="32" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="Z28" s="33"/>
       <c r="AA28" s="28" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="AB28" s="28"/>
     </row>
     <row r="29" spans="1:28">
       <c r="A29" s="3" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="N29" s="22" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="P29" s="23" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="Q29" s="29"/>
       <c r="Y29" s="32" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="Z29" s="33"/>
       <c r="AA29" s="28" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="AB29" s="28"/>
     </row>
     <row r="30" spans="1:28">
       <c r="A30" s="3" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="2"/>
@@ -11227,17 +11443,17 @@
       <c r="P30" s="24"/>
       <c r="Q30" s="30"/>
       <c r="Y30" s="32" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="Z30" s="33"/>
       <c r="AA30" s="28" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="AB30" s="28"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="3" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="2"/>
@@ -11248,44 +11464,44 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="3" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="N32" s="25" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="P32" s="24"/>
       <c r="Q32" s="30"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="3" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="P33" s="26" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="Q33" s="21"/>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="6" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="P34" s="26" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="Q34" s="21"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="13" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="6"/>
@@ -11295,7 +11511,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="7" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="6"/>
@@ -11305,20 +11521,20 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="13" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="N37" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="P37" s="24"/>
       <c r="Q37" s="30"/>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="13" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="6"/>
@@ -11329,28 +11545,28 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="7" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="N39" s="22"/>
       <c r="P39" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="7" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="N40" s="22" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="P40" s="23" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="Q40" s="29"/>
     </row>
@@ -11374,44 +11590,44 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="10" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="N43" s="25" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="P43" s="24"/>
       <c r="Q43" s="30"/>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="14" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="P44" s="26" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="Q44" s="21"/>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="15" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="P45" s="26" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="Q45" s="21"/>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="10" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="B46" s="17"/>
       <c r="C46" s="10"/>
@@ -11421,7 +11637,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="11" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="10"/>
@@ -11431,7 +11647,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="18" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="10"/>
@@ -11441,7 +11657,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="15" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="B49" s="15"/>
       <c r="C49" s="19"/>
@@ -11451,79 +11667,79 @@
     </row>
     <row r="53" s="1" customFormat="1" spans="1:25">
       <c r="A53" s="1" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>

--- a/uCOS操作系统/操作系统笔记.xlsx
+++ b/uCOS操作系统/操作系统笔记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7130" tabRatio="812" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="812" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="428">
   <si>
     <t>操作系统</t>
   </si>
@@ -1142,9 +1142,6 @@
   </si>
   <si>
     <t>4.5事件标志组管理</t>
-  </si>
-  <si>
-    <t>在信号量和互斥信号量的管理中，任务请求资源，资源空闲可继续运行，不空闲就只能阻塞自己，等待资源的释放。</t>
   </si>
   <si>
     <t>第五章：消息管理</t>
@@ -1319,8 +1316,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1366,21 +1363,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1410,9 +1392,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1480,21 +1492,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -1546,7 +1543,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1558,49 +1585,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1612,31 +1597,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1654,7 +1615,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1666,67 +1711,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1901,6 +1898,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1911,21 +1923,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1948,28 +1945,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1992,8 +1969,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2005,10 +2002,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2017,16 +2014,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2038,16 +2035,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2056,99 +2047,105 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2270,30 +2267,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2424,8 +2397,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1021080" y="9886315"/>
-          <a:ext cx="2611120" cy="2176780"/>
+          <a:off x="1114425" y="9543415"/>
+          <a:ext cx="2828925" cy="2094230"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2466,8 +2439,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="680720" y="1181100"/>
-          <a:ext cx="5098415" cy="2651125"/>
+          <a:off x="742950" y="1143000"/>
+          <a:ext cx="5534025" cy="2562225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2508,8 +2481,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1361440" y="16649700"/>
-          <a:ext cx="2411095" cy="1869440"/>
+          <a:off x="1485900" y="16059150"/>
+          <a:ext cx="2628900" cy="1805940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2555,8 +2528,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5271135" y="4676140"/>
-          <a:ext cx="10853420" cy="241300"/>
+          <a:off x="5737860" y="4517390"/>
+          <a:ext cx="11849100" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2597,8 +2570,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1021080" y="6152515"/>
-          <a:ext cx="2130425" cy="2123440"/>
+          <a:off x="1114425" y="5942965"/>
+          <a:ext cx="2317115" cy="2047240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2639,8 +2612,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4281170" y="9274810"/>
-          <a:ext cx="11035030" cy="234950"/>
+          <a:off x="4654550" y="8950960"/>
+          <a:ext cx="12061825" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2681,8 +2654,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2323465" y="10450830"/>
-          <a:ext cx="2101215" cy="445770"/>
+          <a:off x="2510155" y="10082530"/>
+          <a:ext cx="2319020" cy="433070"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2723,8 +2696,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1361440" y="12560300"/>
-          <a:ext cx="2783205" cy="661035"/>
+          <a:off x="1485900" y="12115800"/>
+          <a:ext cx="3032125" cy="641985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2757,8 +2730,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3374390" y="12870815"/>
-          <a:ext cx="384175" cy="304165"/>
+          <a:off x="3654425" y="12419965"/>
+          <a:ext cx="446405" cy="291465"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2832,8 +2805,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2294255" y="13018135"/>
-          <a:ext cx="1079500" cy="4445"/>
+          <a:off x="2480945" y="12560935"/>
+          <a:ext cx="1172845" cy="4445"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2881,8 +2854,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3136265" y="13022580"/>
-          <a:ext cx="237490" cy="120015"/>
+          <a:off x="3416300" y="12565380"/>
+          <a:ext cx="237490" cy="113665"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2936,8 +2909,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1361440" y="13271500"/>
-          <a:ext cx="2768600" cy="1708785"/>
+          <a:off x="1485900" y="12801600"/>
+          <a:ext cx="3017520" cy="1651635"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2978,8 +2951,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1361440" y="16649700"/>
-          <a:ext cx="3063240" cy="328930"/>
+          <a:off x="1485900" y="16059150"/>
+          <a:ext cx="3343275" cy="322580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3020,8 +2993,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1021080" y="18268950"/>
-          <a:ext cx="1318260" cy="822325"/>
+          <a:off x="1113790" y="17621250"/>
+          <a:ext cx="1412240" cy="796925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3054,8 +3027,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2386965" y="18275935"/>
-          <a:ext cx="1602105" cy="1292225"/>
+          <a:off x="2604770" y="17628235"/>
+          <a:ext cx="1726565" cy="1247775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3215,8 +3188,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1021080" y="22339300"/>
-          <a:ext cx="2117725" cy="1863725"/>
+          <a:off x="1114425" y="21545550"/>
+          <a:ext cx="2304415" cy="1800225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3257,8 +3230,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1021080" y="25539700"/>
-          <a:ext cx="3196590" cy="3362325"/>
+          <a:off x="1114425" y="24631650"/>
+          <a:ext cx="3476625" cy="3248025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3299,8 +3272,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1021080" y="30333315"/>
-          <a:ext cx="1021080" cy="1522095"/>
+          <a:off x="1113790" y="29260165"/>
+          <a:ext cx="1115060" cy="1464945"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3341,8 +3314,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1021080" y="32296100"/>
-          <a:ext cx="1256665" cy="701675"/>
+          <a:off x="1113790" y="31146750"/>
+          <a:ext cx="1350645" cy="682625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3388,8 +3361,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1021080" y="2425700"/>
-          <a:ext cx="1853565" cy="1181735"/>
+          <a:off x="1111250" y="2343150"/>
+          <a:ext cx="2012315" cy="1143635"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3430,8 +3403,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1021080" y="3841115"/>
-          <a:ext cx="2040255" cy="1051560"/>
+          <a:off x="1113790" y="3714115"/>
+          <a:ext cx="2196465" cy="1013460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3472,8 +3445,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1021080" y="5803900"/>
-          <a:ext cx="2421255" cy="1927860"/>
+          <a:off x="1112520" y="5600700"/>
+          <a:ext cx="2640965" cy="1864360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3520,7 +3493,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5712460" cy="12036425"/>
+          <a:ext cx="6210300" cy="11610975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3553,8 +3526,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4841240" y="38100"/>
-          <a:ext cx="7611745" cy="892175"/>
+          <a:off x="5276850" y="38100"/>
+          <a:ext cx="8296275" cy="866775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3642,8 +3615,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3791585" y="1304925"/>
-          <a:ext cx="2564130" cy="683260"/>
+          <a:off x="4133850" y="1266825"/>
+          <a:ext cx="2781935" cy="657860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3822,8 +3795,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4780915" y="3791585"/>
-          <a:ext cx="3089275" cy="695960"/>
+          <a:off x="5216525" y="3664585"/>
+          <a:ext cx="3369310" cy="670560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4002,8 +3975,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4328795" y="7023100"/>
-          <a:ext cx="3089275" cy="1831975"/>
+          <a:off x="4702175" y="6781800"/>
+          <a:ext cx="3369310" cy="1762125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4354,8 +4327,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5721985" y="5187950"/>
-          <a:ext cx="5426710" cy="1787525"/>
+          <a:off x="6219825" y="5010150"/>
+          <a:ext cx="5924550" cy="1724025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4396,8 +4369,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5747385" y="8928100"/>
-          <a:ext cx="5490845" cy="1254125"/>
+          <a:off x="6245225" y="8616950"/>
+          <a:ext cx="6019800" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4443,8 +4416,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="177800"/>
-          <a:ext cx="5171440" cy="13655675"/>
+          <a:off x="0" y="171450"/>
+          <a:ext cx="5638800" cy="13173075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4485,8 +4458,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="14224000"/>
-          <a:ext cx="3983355" cy="7188200"/>
+          <a:off x="0" y="13716000"/>
+          <a:ext cx="4333875" cy="6934200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4533,7 +4506,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4201795" cy="5851525"/>
+          <a:ext cx="4581525" cy="5648325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4574,8 +4547,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6223000"/>
-          <a:ext cx="3878580" cy="3404235"/>
+          <a:off x="0" y="6000750"/>
+          <a:ext cx="4229100" cy="3283585"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4616,8 +4589,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="9956800"/>
-          <a:ext cx="4192270" cy="2100580"/>
+          <a:off x="9525" y="9601200"/>
+          <a:ext cx="4572000" cy="2030730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4658,8 +4631,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="12446000"/>
-          <a:ext cx="5675630" cy="11090275"/>
+          <a:off x="0" y="12001500"/>
+          <a:ext cx="6172200" cy="10696575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4697,8 +4670,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8495030" y="1155065"/>
-          <a:ext cx="898525" cy="0"/>
+          <a:off x="9237980" y="1116965"/>
+          <a:ext cx="955675" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4744,8 +4717,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10241915" y="1881505"/>
-          <a:ext cx="1082040" cy="0"/>
+          <a:off x="11156315" y="1818005"/>
+          <a:ext cx="1196340" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4791,8 +4764,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8517255" y="3103245"/>
-          <a:ext cx="898525" cy="0"/>
+          <a:off x="9260205" y="2995295"/>
+          <a:ext cx="955675" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4838,8 +4811,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8517255" y="5059045"/>
-          <a:ext cx="898525" cy="0"/>
+          <a:off x="9260205" y="4881245"/>
+          <a:ext cx="955675" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4885,8 +4858,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8517255" y="7014845"/>
-          <a:ext cx="898525" cy="0"/>
+          <a:off x="9260205" y="6767195"/>
+          <a:ext cx="955675" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4935,8 +4908,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="9425305" y="1862455"/>
-          <a:ext cx="17145" cy="1948180"/>
+          <a:off x="10225405" y="1798955"/>
+          <a:ext cx="74295" cy="1878330"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4984,8 +4957,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="9438640" y="3843655"/>
-          <a:ext cx="17145" cy="1948180"/>
+          <a:off x="10295890" y="3710305"/>
+          <a:ext cx="17145" cy="1878330"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5033,8 +5006,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="9407525" y="5844540"/>
-          <a:ext cx="17145" cy="1948180"/>
+          <a:off x="10207625" y="5641340"/>
+          <a:ext cx="17145" cy="1878330"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5085,8 +5058,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10679430" y="7750175"/>
-          <a:ext cx="156845" cy="1513205"/>
+          <a:off x="11593830" y="7477125"/>
+          <a:ext cx="213995" cy="1456055"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5132,8 +5105,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14218920" y="9947910"/>
-          <a:ext cx="928370" cy="659130"/>
+          <a:off x="15476220" y="9598660"/>
+          <a:ext cx="1042670" cy="633730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5284,8 +5257,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11480165" y="10155555"/>
-          <a:ext cx="927735" cy="659130"/>
+          <a:off x="12508865" y="9793605"/>
+          <a:ext cx="984885" cy="640080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5439,8 +5412,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="12879070" y="9010015"/>
-          <a:ext cx="866775" cy="2739390"/>
+          <a:off x="14066520" y="8502015"/>
+          <a:ext cx="835025" cy="3025140"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector5">
           <a:avLst>
@@ -5493,8 +5466,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="9248140" y="5646420"/>
-          <a:ext cx="7227570" cy="635"/>
+          <a:off x="10521315" y="5446395"/>
+          <a:ext cx="6967220" cy="635"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5550,8 +5523,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3982085" y="3235960"/>
-          <a:ext cx="2534920" cy="1374775"/>
+          <a:off x="4324985" y="3121660"/>
+          <a:ext cx="2763520" cy="1330325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5587,8 +5560,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5664835" y="953135"/>
-          <a:ext cx="3876675" cy="57150"/>
+          <a:off x="6179185" y="921385"/>
+          <a:ext cx="4219575" cy="57150"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
@@ -5637,8 +5610,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13375005" y="1174750"/>
-          <a:ext cx="1712595" cy="118745"/>
+          <a:off x="14575155" y="1136650"/>
+          <a:ext cx="1851660" cy="112395"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5689,8 +5662,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="15087600" y="1376680"/>
-          <a:ext cx="0" cy="1341755"/>
+          <a:off x="16458565" y="1332230"/>
+          <a:ext cx="635" cy="1290955"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5741,8 +5714,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="15093950" y="2805430"/>
-          <a:ext cx="8890" cy="1683385"/>
+          <a:off x="16465550" y="2710180"/>
+          <a:ext cx="8890" cy="1619885"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5793,8 +5766,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="14888210" y="4576445"/>
-          <a:ext cx="199390" cy="4655185"/>
+          <a:off x="16202660" y="4417695"/>
+          <a:ext cx="243205" cy="4490085"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -6116,12 +6089,12 @@
       <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.87272727272727" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.87272727272727" style="35"/>
+    <col min="1" max="16384" width="4.875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="1" ht="23" spans="1:31">
+    <row r="1" s="28" customFormat="1" ht="22.5" spans="1:31">
       <c r="A1" s="35"/>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -6930,7 +6903,7 @@
       <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6946,12 +6919,12 @@
       <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.87272727272727" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.87272727272727" style="35"/>
+    <col min="1" max="16384" width="4.875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="1" ht="23" spans="1:31">
+    <row r="1" s="28" customFormat="1" ht="22.5" spans="1:31">
       <c r="A1" s="35"/>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -7223,7 +7196,7 @@
       <c r="A25" s="35"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
-      <c r="E25" s="57" t="s">
+      <c r="E25" s="49" t="s">
         <v>119</v>
       </c>
       <c r="J25" s="35"/>
@@ -7660,7 +7633,7 @@
     </row>
     <row r="112" s="35" customFormat="1" spans="2:4">
       <c r="B112" s="36"/>
-      <c r="D112" s="58" t="s">
+      <c r="D112" s="50" t="s">
         <v>168</v>
       </c>
     </row>
@@ -7684,7 +7657,7 @@
     </row>
     <row r="116" s="35" customFormat="1" spans="2:4">
       <c r="B116" s="36"/>
-      <c r="D116" s="58" t="s">
+      <c r="D116" s="50" t="s">
         <v>172</v>
       </c>
     </row>
@@ -7718,7 +7691,7 @@
       </c>
     </row>
     <row r="122" spans="4:4">
-      <c r="D122" s="58" t="s">
+      <c r="D122" s="50" t="s">
         <v>168</v>
       </c>
     </row>
@@ -8165,12 +8138,12 @@
       <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.87272727272727" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.87272727272727" style="35"/>
+    <col min="1" max="16384" width="4.875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="1" ht="23" spans="1:31">
+    <row r="1" s="28" customFormat="1" ht="22.5" spans="1:31">
       <c r="A1" s="35"/>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -8798,842 +8771,837 @@
   <dimension ref="A1:AE122"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="K97" sqref="K97"/>
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.87272727272727" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.87272727272727" style="43"/>
+    <col min="1" max="16384" width="4.875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" s="42" customFormat="1" ht="23" spans="1:31">
-      <c r="A1" s="43"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="H1" s="43" t="s">
+    <row r="1" s="28" customFormat="1" ht="22.5" spans="1:31">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="H1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43" t="s">
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="T1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="44" t="s">
+      <c r="V1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="43" t="s">
+      <c r="W1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="44"/>
-    </row>
-    <row r="2" s="42" customFormat="1" spans="1:27">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43" t="s">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="36"/>
+    </row>
+    <row r="2" s="28" customFormat="1" spans="1:27">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="43" t="s">
+      <c r="T2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="43" t="s">
+      <c r="U2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="43" t="s">
+      <c r="V2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="43" t="s">
+      <c r="W2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="49"/>
-    </row>
-    <row r="3" s="42" customFormat="1" spans="1:10">
-      <c r="A3" s="43" t="s">
+      <c r="X2" s="36"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="41"/>
+    </row>
+    <row r="3" s="28" customFormat="1" spans="1:10">
+      <c r="A3" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="J3" s="43"/>
-    </row>
-    <row r="4" s="42" customFormat="1" spans="1:10">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43" t="s">
+      <c r="B3" s="35"/>
+      <c r="J3" s="35"/>
+    </row>
+    <row r="4" s="28" customFormat="1" spans="1:10">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="J4" s="43"/>
-    </row>
-    <row r="5" s="42" customFormat="1" spans="1:10">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44" t="s">
+      <c r="C4" s="35"/>
+      <c r="J4" s="35"/>
+    </row>
+    <row r="5" s="28" customFormat="1" spans="1:10">
+      <c r="A5" s="35"/>
+      <c r="B5" s="36" t="s">
         <v>302</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="J5" s="43"/>
-    </row>
-    <row r="6" s="42" customFormat="1" spans="1:10">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44" t="s">
+      <c r="C5" s="35"/>
+      <c r="J5" s="35"/>
+    </row>
+    <row r="6" s="28" customFormat="1" spans="1:10">
+      <c r="A6" s="35"/>
+      <c r="B6" s="36" t="s">
         <v>303</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="J6" s="43"/>
-    </row>
-    <row r="7" s="42" customFormat="1" spans="1:10">
-      <c r="A7" s="43"/>
-      <c r="B7" s="44" t="s">
+      <c r="C6" s="35"/>
+      <c r="J6" s="35"/>
+    </row>
+    <row r="7" s="28" customFormat="1" spans="1:10">
+      <c r="A7" s="35"/>
+      <c r="B7" s="36" t="s">
         <v>304</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="J7" s="43"/>
-    </row>
-    <row r="8" s="42" customFormat="1" spans="1:10">
-      <c r="A8" s="43"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="43" t="s">
+      <c r="C7" s="35"/>
+      <c r="J7" s="35"/>
+    </row>
+    <row r="8" s="28" customFormat="1" spans="1:10">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="J8" s="43"/>
-    </row>
-    <row r="9" s="42" customFormat="1" spans="1:10">
-      <c r="A9" s="43"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="42" t="s">
+      <c r="J8" s="35"/>
+    </row>
+    <row r="9" s="28" customFormat="1" spans="1:10">
+      <c r="A9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="J9" s="43"/>
-    </row>
-    <row r="10" s="42" customFormat="1" spans="1:10">
-      <c r="A10" s="43"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="43" t="s">
+      <c r="J9" s="35"/>
+    </row>
+    <row r="10" s="28" customFormat="1" spans="1:10">
+      <c r="A10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="J10" s="43"/>
-    </row>
-    <row r="11" s="42" customFormat="1" spans="1:10">
-      <c r="A11" s="43"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="42" t="s">
+      <c r="J10" s="35"/>
+    </row>
+    <row r="11" s="28" customFormat="1" spans="1:10">
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="J11" s="43"/>
-    </row>
-    <row r="12" s="42" customFormat="1" spans="1:10">
-      <c r="A12" s="43"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="42" t="s">
+      <c r="J11" s="35"/>
+    </row>
+    <row r="12" s="28" customFormat="1" spans="1:10">
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="J12" s="43"/>
-    </row>
-    <row r="13" s="42" customFormat="1" spans="1:10">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="42" t="s">
+      <c r="J12" s="35"/>
+    </row>
+    <row r="13" s="28" customFormat="1" spans="1:10">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="J13" s="43"/>
-    </row>
-    <row r="14" s="42" customFormat="1" spans="1:10">
-      <c r="A14" s="43"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="43"/>
-      <c r="J14" s="43"/>
-    </row>
-    <row r="15" s="42" customFormat="1" spans="1:10">
-      <c r="A15" s="43"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="43"/>
-      <c r="J15" s="43"/>
-    </row>
-    <row r="16" s="42" customFormat="1" spans="1:10">
-      <c r="A16" s="43"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="43"/>
-      <c r="J16" s="43"/>
-    </row>
-    <row r="17" s="42" customFormat="1" spans="1:10">
-      <c r="A17" s="43"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="43"/>
-      <c r="J17" s="43"/>
-    </row>
-    <row r="18" s="42" customFormat="1" spans="1:10">
-      <c r="A18" s="43"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="43"/>
-      <c r="J18" s="43"/>
-    </row>
-    <row r="19" s="42" customFormat="1" spans="1:10">
-      <c r="A19" s="43"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="43"/>
-      <c r="J19" s="43"/>
-    </row>
-    <row r="20" s="42" customFormat="1" spans="1:10">
-      <c r="A20" s="43"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="43"/>
-      <c r="J20" s="43"/>
-    </row>
-    <row r="21" s="42" customFormat="1" spans="1:10">
-      <c r="A21" s="43"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="42" t="s">
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" s="28" customFormat="1" spans="1:10">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="35"/>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" s="28" customFormat="1" spans="1:10">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="35"/>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" s="28" customFormat="1" spans="1:10">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="35"/>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" s="28" customFormat="1" spans="1:10">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="35"/>
+      <c r="J17" s="35"/>
+    </row>
+    <row r="18" s="28" customFormat="1" spans="1:10">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="35"/>
+      <c r="J18" s="35"/>
+    </row>
+    <row r="19" s="28" customFormat="1" spans="1:10">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="35"/>
+      <c r="J19" s="35"/>
+    </row>
+    <row r="20" s="28" customFormat="1" spans="1:10">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="35"/>
+      <c r="J20" s="35"/>
+    </row>
+    <row r="21" s="28" customFormat="1" spans="1:10">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="J21" s="43"/>
-    </row>
-    <row r="22" s="42" customFormat="1" spans="1:10">
-      <c r="A22" s="43"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="43"/>
-      <c r="J22" s="43"/>
-    </row>
-    <row r="23" s="42" customFormat="1" spans="1:10">
-      <c r="A23" s="43"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="43"/>
-      <c r="J23" s="43"/>
-    </row>
-    <row r="24" s="42" customFormat="1" spans="1:10">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="43"/>
-      <c r="J24" s="43"/>
-    </row>
-    <row r="25" s="42" customFormat="1" spans="1:10">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="44"/>
-      <c r="J25" s="43"/>
-    </row>
-    <row r="26" s="42" customFormat="1" spans="1:10">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="J26" s="43"/>
-    </row>
-    <row r="27" s="42" customFormat="1" spans="1:10">
-      <c r="A27" s="43"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="J27" s="43"/>
-    </row>
-    <row r="28" s="42" customFormat="1" spans="1:10">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="42" t="s">
+      <c r="J21" s="35"/>
+    </row>
+    <row r="22" s="28" customFormat="1" spans="1:10">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="35"/>
+      <c r="J22" s="35"/>
+    </row>
+    <row r="23" s="28" customFormat="1" spans="1:10">
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="35"/>
+      <c r="J23" s="35"/>
+    </row>
+    <row r="24" s="28" customFormat="1" spans="1:10">
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="35"/>
+      <c r="J24" s="35"/>
+    </row>
+    <row r="25" s="28" customFormat="1" spans="1:10">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="J25" s="35"/>
+    </row>
+    <row r="26" s="28" customFormat="1" spans="1:10">
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="J26" s="35"/>
+    </row>
+    <row r="27" s="28" customFormat="1" spans="1:10">
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="J27" s="35"/>
+    </row>
+    <row r="28" s="28" customFormat="1" spans="1:10">
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="J28" s="43"/>
-    </row>
-    <row r="29" s="42" customFormat="1" spans="1:10">
-      <c r="A29" s="43"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44" t="s">
+      <c r="J28" s="35"/>
+    </row>
+    <row r="29" s="28" customFormat="1" spans="1:10">
+      <c r="A29" s="35"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36" t="s">
         <v>313</v>
       </c>
-      <c r="J29" s="43"/>
-    </row>
-    <row r="30" s="42" customFormat="1" spans="1:10">
-      <c r="A30" s="43"/>
-      <c r="B30" s="44"/>
-      <c r="D30" s="42" t="s">
+      <c r="J29" s="35"/>
+    </row>
+    <row r="30" s="28" customFormat="1" spans="1:10">
+      <c r="A30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="D30" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="J30" s="43"/>
-    </row>
-    <row r="31" s="42" customFormat="1" spans="3:10">
-      <c r="C31" s="44"/>
-      <c r="D31" s="42" t="s">
+      <c r="J30" s="35"/>
+    </row>
+    <row r="31" s="28" customFormat="1" spans="3:10">
+      <c r="C31" s="36"/>
+      <c r="D31" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="J31" s="43"/>
-    </row>
-    <row r="32" s="42" customFormat="1" spans="1:10">
-      <c r="A32" s="43"/>
-      <c r="B32" s="45"/>
-      <c r="D32" s="42" t="s">
+      <c r="J31" s="35"/>
+    </row>
+    <row r="32" s="28" customFormat="1" spans="1:10">
+      <c r="A32" s="35"/>
+      <c r="B32" s="37"/>
+      <c r="D32" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="J32" s="43"/>
-    </row>
-    <row r="33" s="42" customFormat="1" spans="1:10">
-      <c r="A33" s="43"/>
-      <c r="B33" s="45"/>
-      <c r="J33" s="43"/>
-    </row>
-    <row r="34" s="42" customFormat="1" spans="10:10">
-      <c r="J34" s="43"/>
-    </row>
-    <row r="35" s="42" customFormat="1" spans="1:10">
-      <c r="A35" s="43"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="44"/>
-      <c r="J35" s="43"/>
-    </row>
-    <row r="36" s="42" customFormat="1" spans="1:10">
-      <c r="A36" s="43"/>
-      <c r="B36" s="45"/>
-      <c r="J36" s="43"/>
-    </row>
-    <row r="37" s="42" customFormat="1" spans="10:10">
-      <c r="J37" s="43"/>
-    </row>
-    <row r="38" s="42" customFormat="1" spans="10:10">
-      <c r="J38" s="43"/>
-    </row>
-    <row r="39" s="42" customFormat="1" spans="1:10">
-      <c r="A39" s="43"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="44"/>
-      <c r="J39" s="43"/>
-    </row>
-    <row r="40" s="42" customFormat="1" spans="1:10">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="47"/>
-      <c r="J40" s="43"/>
-    </row>
-    <row r="41" s="42" customFormat="1" spans="1:10">
-      <c r="A41" s="43"/>
-      <c r="B41" s="45"/>
-      <c r="J41" s="43"/>
-    </row>
-    <row r="42" s="42" customFormat="1" spans="10:10">
-      <c r="J42" s="43"/>
-    </row>
-    <row r="43" s="42" customFormat="1" spans="10:10">
-      <c r="J43" s="43"/>
-    </row>
-    <row r="44" s="42" customFormat="1" spans="2:10">
-      <c r="B44" s="42" t="s">
+      <c r="J32" s="35"/>
+    </row>
+    <row r="33" s="28" customFormat="1" spans="1:10">
+      <c r="A33" s="35"/>
+      <c r="B33" s="37"/>
+      <c r="J33" s="35"/>
+    </row>
+    <row r="34" s="28" customFormat="1" spans="10:10">
+      <c r="J34" s="35"/>
+    </row>
+    <row r="35" s="28" customFormat="1" spans="1:10">
+      <c r="A35" s="35"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="36"/>
+      <c r="J35" s="35"/>
+    </row>
+    <row r="36" s="28" customFormat="1" spans="1:10">
+      <c r="A36" s="35"/>
+      <c r="B36" s="37"/>
+      <c r="J36" s="35"/>
+    </row>
+    <row r="37" s="28" customFormat="1" spans="10:10">
+      <c r="J37" s="35"/>
+    </row>
+    <row r="38" s="28" customFormat="1" spans="10:10">
+      <c r="J38" s="35"/>
+    </row>
+    <row r="39" s="28" customFormat="1" spans="1:10">
+      <c r="A39" s="35"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="36"/>
+      <c r="J39" s="35"/>
+    </row>
+    <row r="40" s="28" customFormat="1" spans="1:10">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="40"/>
+      <c r="J40" s="35"/>
+    </row>
+    <row r="41" s="28" customFormat="1" spans="1:10">
+      <c r="A41" s="35"/>
+      <c r="B41" s="37"/>
+      <c r="J41" s="35"/>
+    </row>
+    <row r="42" s="28" customFormat="1" spans="10:10">
+      <c r="J42" s="35"/>
+    </row>
+    <row r="43" s="28" customFormat="1" spans="10:10">
+      <c r="J43" s="35"/>
+    </row>
+    <row r="44" s="28" customFormat="1" spans="2:10">
+      <c r="B44" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="C44" s="44"/>
-      <c r="J44" s="43"/>
-    </row>
-    <row r="45" s="42" customFormat="1" spans="1:10">
-      <c r="A45" s="43"/>
-      <c r="C45" s="42" t="s">
+      <c r="C44" s="36"/>
+      <c r="J44" s="35"/>
+    </row>
+    <row r="45" s="28" customFormat="1" spans="1:10">
+      <c r="A45" s="35"/>
+      <c r="C45" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="J45" s="43"/>
-    </row>
-    <row r="46" s="42" customFormat="1" spans="1:10">
-      <c r="A46" s="43"/>
-      <c r="B46" s="45"/>
-      <c r="D46" s="42" t="s">
+      <c r="J45" s="35"/>
+    </row>
+    <row r="46" s="28" customFormat="1" spans="1:10">
+      <c r="A46" s="35"/>
+      <c r="B46" s="37"/>
+      <c r="D46" s="28" t="s">
         <v>319</v>
       </c>
-      <c r="J46" s="43"/>
-    </row>
-    <row r="47" s="42" customFormat="1" spans="3:10">
-      <c r="C47" s="42" t="s">
+      <c r="J46" s="35"/>
+    </row>
+    <row r="47" s="28" customFormat="1" spans="3:10">
+      <c r="C47" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="J47" s="43"/>
-    </row>
-    <row r="48" s="42" customFormat="1" spans="1:10">
-      <c r="A48" s="43"/>
-      <c r="D48" s="43" t="s">
+      <c r="J47" s="35"/>
+    </row>
+    <row r="48" s="28" customFormat="1" spans="1:10">
+      <c r="A48" s="35"/>
+      <c r="D48" s="35" t="s">
         <v>321</v>
       </c>
-      <c r="J48" s="43"/>
-    </row>
-    <row r="49" s="42" customFormat="1" spans="1:10">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
-      <c r="D49" s="42" t="s">
+      <c r="J48" s="35"/>
+    </row>
+    <row r="49" s="28" customFormat="1" spans="1:10">
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="D49" s="28" t="s">
         <v>322</v>
       </c>
-      <c r="J49" s="43"/>
-    </row>
-    <row r="50" s="42" customFormat="1" spans="1:10">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="42" t="s">
+      <c r="J49" s="35"/>
+    </row>
+    <row r="50" s="28" customFormat="1" spans="1:10">
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="J50" s="43"/>
-    </row>
-    <row r="51" s="42" customFormat="1" spans="1:16">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43" t="s">
+      <c r="J50" s="35"/>
+    </row>
+    <row r="51" s="28" customFormat="1" spans="1:16">
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
-      <c r="L51" s="43"/>
-      <c r="M51" s="43"/>
-      <c r="N51" s="43"/>
-      <c r="O51" s="43"/>
-      <c r="P51" s="47"/>
-    </row>
-    <row r="52" s="42" customFormat="1" spans="1:10">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="42" t="s">
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="40"/>
+    </row>
+    <row r="52" s="28" customFormat="1" spans="1:10">
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="28" t="s">
         <v>325</v>
       </c>
-      <c r="J52" s="43"/>
-    </row>
-    <row r="53" s="42" customFormat="1" spans="1:10">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43" t="s">
+      <c r="J52" s="35"/>
+    </row>
+    <row r="53" s="28" customFormat="1" spans="1:10">
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35" t="s">
         <v>326</v>
       </c>
-      <c r="J53" s="43"/>
-    </row>
-    <row r="54" s="42" customFormat="1" spans="1:10">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="42" t="s">
+      <c r="J53" s="35"/>
+    </row>
+    <row r="54" s="28" customFormat="1" spans="1:10">
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="J54" s="43"/>
-    </row>
-    <row r="55" s="42" customFormat="1" spans="1:16">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="43" t="s">
+      <c r="J54" s="35"/>
+    </row>
+    <row r="55" s="28" customFormat="1" spans="1:16">
+      <c r="A55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35" t="s">
         <v>328</v>
       </c>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="43"/>
-      <c r="K55" s="43"/>
-      <c r="L55" s="43"/>
-      <c r="M55" s="43"/>
-      <c r="N55" s="43"/>
-      <c r="O55" s="43"/>
-      <c r="P55" s="47"/>
-    </row>
-    <row r="56" s="42" customFormat="1" spans="1:10">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="44" t="s">
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="35"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="40"/>
+    </row>
+    <row r="56" s="28" customFormat="1" spans="1:10">
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="36" t="s">
         <v>329</v>
       </c>
-      <c r="J56" s="43"/>
-    </row>
-    <row r="57" s="42" customFormat="1" spans="1:10">
-      <c r="A57" s="43"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43" t="s">
+      <c r="J56" s="35"/>
+    </row>
+    <row r="57" s="28" customFormat="1" spans="1:10">
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35" t="s">
         <v>330</v>
       </c>
-      <c r="D57" s="44"/>
-      <c r="J57" s="43"/>
-    </row>
-    <row r="58" s="42" customFormat="1" spans="1:10">
-      <c r="A58" s="43"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="42" t="s">
+      <c r="D57" s="36"/>
+      <c r="J57" s="35"/>
+    </row>
+    <row r="58" s="28" customFormat="1" spans="1:10">
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="28" t="s">
         <v>331</v>
       </c>
-      <c r="J58" s="43"/>
-    </row>
-    <row r="59" s="42" customFormat="1" spans="1:10">
-      <c r="A59" s="43"/>
-      <c r="B59" s="43" t="s">
+      <c r="J58" s="35"/>
+    </row>
+    <row r="59" s="28" customFormat="1" spans="1:10">
+      <c r="A59" s="35"/>
+      <c r="B59" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="C59" s="43"/>
-      <c r="J59" s="43"/>
-    </row>
-    <row r="60" s="42" customFormat="1" spans="1:10">
-      <c r="A60" s="43"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="43" t="s">
+      <c r="C59" s="35"/>
+      <c r="J59" s="35"/>
+    </row>
+    <row r="60" s="28" customFormat="1" spans="1:10">
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="J60" s="43"/>
-    </row>
-    <row r="61" s="42" customFormat="1" spans="1:10">
-      <c r="A61" s="43"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="43" t="s">
+      <c r="J60" s="35"/>
+    </row>
+    <row r="61" s="28" customFormat="1" spans="1:10">
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35" t="s">
         <v>334</v>
       </c>
-      <c r="J61" s="43"/>
+      <c r="J61" s="35"/>
     </row>
     <row r="62" spans="3:3">
-      <c r="C62" s="43" t="s">
+      <c r="C62" s="35" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="63" spans="4:4">
-      <c r="D63" s="43" t="s">
+      <c r="D63" s="35" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="64" spans="3:3">
-      <c r="C64" s="43" t="s">
+      <c r="C64" s="35" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="65" spans="4:4">
-      <c r="D65" s="43" t="s">
+      <c r="D65" s="35" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="66" s="43" customFormat="1" spans="2:3">
-      <c r="B66" s="45"/>
-      <c r="C66" s="43" t="s">
+    <row r="66" s="35" customFormat="1" spans="2:3">
+      <c r="B66" s="37"/>
+      <c r="C66" s="35" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="67" spans="3:3">
-      <c r="C67" s="43" t="s">
+      <c r="C67" s="35" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="68" spans="3:3">
-      <c r="C68" s="43" t="s">
+      <c r="C68" s="35" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="69" spans="3:3">
-      <c r="C69" s="43" t="s">
+      <c r="C69" s="35" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="70" spans="3:3">
-      <c r="C70" s="43" t="s">
+      <c r="C70" s="35" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="71" spans="3:3">
-      <c r="C71" s="43" t="s">
+      <c r="C71" s="35" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="72" s="43" customFormat="1" spans="3:3">
-      <c r="C72" s="43" t="s">
+    <row r="72" s="35" customFormat="1" spans="3:3">
+      <c r="C72" s="35" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="73" s="43" customFormat="1" spans="4:4">
-      <c r="D73" s="43" t="s">
+    <row r="73" s="35" customFormat="1" spans="4:4">
+      <c r="D73" s="35" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="74" spans="4:4">
-      <c r="D74" s="43" t="s">
+      <c r="D74" s="35" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="75" s="43" customFormat="1" spans="4:4">
-      <c r="D75" s="43" t="s">
+    <row r="75" s="35" customFormat="1" spans="4:4">
+      <c r="D75" s="35" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="76" spans="4:4">
-      <c r="D76" s="43" t="s">
+      <c r="D76" s="35" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="77" spans="4:4">
-      <c r="D77" s="43" t="s">
+      <c r="D77" s="35" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="78" spans="4:4">
-      <c r="D78" s="43" t="s">
+      <c r="D78" s="35" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="79" spans="4:4">
-      <c r="D79" s="43" t="s">
+      <c r="D79" s="35" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="43" t="s">
+      <c r="B80" s="35" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="81" s="43" customFormat="1" spans="3:3">
-      <c r="C81" s="47" t="s">
+    <row r="81" s="35" customFormat="1" spans="3:3">
+      <c r="C81" s="40" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="82" s="43" customFormat="1" spans="3:3">
-      <c r="C82" s="44" t="s">
+    <row r="82" s="35" customFormat="1" spans="3:3">
+      <c r="C82" s="36" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="83" s="43" customFormat="1" spans="3:3">
-      <c r="C83" s="47" t="s">
+    <row r="83" s="35" customFormat="1" spans="3:3">
+      <c r="C83" s="40" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="84" s="43" customFormat="1" spans="2:2">
-      <c r="B84" s="43" t="s">
+    <row r="84" s="35" customFormat="1" spans="2:2">
+      <c r="B84" s="35" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="85" spans="3:3">
-      <c r="C85" s="43" t="s">
+      <c r="C85" s="35" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="86" spans="3:3">
-      <c r="C86" s="43" t="s">
+      <c r="C86" s="35" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="87" spans="4:27">
-      <c r="D87" s="50" t="s">
+      <c r="D87" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="E87" s="50"/>
-      <c r="F87" s="50"/>
-      <c r="G87" s="50" t="s">
+      <c r="E87" s="42"/>
+      <c r="F87" s="42"/>
+      <c r="G87" s="42" t="s">
         <v>361</v>
       </c>
-      <c r="H87" s="50"/>
-      <c r="I87" s="51" t="s">
+      <c r="H87" s="42"/>
+      <c r="I87" s="43" t="s">
         <v>362</v>
       </c>
-      <c r="J87" s="52"/>
-      <c r="K87" s="52"/>
-      <c r="L87" s="52"/>
-      <c r="M87" s="52"/>
-      <c r="N87" s="52"/>
-      <c r="O87" s="52"/>
-      <c r="P87" s="52"/>
-      <c r="Q87" s="52"/>
-      <c r="R87" s="52"/>
-      <c r="S87" s="52"/>
-      <c r="T87" s="52"/>
-      <c r="U87" s="52"/>
-      <c r="V87" s="52"/>
-      <c r="W87" s="52"/>
-      <c r="X87" s="52"/>
-      <c r="Y87" s="52"/>
-      <c r="Z87" s="52"/>
-      <c r="AA87" s="55"/>
+      <c r="J87" s="44"/>
+      <c r="K87" s="44"/>
+      <c r="L87" s="44"/>
+      <c r="M87" s="44"/>
+      <c r="N87" s="44"/>
+      <c r="O87" s="44"/>
+      <c r="P87" s="44"/>
+      <c r="Q87" s="44"/>
+      <c r="R87" s="44"/>
+      <c r="S87" s="44"/>
+      <c r="T87" s="44"/>
+      <c r="U87" s="44"/>
+      <c r="V87" s="44"/>
+      <c r="W87" s="44"/>
+      <c r="X87" s="44"/>
+      <c r="Y87" s="44"/>
+      <c r="Z87" s="44"/>
+      <c r="AA87" s="47"/>
     </row>
     <row r="88" spans="4:27">
-      <c r="D88" s="50" t="s">
+      <c r="D88" s="42" t="s">
         <v>363</v>
       </c>
-      <c r="E88" s="50"/>
-      <c r="F88" s="50"/>
-      <c r="G88" s="50">
+      <c r="E88" s="42"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="42">
         <v>5</v>
       </c>
-      <c r="H88" s="50"/>
-      <c r="I88" s="53" t="s">
+      <c r="H88" s="42"/>
+      <c r="I88" s="45" t="s">
         <v>364</v>
       </c>
-      <c r="J88" s="54"/>
-      <c r="K88" s="54"/>
-      <c r="L88" s="54"/>
-      <c r="M88" s="54"/>
-      <c r="N88" s="54"/>
-      <c r="O88" s="54"/>
-      <c r="P88" s="54"/>
-      <c r="Q88" s="54"/>
-      <c r="R88" s="54"/>
-      <c r="S88" s="54"/>
-      <c r="T88" s="54"/>
-      <c r="U88" s="54"/>
-      <c r="V88" s="54"/>
-      <c r="W88" s="54"/>
-      <c r="X88" s="54"/>
-      <c r="Y88" s="54"/>
-      <c r="Z88" s="54"/>
-      <c r="AA88" s="56"/>
+      <c r="J88" s="46"/>
+      <c r="K88" s="46"/>
+      <c r="L88" s="46"/>
+      <c r="M88" s="46"/>
+      <c r="N88" s="46"/>
+      <c r="O88" s="46"/>
+      <c r="P88" s="46"/>
+      <c r="Q88" s="46"/>
+      <c r="R88" s="46"/>
+      <c r="S88" s="46"/>
+      <c r="T88" s="46"/>
+      <c r="U88" s="46"/>
+      <c r="V88" s="46"/>
+      <c r="W88" s="46"/>
+      <c r="X88" s="46"/>
+      <c r="Y88" s="46"/>
+      <c r="Z88" s="46"/>
+      <c r="AA88" s="48"/>
     </row>
     <row r="89" spans="4:27">
-      <c r="D89" s="50" t="s">
+      <c r="D89" s="42" t="s">
         <v>365</v>
       </c>
-      <c r="E89" s="50"/>
-      <c r="F89" s="50"/>
-      <c r="G89" s="50">
+      <c r="E89" s="42"/>
+      <c r="F89" s="42"/>
+      <c r="G89" s="42">
         <v>60</v>
       </c>
-      <c r="H89" s="50"/>
-      <c r="I89" s="53" t="s">
+      <c r="H89" s="42"/>
+      <c r="I89" s="45" t="s">
         <v>366</v>
       </c>
-      <c r="J89" s="54"/>
-      <c r="K89" s="54"/>
-      <c r="L89" s="54"/>
-      <c r="M89" s="54"/>
-      <c r="N89" s="54"/>
-      <c r="O89" s="54"/>
-      <c r="P89" s="54"/>
-      <c r="Q89" s="54"/>
-      <c r="R89" s="54"/>
-      <c r="S89" s="54"/>
-      <c r="T89" s="54"/>
-      <c r="U89" s="54"/>
-      <c r="V89" s="54"/>
-      <c r="W89" s="54"/>
-      <c r="X89" s="54"/>
-      <c r="Y89" s="54"/>
-      <c r="Z89" s="54"/>
-      <c r="AA89" s="56"/>
-    </row>
-    <row r="90" s="43" customFormat="1" spans="4:27">
-      <c r="D90" s="50" t="s">
+      <c r="J89" s="46"/>
+      <c r="K89" s="46"/>
+      <c r="L89" s="46"/>
+      <c r="M89" s="46"/>
+      <c r="N89" s="46"/>
+      <c r="O89" s="46"/>
+      <c r="P89" s="46"/>
+      <c r="Q89" s="46"/>
+      <c r="R89" s="46"/>
+      <c r="S89" s="46"/>
+      <c r="T89" s="46"/>
+      <c r="U89" s="46"/>
+      <c r="V89" s="46"/>
+      <c r="W89" s="46"/>
+      <c r="X89" s="46"/>
+      <c r="Y89" s="46"/>
+      <c r="Z89" s="46"/>
+      <c r="AA89" s="48"/>
+    </row>
+    <row r="90" s="35" customFormat="1" spans="4:27">
+      <c r="D90" s="42" t="s">
         <v>367</v>
       </c>
-      <c r="E90" s="50"/>
-      <c r="F90" s="50"/>
-      <c r="G90" s="50">
+      <c r="E90" s="42"/>
+      <c r="F90" s="42"/>
+      <c r="G90" s="42">
         <v>20</v>
       </c>
-      <c r="H90" s="50"/>
-      <c r="I90" s="53" t="s">
+      <c r="H90" s="42"/>
+      <c r="I90" s="45" t="s">
         <v>368</v>
       </c>
-      <c r="J90" s="54"/>
-      <c r="K90" s="54"/>
-      <c r="L90" s="54"/>
-      <c r="M90" s="54"/>
-      <c r="N90" s="54"/>
-      <c r="O90" s="54"/>
-      <c r="P90" s="54"/>
-      <c r="Q90" s="54"/>
-      <c r="R90" s="54"/>
-      <c r="S90" s="54"/>
-      <c r="T90" s="54"/>
-      <c r="U90" s="54"/>
-      <c r="V90" s="54"/>
-      <c r="W90" s="54"/>
-      <c r="X90" s="54"/>
-      <c r="Y90" s="54"/>
-      <c r="Z90" s="54"/>
-      <c r="AA90" s="56"/>
-    </row>
-    <row r="91" s="43" customFormat="1" spans="4:4">
-      <c r="D91" s="43" t="s">
+      <c r="J90" s="46"/>
+      <c r="K90" s="46"/>
+      <c r="L90" s="46"/>
+      <c r="M90" s="46"/>
+      <c r="N90" s="46"/>
+      <c r="O90" s="46"/>
+      <c r="P90" s="46"/>
+      <c r="Q90" s="46"/>
+      <c r="R90" s="46"/>
+      <c r="S90" s="46"/>
+      <c r="T90" s="46"/>
+      <c r="U90" s="46"/>
+      <c r="V90" s="46"/>
+      <c r="W90" s="46"/>
+      <c r="X90" s="46"/>
+      <c r="Y90" s="46"/>
+      <c r="Z90" s="46"/>
+      <c r="AA90" s="48"/>
+    </row>
+    <row r="91" s="35" customFormat="1" spans="4:4">
+      <c r="D91" s="35" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="92" spans="4:4">
-      <c r="D92" s="43" t="s">
+      <c r="D92" s="35" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="93" spans="4:4">
-      <c r="D93" s="43" t="s">
+      <c r="D93" s="35" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="94" spans="2:3">
-      <c r="B94" s="43" t="s">
+      <c r="B94" s="35" t="s">
         <v>372</v>
       </c>
-      <c r="C94" s="44"/>
-    </row>
-    <row r="95" spans="3:3">
-      <c r="C95" s="43" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="113" s="43" customFormat="1" spans="2:2">
-      <c r="B113" s="44"/>
-    </row>
-    <row r="114" s="43" customFormat="1" spans="2:2">
-      <c r="B114" s="44"/>
-    </row>
-    <row r="115" s="43" customFormat="1" spans="2:2">
-      <c r="B115" s="44"/>
-    </row>
-    <row r="116" s="43" customFormat="1" spans="2:2">
-      <c r="B116" s="44"/>
-    </row>
-    <row r="117" s="43" customFormat="1" spans="2:2">
-      <c r="B117" s="44"/>
-    </row>
-    <row r="118" s="43" customFormat="1" spans="2:2">
-      <c r="B118" s="44"/>
-    </row>
-    <row r="119" s="43" customFormat="1" spans="2:2">
-      <c r="B119" s="44"/>
-    </row>
-    <row r="120" s="43" customFormat="1" spans="2:2">
-      <c r="B120" s="44"/>
-    </row>
-    <row r="121" s="43" customFormat="1" spans="2:2">
-      <c r="B121" s="44"/>
-    </row>
-    <row r="122" s="43" customFormat="1" spans="2:2">
-      <c r="B122" s="44"/>
+      <c r="C94" s="36"/>
+    </row>
+    <row r="113" s="35" customFormat="1" spans="2:2">
+      <c r="B113" s="36"/>
+    </row>
+    <row r="114" s="35" customFormat="1" spans="2:2">
+      <c r="B114" s="36"/>
+    </row>
+    <row r="115" s="35" customFormat="1" spans="2:2">
+      <c r="B115" s="36"/>
+    </row>
+    <row r="116" s="35" customFormat="1" spans="2:2">
+      <c r="B116" s="36"/>
+    </row>
+    <row r="117" s="35" customFormat="1" spans="2:2">
+      <c r="B117" s="36"/>
+    </row>
+    <row r="118" s="35" customFormat="1" spans="2:2">
+      <c r="B118" s="36"/>
+    </row>
+    <row r="119" s="35" customFormat="1" spans="2:2">
+      <c r="B119" s="36"/>
+    </row>
+    <row r="120" s="35" customFormat="1" spans="2:2">
+      <c r="B120" s="36"/>
+    </row>
+    <row r="121" s="35" customFormat="1" spans="2:2">
+      <c r="B121" s="36"/>
+    </row>
+    <row r="122" s="35" customFormat="1" spans="2:2">
+      <c r="B122" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9664,507 +9632,507 @@
       <selection activeCell="C7" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.87272727272727" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.87272727272727" style="43"/>
+    <col min="1" max="16384" width="4.875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" s="42" customFormat="1" ht="23" spans="1:31">
-      <c r="A1" s="43"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="H1" s="43" t="s">
+    <row r="1" s="28" customFormat="1" ht="22.5" spans="1:31">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="H1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43" t="s">
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="T1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="44" t="s">
+      <c r="V1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="43" t="s">
+      <c r="W1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="44"/>
-    </row>
-    <row r="2" s="42" customFormat="1" spans="1:27">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43" t="s">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="36"/>
+    </row>
+    <row r="2" s="28" customFormat="1" spans="1:27">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="43" t="s">
+      <c r="T2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="43" t="s">
+      <c r="U2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="43" t="s">
+      <c r="V2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="43" t="s">
+      <c r="W2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="49"/>
-    </row>
-    <row r="3" s="42" customFormat="1" spans="1:10">
-      <c r="A3" s="43" t="s">
+      <c r="X2" s="36"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="41"/>
+    </row>
+    <row r="3" s="28" customFormat="1" spans="1:10">
+      <c r="A3" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="J3" s="35"/>
+    </row>
+    <row r="4" s="28" customFormat="1" spans="1:10">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35" t="s">
         <v>374</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="J3" s="43"/>
-    </row>
-    <row r="4" s="42" customFormat="1" spans="1:10">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43" t="s">
+      <c r="C4" s="35"/>
+      <c r="J4" s="35"/>
+    </row>
+    <row r="5" s="28" customFormat="1" spans="1:10">
+      <c r="A5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="35" t="s">
         <v>375</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="J4" s="43"/>
-    </row>
-    <row r="5" s="42" customFormat="1" spans="1:10">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="43" t="s">
+      <c r="J5" s="35"/>
+    </row>
+    <row r="6" s="28" customFormat="1" spans="1:10">
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="35" t="s">
         <v>376</v>
       </c>
-      <c r="J5" s="43"/>
-    </row>
-    <row r="6" s="42" customFormat="1" spans="1:10">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="43" t="s">
-        <v>377</v>
-      </c>
-      <c r="J6" s="43"/>
-    </row>
-    <row r="7" s="42" customFormat="1" spans="1:10">
-      <c r="A7" s="43"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="43"/>
-      <c r="J7" s="43"/>
-    </row>
-    <row r="8" s="42" customFormat="1" spans="1:10">
-      <c r="A8" s="43"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="43"/>
-      <c r="J8" s="43"/>
-    </row>
-    <row r="9" s="42" customFormat="1" spans="1:10">
-      <c r="A9" s="43"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="43"/>
-      <c r="J9" s="43"/>
-    </row>
-    <row r="10" s="42" customFormat="1" spans="1:10">
-      <c r="A10" s="43"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="43"/>
-      <c r="J10" s="43"/>
-    </row>
-    <row r="11" s="42" customFormat="1" spans="1:10">
-      <c r="A11" s="43"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="43"/>
-      <c r="J11" s="43"/>
-    </row>
-    <row r="12" s="42" customFormat="1" spans="1:10">
-      <c r="A12" s="43"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="43"/>
-      <c r="J12" s="43"/>
-    </row>
-    <row r="13" s="42" customFormat="1" spans="1:10">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="43"/>
-      <c r="J13" s="43"/>
-    </row>
-    <row r="14" s="42" customFormat="1" spans="1:10">
-      <c r="A14" s="43"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="43"/>
-      <c r="J14" s="43"/>
-    </row>
-    <row r="15" s="42" customFormat="1" spans="1:10">
-      <c r="A15" s="43"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="43"/>
-      <c r="J15" s="43"/>
-    </row>
-    <row r="16" s="42" customFormat="1" spans="1:10">
-      <c r="A16" s="43"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="43"/>
-      <c r="J16" s="43"/>
-    </row>
-    <row r="17" s="42" customFormat="1" spans="1:10">
-      <c r="A17" s="43"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="43"/>
-      <c r="J17" s="43"/>
-    </row>
-    <row r="18" s="42" customFormat="1" spans="1:10">
-      <c r="A18" s="43"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="43"/>
-      <c r="J18" s="43"/>
-    </row>
-    <row r="19" s="42" customFormat="1" spans="1:10">
-      <c r="A19" s="43"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="43"/>
-      <c r="J19" s="43"/>
-    </row>
-    <row r="20" s="42" customFormat="1" spans="1:10">
-      <c r="A20" s="43"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="43"/>
-      <c r="J20" s="43"/>
-    </row>
-    <row r="21" s="42" customFormat="1" spans="1:10">
-      <c r="A21" s="43"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="43"/>
-      <c r="J21" s="43"/>
-    </row>
-    <row r="22" s="42" customFormat="1" spans="1:10">
-      <c r="A22" s="43"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="43"/>
-      <c r="J22" s="43"/>
-    </row>
-    <row r="23" s="42" customFormat="1" spans="1:10">
-      <c r="A23" s="43"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="43"/>
-      <c r="J23" s="43"/>
-    </row>
-    <row r="24" s="42" customFormat="1" spans="1:10">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="43"/>
-      <c r="J24" s="43"/>
-    </row>
-    <row r="25" s="42" customFormat="1" spans="1:10">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="44"/>
-      <c r="J25" s="43"/>
-    </row>
-    <row r="26" s="42" customFormat="1" spans="1:10">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="J26" s="43"/>
-    </row>
-    <row r="27" s="42" customFormat="1" spans="1:10">
-      <c r="A27" s="43"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="J27" s="43"/>
-    </row>
-    <row r="28" s="42" customFormat="1" spans="1:10">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="J28" s="43"/>
-    </row>
-    <row r="29" s="42" customFormat="1" spans="1:10">
-      <c r="A29" s="43"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="J29" s="43"/>
-    </row>
-    <row r="30" s="42" customFormat="1" spans="1:10">
-      <c r="A30" s="43"/>
-      <c r="B30" s="44"/>
-      <c r="J30" s="43"/>
-    </row>
-    <row r="31" s="42" customFormat="1" spans="3:10">
-      <c r="C31" s="44"/>
-      <c r="J31" s="43"/>
-    </row>
-    <row r="32" s="42" customFormat="1" spans="1:10">
-      <c r="A32" s="43"/>
-      <c r="B32" s="45"/>
-      <c r="J32" s="43"/>
-    </row>
-    <row r="33" s="42" customFormat="1" spans="1:10">
-      <c r="A33" s="43"/>
-      <c r="B33" s="45"/>
-      <c r="J33" s="43"/>
-    </row>
-    <row r="34" s="42" customFormat="1" spans="10:10">
-      <c r="J34" s="43"/>
-    </row>
-    <row r="35" s="42" customFormat="1" spans="1:10">
-      <c r="A35" s="43"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="44"/>
-      <c r="J35" s="43"/>
-    </row>
-    <row r="36" s="42" customFormat="1" spans="1:10">
-      <c r="A36" s="43"/>
-      <c r="B36" s="45"/>
-      <c r="J36" s="43"/>
-    </row>
-    <row r="37" s="42" customFormat="1" spans="10:10">
-      <c r="J37" s="43"/>
-    </row>
-    <row r="38" s="42" customFormat="1" spans="10:10">
-      <c r="J38" s="43"/>
-    </row>
-    <row r="39" s="42" customFormat="1" spans="1:10">
-      <c r="A39" s="43"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="44"/>
-      <c r="J39" s="43"/>
-    </row>
-    <row r="40" s="42" customFormat="1" spans="1:10">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="47"/>
-      <c r="J40" s="43"/>
-    </row>
-    <row r="41" s="42" customFormat="1" spans="1:10">
-      <c r="A41" s="43"/>
-      <c r="B41" s="45"/>
-      <c r="J41" s="43"/>
-    </row>
-    <row r="42" s="42" customFormat="1" spans="10:10">
-      <c r="J42" s="43"/>
-    </row>
-    <row r="43" s="42" customFormat="1" spans="10:10">
-      <c r="J43" s="43"/>
-    </row>
-    <row r="44" s="42" customFormat="1" spans="3:10">
-      <c r="C44" s="44"/>
-      <c r="J44" s="43"/>
-    </row>
-    <row r="45" s="42" customFormat="1" spans="1:10">
-      <c r="A45" s="43"/>
-      <c r="J45" s="43"/>
-    </row>
-    <row r="46" s="42" customFormat="1" spans="1:10">
-      <c r="A46" s="43"/>
-      <c r="B46" s="45"/>
-      <c r="J46" s="43"/>
-    </row>
-    <row r="47" s="42" customFormat="1" spans="10:10">
-      <c r="J47" s="43"/>
-    </row>
-    <row r="48" s="42" customFormat="1" spans="1:10">
-      <c r="A48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="J48" s="43"/>
-    </row>
-    <row r="49" s="42" customFormat="1" spans="1:10">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
-      <c r="J49" s="43"/>
-    </row>
-    <row r="50" s="42" customFormat="1" spans="1:10">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="J50" s="43"/>
-    </row>
-    <row r="51" s="42" customFormat="1" spans="1:16">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
-      <c r="L51" s="43"/>
-      <c r="M51" s="43"/>
-      <c r="N51" s="43"/>
-      <c r="O51" s="43"/>
-      <c r="P51" s="47"/>
-    </row>
-    <row r="52" s="42" customFormat="1" spans="1:10">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="J52" s="43"/>
-    </row>
-    <row r="53" s="42" customFormat="1" spans="1:10">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="J53" s="43"/>
-    </row>
-    <row r="54" s="42" customFormat="1" spans="1:10">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="J54" s="43"/>
-    </row>
-    <row r="55" s="42" customFormat="1" spans="1:16">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="43"/>
-      <c r="K55" s="43"/>
-      <c r="L55" s="43"/>
-      <c r="M55" s="43"/>
-      <c r="N55" s="43"/>
-      <c r="O55" s="43"/>
-      <c r="P55" s="47"/>
-    </row>
-    <row r="56" s="42" customFormat="1" spans="1:10">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="44"/>
-      <c r="J56" s="43"/>
-    </row>
-    <row r="57" s="42" customFormat="1" spans="1:10">
-      <c r="A57" s="43"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="44"/>
-      <c r="J57" s="43"/>
-    </row>
-    <row r="58" s="42" customFormat="1" spans="1:10">
-      <c r="A58" s="43"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="J58" s="43"/>
-    </row>
-    <row r="59" s="42" customFormat="1" spans="1:10">
-      <c r="A59" s="43"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="J59" s="43"/>
-    </row>
-    <row r="60" s="42" customFormat="1" spans="1:10">
-      <c r="A60" s="43"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="43"/>
-      <c r="J60" s="43"/>
-    </row>
-    <row r="61" s="42" customFormat="1" spans="1:10">
-      <c r="A61" s="43"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="43"/>
-      <c r="J61" s="43"/>
-    </row>
-    <row r="66" s="43" customFormat="1" spans="2:2">
-      <c r="B66" s="45"/>
-    </row>
-    <row r="81" s="43" customFormat="1" spans="3:3">
-      <c r="C81" s="47"/>
-    </row>
-    <row r="82" s="43" customFormat="1" spans="3:3">
-      <c r="C82" s="44"/>
-    </row>
-    <row r="83" s="43" customFormat="1" spans="3:3">
-      <c r="C83" s="47"/>
-    </row>
-    <row r="84" s="43" customFormat="1" spans="3:3">
-      <c r="C84" s="45"/>
-    </row>
-    <row r="85" s="43" customFormat="1" spans="3:3">
-      <c r="C85" s="44"/>
-    </row>
-    <row r="86" s="43" customFormat="1" spans="3:3">
-      <c r="C86" s="45"/>
-    </row>
-    <row r="91" s="43" customFormat="1" spans="3:5">
-      <c r="C91" s="44"/>
-      <c r="E91" s="44"/>
-    </row>
-    <row r="92" s="43" customFormat="1" spans="3:3">
-      <c r="C92" s="45"/>
-    </row>
-    <row r="114" s="43" customFormat="1" spans="2:2">
-      <c r="B114" s="44"/>
-    </row>
-    <row r="115" s="43" customFormat="1" spans="2:2">
-      <c r="B115" s="44"/>
-    </row>
-    <row r="116" s="43" customFormat="1" spans="2:2">
-      <c r="B116" s="44"/>
-    </row>
-    <row r="117" s="43" customFormat="1" spans="2:2">
-      <c r="B117" s="44"/>
-    </row>
-    <row r="118" s="43" customFormat="1" spans="2:2">
-      <c r="B118" s="44"/>
-    </row>
-    <row r="119" s="43" customFormat="1" spans="2:2">
-      <c r="B119" s="44"/>
-    </row>
-    <row r="120" s="43" customFormat="1" spans="2:2">
-      <c r="B120" s="44"/>
-    </row>
-    <row r="121" s="43" customFormat="1" spans="2:2">
-      <c r="B121" s="44"/>
-    </row>
-    <row r="122" s="43" customFormat="1" spans="2:2">
-      <c r="B122" s="44"/>
-    </row>
-    <row r="123" s="43" customFormat="1" spans="2:2">
-      <c r="B123" s="44"/>
+      <c r="J6" s="35"/>
+    </row>
+    <row r="7" s="28" customFormat="1" spans="1:10">
+      <c r="A7" s="35"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="35"/>
+      <c r="J7" s="35"/>
+    </row>
+    <row r="8" s="28" customFormat="1" spans="1:10">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="35"/>
+      <c r="J8" s="35"/>
+    </row>
+    <row r="9" s="28" customFormat="1" spans="1:10">
+      <c r="A9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="35"/>
+      <c r="J9" s="35"/>
+    </row>
+    <row r="10" s="28" customFormat="1" spans="1:10">
+      <c r="A10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="35"/>
+      <c r="J10" s="35"/>
+    </row>
+    <row r="11" s="28" customFormat="1" spans="1:10">
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="35"/>
+      <c r="J11" s="35"/>
+    </row>
+    <row r="12" s="28" customFormat="1" spans="1:10">
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="35"/>
+      <c r="J12" s="35"/>
+    </row>
+    <row r="13" s="28" customFormat="1" spans="1:10">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="35"/>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" s="28" customFormat="1" spans="1:10">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="35"/>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" s="28" customFormat="1" spans="1:10">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="35"/>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" s="28" customFormat="1" spans="1:10">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="35"/>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" s="28" customFormat="1" spans="1:10">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="35"/>
+      <c r="J17" s="35"/>
+    </row>
+    <row r="18" s="28" customFormat="1" spans="1:10">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="35"/>
+      <c r="J18" s="35"/>
+    </row>
+    <row r="19" s="28" customFormat="1" spans="1:10">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="35"/>
+      <c r="J19" s="35"/>
+    </row>
+    <row r="20" s="28" customFormat="1" spans="1:10">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="35"/>
+      <c r="J20" s="35"/>
+    </row>
+    <row r="21" s="28" customFormat="1" spans="1:10">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="35"/>
+      <c r="J21" s="35"/>
+    </row>
+    <row r="22" s="28" customFormat="1" spans="1:10">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="35"/>
+      <c r="J22" s="35"/>
+    </row>
+    <row r="23" s="28" customFormat="1" spans="1:10">
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="35"/>
+      <c r="J23" s="35"/>
+    </row>
+    <row r="24" s="28" customFormat="1" spans="1:10">
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="35"/>
+      <c r="J24" s="35"/>
+    </row>
+    <row r="25" s="28" customFormat="1" spans="1:10">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="J25" s="35"/>
+    </row>
+    <row r="26" s="28" customFormat="1" spans="1:10">
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="J26" s="35"/>
+    </row>
+    <row r="27" s="28" customFormat="1" spans="1:10">
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="J27" s="35"/>
+    </row>
+    <row r="28" s="28" customFormat="1" spans="1:10">
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="J28" s="35"/>
+    </row>
+    <row r="29" s="28" customFormat="1" spans="1:10">
+      <c r="A29" s="35"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="J29" s="35"/>
+    </row>
+    <row r="30" s="28" customFormat="1" spans="1:10">
+      <c r="A30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="J30" s="35"/>
+    </row>
+    <row r="31" s="28" customFormat="1" spans="3:10">
+      <c r="C31" s="36"/>
+      <c r="J31" s="35"/>
+    </row>
+    <row r="32" s="28" customFormat="1" spans="1:10">
+      <c r="A32" s="35"/>
+      <c r="B32" s="37"/>
+      <c r="J32" s="35"/>
+    </row>
+    <row r="33" s="28" customFormat="1" spans="1:10">
+      <c r="A33" s="35"/>
+      <c r="B33" s="37"/>
+      <c r="J33" s="35"/>
+    </row>
+    <row r="34" s="28" customFormat="1" spans="10:10">
+      <c r="J34" s="35"/>
+    </row>
+    <row r="35" s="28" customFormat="1" spans="1:10">
+      <c r="A35" s="35"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="36"/>
+      <c r="J35" s="35"/>
+    </row>
+    <row r="36" s="28" customFormat="1" spans="1:10">
+      <c r="A36" s="35"/>
+      <c r="B36" s="37"/>
+      <c r="J36" s="35"/>
+    </row>
+    <row r="37" s="28" customFormat="1" spans="10:10">
+      <c r="J37" s="35"/>
+    </row>
+    <row r="38" s="28" customFormat="1" spans="10:10">
+      <c r="J38" s="35"/>
+    </row>
+    <row r="39" s="28" customFormat="1" spans="1:10">
+      <c r="A39" s="35"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="36"/>
+      <c r="J39" s="35"/>
+    </row>
+    <row r="40" s="28" customFormat="1" spans="1:10">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="40"/>
+      <c r="J40" s="35"/>
+    </row>
+    <row r="41" s="28" customFormat="1" spans="1:10">
+      <c r="A41" s="35"/>
+      <c r="B41" s="37"/>
+      <c r="J41" s="35"/>
+    </row>
+    <row r="42" s="28" customFormat="1" spans="10:10">
+      <c r="J42" s="35"/>
+    </row>
+    <row r="43" s="28" customFormat="1" spans="10:10">
+      <c r="J43" s="35"/>
+    </row>
+    <row r="44" s="28" customFormat="1" spans="3:10">
+      <c r="C44" s="36"/>
+      <c r="J44" s="35"/>
+    </row>
+    <row r="45" s="28" customFormat="1" spans="1:10">
+      <c r="A45" s="35"/>
+      <c r="J45" s="35"/>
+    </row>
+    <row r="46" s="28" customFormat="1" spans="1:10">
+      <c r="A46" s="35"/>
+      <c r="B46" s="37"/>
+      <c r="J46" s="35"/>
+    </row>
+    <row r="47" s="28" customFormat="1" spans="10:10">
+      <c r="J47" s="35"/>
+    </row>
+    <row r="48" s="28" customFormat="1" spans="1:10">
+      <c r="A48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="J48" s="35"/>
+    </row>
+    <row r="49" s="28" customFormat="1" spans="1:10">
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="J49" s="35"/>
+    </row>
+    <row r="50" s="28" customFormat="1" spans="1:10">
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="J50" s="35"/>
+    </row>
+    <row r="51" s="28" customFormat="1" spans="1:16">
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="40"/>
+    </row>
+    <row r="52" s="28" customFormat="1" spans="1:10">
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="J52" s="35"/>
+    </row>
+    <row r="53" s="28" customFormat="1" spans="1:10">
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="J53" s="35"/>
+    </row>
+    <row r="54" s="28" customFormat="1" spans="1:10">
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="J54" s="35"/>
+    </row>
+    <row r="55" s="28" customFormat="1" spans="1:16">
+      <c r="A55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="35"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="40"/>
+    </row>
+    <row r="56" s="28" customFormat="1" spans="1:10">
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="36"/>
+      <c r="J56" s="35"/>
+    </row>
+    <row r="57" s="28" customFormat="1" spans="1:10">
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="36"/>
+      <c r="J57" s="35"/>
+    </row>
+    <row r="58" s="28" customFormat="1" spans="1:10">
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="J58" s="35"/>
+    </row>
+    <row r="59" s="28" customFormat="1" spans="1:10">
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="J59" s="35"/>
+    </row>
+    <row r="60" s="28" customFormat="1" spans="1:10">
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="J60" s="35"/>
+    </row>
+    <row r="61" s="28" customFormat="1" spans="1:10">
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="J61" s="35"/>
+    </row>
+    <row r="66" s="35" customFormat="1" spans="2:2">
+      <c r="B66" s="37"/>
+    </row>
+    <row r="81" s="35" customFormat="1" spans="3:3">
+      <c r="C81" s="40"/>
+    </row>
+    <row r="82" s="35" customFormat="1" spans="3:3">
+      <c r="C82" s="36"/>
+    </row>
+    <row r="83" s="35" customFormat="1" spans="3:3">
+      <c r="C83" s="40"/>
+    </row>
+    <row r="84" s="35" customFormat="1" spans="3:3">
+      <c r="C84" s="37"/>
+    </row>
+    <row r="85" s="35" customFormat="1" spans="3:3">
+      <c r="C85" s="36"/>
+    </row>
+    <row r="86" s="35" customFormat="1" spans="3:3">
+      <c r="C86" s="37"/>
+    </row>
+    <row r="91" s="35" customFormat="1" spans="3:5">
+      <c r="C91" s="36"/>
+      <c r="E91" s="36"/>
+    </row>
+    <row r="92" s="35" customFormat="1" spans="3:3">
+      <c r="C92" s="37"/>
+    </row>
+    <row r="114" s="35" customFormat="1" spans="2:2">
+      <c r="B114" s="36"/>
+    </row>
+    <row r="115" s="35" customFormat="1" spans="2:2">
+      <c r="B115" s="36"/>
+    </row>
+    <row r="116" s="35" customFormat="1" spans="2:2">
+      <c r="B116" s="36"/>
+    </row>
+    <row r="117" s="35" customFormat="1" spans="2:2">
+      <c r="B117" s="36"/>
+    </row>
+    <row r="118" s="35" customFormat="1" spans="2:2">
+      <c r="B118" s="36"/>
+    </row>
+    <row r="119" s="35" customFormat="1" spans="2:2">
+      <c r="B119" s="36"/>
+    </row>
+    <row r="120" s="35" customFormat="1" spans="2:2">
+      <c r="B120" s="36"/>
+    </row>
+    <row r="121" s="35" customFormat="1" spans="2:2">
+      <c r="B121" s="36"/>
+    </row>
+    <row r="122" s="35" customFormat="1" spans="2:2">
+      <c r="B122" s="36"/>
+    </row>
+    <row r="123" s="35" customFormat="1" spans="2:2">
+      <c r="B123" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10181,12 +10149,12 @@
       <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.87272727272727" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.87272727272727" style="35"/>
+    <col min="1" max="16384" width="4.875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="1" ht="23" spans="1:31">
+    <row r="1" s="28" customFormat="1" ht="22.5" spans="1:31">
       <c r="A1" s="35"/>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -10686,19 +10654,19 @@
       <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.62727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.62727272727273" customWidth="1"/>
+    <col min="1" max="16384" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -10717,14 +10685,14 @@
       <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.62727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.62727272727273" customWidth="1"/>
+    <col min="1" max="16384" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="35" customFormat="1" spans="1:1">
       <c r="A35" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="36" customFormat="1"/>
@@ -10749,7 +10717,7 @@
     <row r="55" customFormat="1"/>
     <row r="56" customFormat="1" spans="1:1">
       <c r="A56" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="57" customFormat="1"/>
@@ -10766,12 +10734,12 @@
     <row r="68" customFormat="1"/>
     <row r="69" customFormat="1" spans="1:1">
       <c r="A69" s="34" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:1">
       <c r="A70" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="71" customFormat="1"/>
@@ -10786,12 +10754,12 @@
     <row r="80" customFormat="1"/>
     <row r="134" spans="1:1">
       <c r="A134" s="34" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="34" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="136" spans="1:1">
@@ -10813,59 +10781,59 @@
       <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C2" t="s">
         <v>387</v>
-      </c>
-      <c r="C2" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="H3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D4" s="2"/>
       <c r="H4" t="s">
+        <v>392</v>
+      </c>
+      <c r="N4" t="s">
         <v>393</v>
-      </c>
-      <c r="N4" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D5" s="2"/>
       <c r="H5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N5" s="20"/>
       <c r="X5" s="28"/>
@@ -10876,11 +10844,11 @@
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D6" s="2"/>
       <c r="H6" s="5">
@@ -10889,11 +10857,11 @@
       <c r="I6" s="21"/>
       <c r="N6" s="22"/>
       <c r="P6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="X6" s="28"/>
       <c r="Y6" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z6" s="28"/>
       <c r="AA6" s="28"/>
@@ -10901,11 +10869,11 @@
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D7" s="2"/>
       <c r="H7" s="5">
@@ -10913,32 +10881,32 @@
       </c>
       <c r="I7" s="21"/>
       <c r="N7" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="P7" s="23" t="s">
         <v>403</v>
-      </c>
-      <c r="P7" s="23" t="s">
-        <v>404</v>
       </c>
       <c r="Q7" s="29"/>
       <c r="S7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X7" s="28"/>
       <c r="Y7" s="32" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Z7" s="33"/>
       <c r="AA7" s="28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AB7" s="28"/>
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D8" s="2"/>
       <c r="H8" s="5">
@@ -10950,21 +10918,21 @@
       <c r="Q8" s="30"/>
       <c r="X8" s="28"/>
       <c r="Y8" s="32" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Z8" s="33"/>
       <c r="AA8" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AB8" s="28"/>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D9" s="2"/>
       <c r="H9" s="5">
@@ -10976,17 +10944,17 @@
       <c r="Q9" s="30"/>
       <c r="X9" s="28"/>
       <c r="Y9" s="32" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Z9" s="33"/>
       <c r="AA9" s="28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AB9" s="28"/>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -10996,30 +10964,30 @@
       </c>
       <c r="I10" s="21"/>
       <c r="N10" s="25" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P10" s="24"/>
       <c r="Q10" s="30"/>
       <c r="S10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X10" s="28"/>
       <c r="Y10" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Z10" s="33"/>
       <c r="AA10" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AB10" s="28"/>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D11" s="6"/>
       <c r="H11" s="5">
@@ -11027,29 +10995,29 @@
       </c>
       <c r="I11" s="21"/>
       <c r="P11" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Q11" s="21"/>
       <c r="S11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="X11" s="28"/>
       <c r="Y11" s="32" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Z11" s="33"/>
       <c r="AA11" s="28" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AB11" s="28"/>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D12" s="6"/>
       <c r="H12" s="5">
@@ -11057,33 +11025,33 @@
       </c>
       <c r="I12" s="21"/>
       <c r="P12" s="26" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q12" s="21"/>
       <c r="S12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="X12" s="28"/>
       <c r="Y12" s="32" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Z12" s="33"/>
       <c r="AA12" s="28" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AB12" s="28"/>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D13" s="6"/>
       <c r="H13" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I13" s="21"/>
       <c r="P13" s="24"/>
@@ -11092,22 +11060,22 @@
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D14" s="6"/>
       <c r="H14" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I14" s="21"/>
       <c r="P14" s="24"/>
       <c r="Q14" s="30"/>
       <c r="X14" s="28"/>
       <c r="Y14" s="28" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Z14" s="28"/>
       <c r="AA14" s="28"/>
@@ -11115,35 +11083,35 @@
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D15" s="6"/>
       <c r="N15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P15" s="24"/>
       <c r="Q15" s="30"/>
       <c r="X15" s="28"/>
       <c r="Y15" s="32" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Z15" s="33"/>
       <c r="AA15" s="28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AB15" s="28"/>
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D16" s="6"/>
       <c r="N16" s="20"/>
@@ -11151,35 +11119,35 @@
       <c r="Q16" s="31"/>
       <c r="X16" s="28"/>
       <c r="Y16" s="32" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Z16" s="33"/>
       <c r="AA16" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AB16" s="28"/>
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="H17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N17" s="22"/>
       <c r="P17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="X17" s="28"/>
       <c r="Y17" s="32" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Z17" s="33"/>
       <c r="AA17" s="28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AB17" s="28"/>
     </row>
@@ -11189,28 +11157,28 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="H18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N18" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="P18" s="23" t="s">
         <v>403</v>
-      </c>
-      <c r="P18" s="23" t="s">
-        <v>404</v>
       </c>
       <c r="Q18" s="29"/>
       <c r="X18" s="28"/>
       <c r="Y18" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Z18" s="33"/>
       <c r="AA18" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AB18" s="28"/>
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -11220,21 +11188,21 @@
       <c r="Q19" s="30"/>
       <c r="X19" s="28"/>
       <c r="Y19" s="32" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Z19" s="33"/>
       <c r="AA19" s="28" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AB19" s="28"/>
     </row>
     <row r="20" spans="1:28">
       <c r="A20" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D20" s="10"/>
       <c r="N20" s="22"/>
@@ -11242,25 +11210,25 @@
       <c r="Q20" s="30"/>
       <c r="X20" s="28"/>
       <c r="Y20" s="32" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Z20" s="33"/>
       <c r="AA20" s="28" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AB20" s="28"/>
     </row>
     <row r="21" spans="1:24">
       <c r="A21" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D21" s="10"/>
       <c r="N21" s="25" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P21" s="24"/>
       <c r="Q21" s="30"/>
@@ -11268,20 +11236,20 @@
     </row>
     <row r="22" spans="1:28">
       <c r="A22" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D22" s="10"/>
       <c r="P22" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Q22" s="21"/>
       <c r="X22" s="28"/>
       <c r="Y22" s="28" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Z22" s="28"/>
       <c r="AA22" s="28"/>
@@ -11289,15 +11257,15 @@
     </row>
     <row r="23" spans="1:28">
       <c r="A23" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D23" s="10"/>
       <c r="P23" s="26" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q23" s="21"/>
       <c r="X23" s="28"/>
@@ -11308,18 +11276,18 @@
     </row>
     <row r="24" spans="1:28">
       <c r="A24" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D24" s="10"/>
       <c r="P24" s="24"/>
       <c r="Q24" s="30"/>
       <c r="X24" s="28"/>
       <c r="Y24" s="28" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Z24" s="28"/>
       <c r="AA24" s="28"/>
@@ -11327,50 +11295,50 @@
     </row>
     <row r="25" spans="1:28">
       <c r="A25" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D25" s="10"/>
       <c r="P25" s="24"/>
       <c r="Q25" s="30"/>
       <c r="X25" s="28"/>
       <c r="Y25" s="32" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Z25" s="33"/>
       <c r="AA25" s="28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AB25" s="28"/>
     </row>
     <row r="26" spans="1:28">
       <c r="A26" t="s">
+        <v>422</v>
+      </c>
+      <c r="C26" t="s">
         <v>423</v>
       </c>
-      <c r="C26" t="s">
-        <v>424</v>
-      </c>
       <c r="N26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P26" s="24"/>
       <c r="Q26" s="30"/>
       <c r="X26" s="28"/>
       <c r="Y26" s="32" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Z26" s="33"/>
       <c r="AA26" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AB26" s="28"/>
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -11380,61 +11348,61 @@
       <c r="Q27" s="31"/>
       <c r="X27" s="28"/>
       <c r="Y27" s="32" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Z27" s="33"/>
       <c r="AA27" s="28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AB27" s="28"/>
     </row>
     <row r="28" spans="1:28">
       <c r="A28" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="N28" s="22"/>
       <c r="P28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="X28" s="28"/>
       <c r="Y28" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Z28" s="33"/>
       <c r="AA28" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AB28" s="28"/>
     </row>
     <row r="29" spans="1:28">
       <c r="A29" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="N29" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="P29" s="23" t="s">
         <v>403</v>
-      </c>
-      <c r="P29" s="23" t="s">
-        <v>404</v>
       </c>
       <c r="Q29" s="29"/>
       <c r="Y29" s="32" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Z29" s="33"/>
       <c r="AA29" s="28" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AB29" s="28"/>
     </row>
     <row r="30" spans="1:28">
       <c r="A30" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="2"/>
@@ -11443,17 +11411,17 @@
       <c r="P30" s="24"/>
       <c r="Q30" s="30"/>
       <c r="Y30" s="32" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Z30" s="33"/>
       <c r="AA30" s="28" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AB30" s="28"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="2"/>
@@ -11464,44 +11432,44 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="N32" s="25" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P32" s="24"/>
       <c r="Q32" s="30"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="P33" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Q33" s="21"/>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="P34" s="26" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q34" s="21"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="6"/>
@@ -11511,7 +11479,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="6"/>
@@ -11521,20 +11489,20 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="N37" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P37" s="24"/>
       <c r="Q37" s="30"/>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="6"/>
@@ -11545,28 +11513,28 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="N39" s="22"/>
       <c r="P39" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="N40" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="P40" s="23" t="s">
         <v>403</v>
-      </c>
-      <c r="P40" s="23" t="s">
-        <v>404</v>
       </c>
       <c r="Q40" s="29"/>
     </row>
@@ -11590,44 +11558,44 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="N43" s="25" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P43" s="24"/>
       <c r="Q43" s="30"/>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="P44" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Q44" s="21"/>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="P45" s="26" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q45" s="21"/>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B46" s="17"/>
       <c r="C46" s="10"/>
@@ -11637,7 +11605,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="10"/>
@@ -11647,7 +11615,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="10"/>
@@ -11657,7 +11625,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B49" s="15"/>
       <c r="C49" s="19"/>
@@ -11667,79 +11635,79 @@
     </row>
     <row r="53" s="1" customFormat="1" spans="1:25">
       <c r="A53" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>

--- a/uCOS操作系统/操作系统笔记.xlsx
+++ b/uCOS操作系统/操作系统笔记.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="442">
   <si>
     <t>操作系统</t>
   </si>
@@ -1142,6 +1142,48 @@
   </si>
   <si>
     <t>4.5事件标志组管理</t>
+  </si>
+  <si>
+    <t>在互斥信号量的管理中，任务请求资源，如果信号量没被占用，就可以继续运行，负责只能阻塞自己，这种事件是单一事件</t>
+  </si>
+  <si>
+    <t>如果任务要等待多个事件发生，或者多个事件发生只有一个发生就可以运行的，采用标志事件管理组。</t>
+  </si>
+  <si>
+    <t>eg：若创建一个标志事件组，这标志事件组的定义如下</t>
+  </si>
+  <si>
+    <t>未定义</t>
+  </si>
+  <si>
+    <t>事件D发生</t>
+  </si>
+  <si>
+    <t>事件C发生</t>
+  </si>
+  <si>
+    <t>事件B发生</t>
+  </si>
+  <si>
+    <t>事件A发生</t>
+  </si>
+  <si>
+    <t>那么事件A和D发生的时候事件标志组如下</t>
+  </si>
+  <si>
+    <t>如果设置标志时间组是0x03，那么在条件是全部发生的情况先，事件AB必须都发生任务才能运行，如果条件是任务事件发生，那么只要AB有一个发生任务就能运行</t>
+  </si>
+  <si>
+    <t>标志时间组就是这种灵活的管理机制，在代码os_flag.c中，标志时间组比较复杂，有自己独立的数据结构。</t>
+  </si>
+  <si>
+    <t>4.5.1事件标志组数据结构</t>
+  </si>
+  <si>
+    <t>包括事件标志组，事件标志节点，事件标志组实体，事件标志组链表，事件标志节点链表</t>
+  </si>
+  <si>
+    <t>⑴事件标志组OS_FLAG_GRP：</t>
   </si>
   <si>
     <t>第五章：消息管理</t>
@@ -1314,10 +1356,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1364,6 +1406,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1372,6 +1435,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1394,14 +1465,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1415,26 +1487,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1450,14 +1507,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1477,12 +1526,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1492,16 +1538,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ ゴシック"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="38">
@@ -1543,13 +1585,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1561,7 +1609,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1579,19 +1633,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1603,61 +1687,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1675,7 +1711,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1687,13 +1723,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1711,13 +1753,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1912,36 +1954,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1968,8 +1980,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1984,13 +1998,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2002,10 +2044,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2014,19 +2056,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2035,117 +2077,117 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2273,6 +2315,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7196,7 +7244,7 @@
       <c r="A25" s="35"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
-      <c r="E25" s="49" t="s">
+      <c r="E25" s="51" t="s">
         <v>119</v>
       </c>
       <c r="J25" s="35"/>
@@ -7633,7 +7681,7 @@
     </row>
     <row r="112" s="35" customFormat="1" spans="2:4">
       <c r="B112" s="36"/>
-      <c r="D112" s="50" t="s">
+      <c r="D112" s="52" t="s">
         <v>168</v>
       </c>
     </row>
@@ -7657,7 +7705,7 @@
     </row>
     <row r="116" s="35" customFormat="1" spans="2:4">
       <c r="B116" s="36"/>
-      <c r="D116" s="50" t="s">
+      <c r="D116" s="52" t="s">
         <v>172</v>
       </c>
     </row>
@@ -7691,7 +7739,7 @@
       </c>
     </row>
     <row r="122" spans="4:4">
-      <c r="D122" s="50" t="s">
+      <c r="D122" s="52" t="s">
         <v>168</v>
       </c>
     </row>
@@ -8770,8 +8818,8 @@
   <sheetPr/>
   <dimension ref="A1:AE122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="220" zoomScaleNormal="220" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -9434,27 +9482,27 @@
         <v>361</v>
       </c>
       <c r="H87" s="42"/>
-      <c r="I87" s="43" t="s">
+      <c r="I87" s="45" t="s">
         <v>362</v>
       </c>
-      <c r="J87" s="44"/>
-      <c r="K87" s="44"/>
-      <c r="L87" s="44"/>
-      <c r="M87" s="44"/>
-      <c r="N87" s="44"/>
-      <c r="O87" s="44"/>
-      <c r="P87" s="44"/>
-      <c r="Q87" s="44"/>
-      <c r="R87" s="44"/>
-      <c r="S87" s="44"/>
-      <c r="T87" s="44"/>
-      <c r="U87" s="44"/>
-      <c r="V87" s="44"/>
-      <c r="W87" s="44"/>
-      <c r="X87" s="44"/>
-      <c r="Y87" s="44"/>
-      <c r="Z87" s="44"/>
-      <c r="AA87" s="47"/>
+      <c r="J87" s="46"/>
+      <c r="K87" s="46"/>
+      <c r="L87" s="46"/>
+      <c r="M87" s="46"/>
+      <c r="N87" s="46"/>
+      <c r="O87" s="46"/>
+      <c r="P87" s="46"/>
+      <c r="Q87" s="46"/>
+      <c r="R87" s="46"/>
+      <c r="S87" s="46"/>
+      <c r="T87" s="46"/>
+      <c r="U87" s="46"/>
+      <c r="V87" s="46"/>
+      <c r="W87" s="46"/>
+      <c r="X87" s="46"/>
+      <c r="Y87" s="46"/>
+      <c r="Z87" s="46"/>
+      <c r="AA87" s="49"/>
     </row>
     <row r="88" spans="4:27">
       <c r="D88" s="42" t="s">
@@ -9466,27 +9514,27 @@
         <v>5</v>
       </c>
       <c r="H88" s="42"/>
-      <c r="I88" s="45" t="s">
+      <c r="I88" s="47" t="s">
         <v>364</v>
       </c>
-      <c r="J88" s="46"/>
-      <c r="K88" s="46"/>
-      <c r="L88" s="46"/>
-      <c r="M88" s="46"/>
-      <c r="N88" s="46"/>
-      <c r="O88" s="46"/>
-      <c r="P88" s="46"/>
-      <c r="Q88" s="46"/>
-      <c r="R88" s="46"/>
-      <c r="S88" s="46"/>
-      <c r="T88" s="46"/>
-      <c r="U88" s="46"/>
-      <c r="V88" s="46"/>
-      <c r="W88" s="46"/>
-      <c r="X88" s="46"/>
-      <c r="Y88" s="46"/>
-      <c r="Z88" s="46"/>
-      <c r="AA88" s="48"/>
+      <c r="J88" s="48"/>
+      <c r="K88" s="48"/>
+      <c r="L88" s="48"/>
+      <c r="M88" s="48"/>
+      <c r="N88" s="48"/>
+      <c r="O88" s="48"/>
+      <c r="P88" s="48"/>
+      <c r="Q88" s="48"/>
+      <c r="R88" s="48"/>
+      <c r="S88" s="48"/>
+      <c r="T88" s="48"/>
+      <c r="U88" s="48"/>
+      <c r="V88" s="48"/>
+      <c r="W88" s="48"/>
+      <c r="X88" s="48"/>
+      <c r="Y88" s="48"/>
+      <c r="Z88" s="48"/>
+      <c r="AA88" s="50"/>
     </row>
     <row r="89" spans="4:27">
       <c r="D89" s="42" t="s">
@@ -9498,27 +9546,27 @@
         <v>60</v>
       </c>
       <c r="H89" s="42"/>
-      <c r="I89" s="45" t="s">
+      <c r="I89" s="47" t="s">
         <v>366</v>
       </c>
-      <c r="J89" s="46"/>
-      <c r="K89" s="46"/>
-      <c r="L89" s="46"/>
-      <c r="M89" s="46"/>
-      <c r="N89" s="46"/>
-      <c r="O89" s="46"/>
-      <c r="P89" s="46"/>
-      <c r="Q89" s="46"/>
-      <c r="R89" s="46"/>
-      <c r="S89" s="46"/>
-      <c r="T89" s="46"/>
-      <c r="U89" s="46"/>
-      <c r="V89" s="46"/>
-      <c r="W89" s="46"/>
-      <c r="X89" s="46"/>
-      <c r="Y89" s="46"/>
-      <c r="Z89" s="46"/>
-      <c r="AA89" s="48"/>
+      <c r="J89" s="48"/>
+      <c r="K89" s="48"/>
+      <c r="L89" s="48"/>
+      <c r="M89" s="48"/>
+      <c r="N89" s="48"/>
+      <c r="O89" s="48"/>
+      <c r="P89" s="48"/>
+      <c r="Q89" s="48"/>
+      <c r="R89" s="48"/>
+      <c r="S89" s="48"/>
+      <c r="T89" s="48"/>
+      <c r="U89" s="48"/>
+      <c r="V89" s="48"/>
+      <c r="W89" s="48"/>
+      <c r="X89" s="48"/>
+      <c r="Y89" s="48"/>
+      <c r="Z89" s="48"/>
+      <c r="AA89" s="50"/>
     </row>
     <row r="90" s="35" customFormat="1" spans="4:27">
       <c r="D90" s="42" t="s">
@@ -9530,27 +9578,27 @@
         <v>20</v>
       </c>
       <c r="H90" s="42"/>
-      <c r="I90" s="45" t="s">
+      <c r="I90" s="47" t="s">
         <v>368</v>
       </c>
-      <c r="J90" s="46"/>
-      <c r="K90" s="46"/>
-      <c r="L90" s="46"/>
-      <c r="M90" s="46"/>
-      <c r="N90" s="46"/>
-      <c r="O90" s="46"/>
-      <c r="P90" s="46"/>
-      <c r="Q90" s="46"/>
-      <c r="R90" s="46"/>
-      <c r="S90" s="46"/>
-      <c r="T90" s="46"/>
-      <c r="U90" s="46"/>
-      <c r="V90" s="46"/>
-      <c r="W90" s="46"/>
-      <c r="X90" s="46"/>
-      <c r="Y90" s="46"/>
-      <c r="Z90" s="46"/>
-      <c r="AA90" s="48"/>
+      <c r="J90" s="48"/>
+      <c r="K90" s="48"/>
+      <c r="L90" s="48"/>
+      <c r="M90" s="48"/>
+      <c r="N90" s="48"/>
+      <c r="O90" s="48"/>
+      <c r="P90" s="48"/>
+      <c r="Q90" s="48"/>
+      <c r="R90" s="48"/>
+      <c r="S90" s="48"/>
+      <c r="T90" s="48"/>
+      <c r="U90" s="48"/>
+      <c r="V90" s="48"/>
+      <c r="W90" s="48"/>
+      <c r="X90" s="48"/>
+      <c r="Y90" s="48"/>
+      <c r="Z90" s="48"/>
+      <c r="AA90" s="50"/>
     </row>
     <row r="91" s="35" customFormat="1" spans="4:4">
       <c r="D91" s="35" t="s">
@@ -9573,6 +9621,187 @@
       </c>
       <c r="C94" s="36"/>
     </row>
+    <row r="95" spans="3:3">
+      <c r="C95" s="35" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" s="35" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" s="35" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="98" spans="4:19">
+      <c r="D98" s="43">
+        <v>7</v>
+      </c>
+      <c r="E98" s="44"/>
+      <c r="F98" s="43">
+        <v>6</v>
+      </c>
+      <c r="G98" s="44"/>
+      <c r="H98" s="43">
+        <v>5</v>
+      </c>
+      <c r="I98" s="44"/>
+      <c r="J98" s="43">
+        <v>4</v>
+      </c>
+      <c r="K98" s="44"/>
+      <c r="L98" s="43">
+        <v>3</v>
+      </c>
+      <c r="M98" s="44"/>
+      <c r="N98" s="43">
+        <v>2</v>
+      </c>
+      <c r="O98" s="44"/>
+      <c r="P98" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q98" s="44"/>
+      <c r="R98" s="43">
+        <v>0</v>
+      </c>
+      <c r="S98" s="44"/>
+    </row>
+    <row r="99" spans="4:19">
+      <c r="D99" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="E99" s="44"/>
+      <c r="F99" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="G99" s="44"/>
+      <c r="H99" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="I99" s="44"/>
+      <c r="J99" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="K99" s="44"/>
+      <c r="L99" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="M99" s="44"/>
+      <c r="N99" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="O99" s="44"/>
+      <c r="P99" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q99" s="44"/>
+      <c r="R99" s="43" t="s">
+        <v>380</v>
+      </c>
+      <c r="S99" s="44"/>
+    </row>
+    <row r="100" spans="4:4">
+      <c r="D100" s="35" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="101" spans="4:19">
+      <c r="D101" s="43">
+        <v>7</v>
+      </c>
+      <c r="E101" s="44"/>
+      <c r="F101" s="43">
+        <v>6</v>
+      </c>
+      <c r="G101" s="44"/>
+      <c r="H101" s="43">
+        <v>5</v>
+      </c>
+      <c r="I101" s="44"/>
+      <c r="J101" s="43">
+        <v>4</v>
+      </c>
+      <c r="K101" s="44"/>
+      <c r="L101" s="43">
+        <v>3</v>
+      </c>
+      <c r="M101" s="44"/>
+      <c r="N101" s="43">
+        <v>2</v>
+      </c>
+      <c r="O101" s="44"/>
+      <c r="P101" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q101" s="44"/>
+      <c r="R101" s="43">
+        <v>0</v>
+      </c>
+      <c r="S101" s="44"/>
+    </row>
+    <row r="102" spans="4:19">
+      <c r="D102" s="43">
+        <v>0</v>
+      </c>
+      <c r="E102" s="44"/>
+      <c r="F102" s="43">
+        <v>0</v>
+      </c>
+      <c r="G102" s="44"/>
+      <c r="H102" s="43">
+        <v>0</v>
+      </c>
+      <c r="I102" s="44"/>
+      <c r="J102" s="43">
+        <v>0</v>
+      </c>
+      <c r="K102" s="44"/>
+      <c r="L102" s="43">
+        <v>1</v>
+      </c>
+      <c r="M102" s="44"/>
+      <c r="N102" s="43">
+        <v>0</v>
+      </c>
+      <c r="O102" s="44"/>
+      <c r="P102" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="44"/>
+      <c r="R102" s="43">
+        <v>1</v>
+      </c>
+      <c r="S102" s="44"/>
+    </row>
+    <row r="103" spans="4:4">
+      <c r="D103" s="35" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4">
+      <c r="D104" s="35" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3">
+      <c r="C105" s="35" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4">
+      <c r="D106" s="35" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4">
+      <c r="D107" s="35" t="s">
+        <v>386</v>
+      </c>
+    </row>
     <row r="113" s="35" customFormat="1" spans="2:2">
       <c r="B113" s="36"/>
     </row>
@@ -9597,14 +9826,46 @@
     <row r="120" s="35" customFormat="1" spans="2:2">
       <c r="B120" s="36"/>
     </row>
-    <row r="121" s="35" customFormat="1" spans="2:2">
+    <row r="121" s="35" customFormat="1" spans="2:25">
       <c r="B121" s="36"/>
-    </row>
-    <row r="122" s="35" customFormat="1" spans="2:2">
+      <c r="T121" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="U121" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="V121" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="W121" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="X121" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y121" s="36"/>
+    </row>
+    <row r="122" s="35" customFormat="1" spans="2:25">
       <c r="B122" s="36"/>
+      <c r="T122" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="U122" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="V122" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="W122" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="X122" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y122" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="43">
     <mergeCell ref="D87:F87"/>
     <mergeCell ref="G87:H87"/>
     <mergeCell ref="D88:F88"/>
@@ -9616,6 +9877,38 @@
     <mergeCell ref="D90:F90"/>
     <mergeCell ref="G90:H90"/>
     <mergeCell ref="I90:AA90"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="R98:S98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="R99:S99"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="R101:S101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="R102:S102"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -9721,7 +10014,7 @@
     </row>
     <row r="3" s="28" customFormat="1" spans="1:10">
       <c r="A3" s="35" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="B3" s="35"/>
       <c r="J3" s="35"/>
@@ -9729,7 +10022,7 @@
     <row r="4" s="28" customFormat="1" spans="1:10">
       <c r="A4" s="35"/>
       <c r="B4" s="35" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="C4" s="35"/>
       <c r="J4" s="35"/>
@@ -9738,7 +10031,7 @@
       <c r="A5" s="35"/>
       <c r="B5" s="36"/>
       <c r="C5" s="35" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="J5" s="35"/>
     </row>
@@ -9746,7 +10039,7 @@
       <c r="A6" s="35"/>
       <c r="B6" s="36"/>
       <c r="C6" s="35" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="J6" s="35"/>
     </row>
@@ -10661,12 +10954,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -10692,7 +10985,7 @@
   <sheetData>
     <row r="35" customFormat="1" spans="1:1">
       <c r="A35" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
     </row>
     <row r="36" customFormat="1"/>
@@ -10717,7 +11010,7 @@
     <row r="55" customFormat="1"/>
     <row r="56" customFormat="1" spans="1:1">
       <c r="A56" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
     </row>
     <row r="57" customFormat="1"/>
@@ -10734,12 +11027,12 @@
     <row r="68" customFormat="1"/>
     <row r="69" customFormat="1" spans="1:1">
       <c r="A69" s="34" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:1">
       <c r="A70" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
     </row>
     <row r="71" customFormat="1"/>
@@ -10754,12 +11047,12 @@
     <row r="80" customFormat="1"/>
     <row r="134" spans="1:1">
       <c r="A134" s="34" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="34" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
     </row>
     <row r="136" spans="1:1">
@@ -10785,55 +11078,55 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="C2" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="H3" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="D4" s="2"/>
       <c r="H4" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="N4" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="3" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="D5" s="2"/>
       <c r="H5" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="N5" s="20"/>
       <c r="X5" s="28"/>
@@ -10844,11 +11137,11 @@
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="3" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="2" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="D6" s="2"/>
       <c r="H6" s="5">
@@ -10857,11 +11150,11 @@
       <c r="I6" s="21"/>
       <c r="N6" s="22"/>
       <c r="P6" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="X6" s="28"/>
       <c r="Y6" s="28" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="Z6" s="28"/>
       <c r="AA6" s="28"/>
@@ -10869,11 +11162,11 @@
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="3" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="2" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="D7" s="2"/>
       <c r="H7" s="5">
@@ -10881,32 +11174,32 @@
       </c>
       <c r="I7" s="21"/>
       <c r="N7" s="22" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="P7" s="23" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="Q7" s="29"/>
       <c r="S7" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="X7" s="28"/>
       <c r="Y7" s="32" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="Z7" s="33"/>
       <c r="AA7" s="28" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="AB7" s="28"/>
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="3" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="2" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="D8" s="2"/>
       <c r="H8" s="5">
@@ -10918,21 +11211,21 @@
       <c r="Q8" s="30"/>
       <c r="X8" s="28"/>
       <c r="Y8" s="32" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="Z8" s="33"/>
       <c r="AA8" s="28" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="AB8" s="28"/>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="3" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="2" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="D9" s="2"/>
       <c r="H9" s="5">
@@ -10944,17 +11237,17 @@
       <c r="Q9" s="30"/>
       <c r="X9" s="28"/>
       <c r="Y9" s="32" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="Z9" s="33"/>
       <c r="AA9" s="28" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="AB9" s="28"/>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="6" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -10964,30 +11257,30 @@
       </c>
       <c r="I10" s="21"/>
       <c r="N10" s="25" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="P10" s="24"/>
       <c r="Q10" s="30"/>
       <c r="S10" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="X10" s="28"/>
       <c r="Y10" s="32" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="Z10" s="33"/>
       <c r="AA10" s="28" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="AB10" s="28"/>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="7" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="6" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="D11" s="6"/>
       <c r="H11" s="5">
@@ -10995,29 +11288,29 @@
       </c>
       <c r="I11" s="21"/>
       <c r="P11" s="26" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="Q11" s="21"/>
       <c r="S11" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="X11" s="28"/>
       <c r="Y11" s="32" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="Z11" s="33"/>
       <c r="AA11" s="28" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="AB11" s="28"/>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="7" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="6" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="D12" s="6"/>
       <c r="H12" s="5">
@@ -11025,33 +11318,33 @@
       </c>
       <c r="I12" s="21"/>
       <c r="P12" s="26" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="Q12" s="21"/>
       <c r="S12" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="X12" s="28"/>
       <c r="Y12" s="32" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="Z12" s="33"/>
       <c r="AA12" s="28" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="AB12" s="28"/>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="7" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="6" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="D13" s="6"/>
       <c r="H13" s="5" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="I13" s="21"/>
       <c r="P13" s="24"/>
@@ -11060,22 +11353,22 @@
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="7" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="6" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="D14" s="6"/>
       <c r="H14" s="5" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="I14" s="21"/>
       <c r="P14" s="24"/>
       <c r="Q14" s="30"/>
       <c r="X14" s="28"/>
       <c r="Y14" s="28" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="Z14" s="28"/>
       <c r="AA14" s="28"/>
@@ -11083,35 +11376,35 @@
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="7" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="6" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="D15" s="6"/>
       <c r="N15" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="P15" s="24"/>
       <c r="Q15" s="30"/>
       <c r="X15" s="28"/>
       <c r="Y15" s="32" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="Z15" s="33"/>
       <c r="AA15" s="28" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="AB15" s="28"/>
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="7" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="6" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="D16" s="6"/>
       <c r="N16" s="20"/>
@@ -11119,35 +11412,35 @@
       <c r="Q16" s="31"/>
       <c r="X16" s="28"/>
       <c r="Y16" s="32" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="Z16" s="33"/>
       <c r="AA16" s="28" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="AB16" s="28"/>
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="9" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="H17" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="N17" s="22"/>
       <c r="P17" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="X17" s="28"/>
       <c r="Y17" s="32" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="Z17" s="33"/>
       <c r="AA17" s="28" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="AB17" s="28"/>
     </row>
@@ -11157,28 +11450,28 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="H18" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="N18" s="22" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="P18" s="23" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="Q18" s="29"/>
       <c r="X18" s="28"/>
       <c r="Y18" s="32" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="Z18" s="33"/>
       <c r="AA18" s="28" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="AB18" s="28"/>
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="10" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -11188,21 +11481,21 @@
       <c r="Q19" s="30"/>
       <c r="X19" s="28"/>
       <c r="Y19" s="32" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="Z19" s="33"/>
       <c r="AA19" s="28" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="AB19" s="28"/>
     </row>
     <row r="20" spans="1:28">
       <c r="A20" s="11" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="10" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="D20" s="10"/>
       <c r="N20" s="22"/>
@@ -11210,25 +11503,25 @@
       <c r="Q20" s="30"/>
       <c r="X20" s="28"/>
       <c r="Y20" s="32" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="Z20" s="33"/>
       <c r="AA20" s="28" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="AB20" s="28"/>
     </row>
     <row r="21" spans="1:24">
       <c r="A21" s="11" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="10" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="D21" s="10"/>
       <c r="N21" s="25" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="P21" s="24"/>
       <c r="Q21" s="30"/>
@@ -11236,20 +11529,20 @@
     </row>
     <row r="22" spans="1:28">
       <c r="A22" s="11" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="10" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="D22" s="10"/>
       <c r="P22" s="26" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="Q22" s="21"/>
       <c r="X22" s="28"/>
       <c r="Y22" s="28" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="Z22" s="28"/>
       <c r="AA22" s="28"/>
@@ -11257,15 +11550,15 @@
     </row>
     <row r="23" spans="1:28">
       <c r="A23" s="11" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="10" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="D23" s="10"/>
       <c r="P23" s="26" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="Q23" s="21"/>
       <c r="X23" s="28"/>
@@ -11276,18 +11569,18 @@
     </row>
     <row r="24" spans="1:28">
       <c r="A24" s="11" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="10" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="D24" s="10"/>
       <c r="P24" s="24"/>
       <c r="Q24" s="30"/>
       <c r="X24" s="28"/>
       <c r="Y24" s="28" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="Z24" s="28"/>
       <c r="AA24" s="28"/>
@@ -11295,50 +11588,50 @@
     </row>
     <row r="25" spans="1:28">
       <c r="A25" s="11" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="10" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="D25" s="10"/>
       <c r="P25" s="24"/>
       <c r="Q25" s="30"/>
       <c r="X25" s="28"/>
       <c r="Y25" s="32" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="Z25" s="33"/>
       <c r="AA25" s="28" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="AB25" s="28"/>
     </row>
     <row r="26" spans="1:28">
       <c r="A26" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="C26" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="N26" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="P26" s="24"/>
       <c r="Q26" s="30"/>
       <c r="X26" s="28"/>
       <c r="Y26" s="32" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="Z26" s="33"/>
       <c r="AA26" s="28" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="AB26" s="28"/>
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="2" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -11348,61 +11641,61 @@
       <c r="Q27" s="31"/>
       <c r="X27" s="28"/>
       <c r="Y27" s="32" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="Z27" s="33"/>
       <c r="AA27" s="28" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="AB27" s="28"/>
     </row>
     <row r="28" spans="1:28">
       <c r="A28" s="3" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="N28" s="22"/>
       <c r="P28" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="X28" s="28"/>
       <c r="Y28" s="32" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="Z28" s="33"/>
       <c r="AA28" s="28" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="AB28" s="28"/>
     </row>
     <row r="29" spans="1:28">
       <c r="A29" s="3" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="N29" s="22" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="P29" s="23" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="Q29" s="29"/>
       <c r="Y29" s="32" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="Z29" s="33"/>
       <c r="AA29" s="28" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="AB29" s="28"/>
     </row>
     <row r="30" spans="1:28">
       <c r="A30" s="3" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="2"/>
@@ -11411,17 +11704,17 @@
       <c r="P30" s="24"/>
       <c r="Q30" s="30"/>
       <c r="Y30" s="32" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="Z30" s="33"/>
       <c r="AA30" s="28" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="AB30" s="28"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="3" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="2"/>
@@ -11432,44 +11725,44 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="3" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="N32" s="25" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="P32" s="24"/>
       <c r="Q32" s="30"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="3" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="P33" s="26" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="Q33" s="21"/>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="6" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="P34" s="26" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="Q34" s="21"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="13" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="6"/>
@@ -11479,7 +11772,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="7" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="6"/>
@@ -11489,20 +11782,20 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="13" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="N37" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="P37" s="24"/>
       <c r="Q37" s="30"/>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="13" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="6"/>
@@ -11513,28 +11806,28 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="7" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="N39" s="22"/>
       <c r="P39" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="7" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="N40" s="22" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="P40" s="23" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="Q40" s="29"/>
     </row>
@@ -11558,44 +11851,44 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="10" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="N43" s="25" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="P43" s="24"/>
       <c r="Q43" s="30"/>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="14" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="P44" s="26" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="Q44" s="21"/>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="15" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="P45" s="26" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="Q45" s="21"/>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="10" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="B46" s="17"/>
       <c r="C46" s="10"/>
@@ -11605,7 +11898,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="11" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="10"/>
@@ -11615,7 +11908,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="18" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="10"/>
@@ -11625,7 +11918,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="15" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="B49" s="15"/>
       <c r="C49" s="19"/>
@@ -11635,79 +11928,79 @@
     </row>
     <row r="53" s="1" customFormat="1" spans="1:25">
       <c r="A53" s="1" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>

--- a/uCOS操作系统/操作系统笔记.xlsx
+++ b/uCOS操作系统/操作系统笔记.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kewei.song\Desktop\learning-text\uCOS操作系统\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="812" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28130" windowHeight="12540" tabRatio="812" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="2" r:id="rId1"/>
@@ -1141,9 +1146,6 @@
     <t>2任务访问互斥信号量时优先级调成2，这样任务2信号量还回去的时候任务1运行，程序在工程中</t>
   </si>
   <si>
-    <t>4.5事件标志组管理</t>
-  </si>
-  <si>
     <t>在互斥信号量的管理中，任务请求资源，如果信号量没被占用，就可以继续运行，负责只能阻塞自己，这种事件是单一事件</t>
   </si>
   <si>
@@ -1349,19 +1351,17 @@
   </si>
   <si>
     <t>0地址</t>
+  </si>
+  <si>
+    <t>4.5事件标志组管理（没咋学明白）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1401,81 +1401,7 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1483,70 +1409,37 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="ＭＳ ゴシック"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1561,216 +1454,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.4"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1938,256 +1645,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2314,20 +1782,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2336,87 +1807,44 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="3">
+    <cellStyle name="標準_製品機能・適用機能一覧表案040226" xfId="2"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="標準_製品機能・適用機能一覧表案040226" xfId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00482D60"/>
-      <color rgb="0017C913"/>
+      <color rgb="FF482D60"/>
+      <color rgb="FF17C913"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -2438,7 +1866,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2480,7 +1908,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2522,7 +1950,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2547,7 +1975,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
@@ -2569,7 +1997,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2611,7 +2039,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2653,7 +2081,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2695,7 +2123,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2737,7 +2165,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2771,7 +2199,7 @@
       <xdr:row>73</xdr:row>
       <xdr:rowOff>81280</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="文本框 6"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -2811,13 +2239,13 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="600"/>
             <a:t>就绪组</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -2825,7 +2253,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="600"/>
             <a:t>就绪表</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2844,7 +2271,7 @@
       <xdr:row>72</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="8" name="直接箭头连接符 7"/>
         <xdr:cNvCxnSpPr>
@@ -2893,7 +2320,7 @@
       <xdr:row>73</xdr:row>
       <xdr:rowOff>48895</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
         <xdr:cNvCxnSpPr>
@@ -2950,7 +2377,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2992,7 +2419,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3034,7 +2461,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3068,7 +2495,7 @@
       <xdr:row>109</xdr:row>
       <xdr:rowOff>73660</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="矩形 12"/>
         <xdr:cNvSpPr/>
@@ -3100,13 +2527,13 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="700"/>
             <a:t>被创建的任务的优先级</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -3114,7 +2541,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="700"/>
             <a:t>任务栈的栈顶地址</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -3122,7 +2548,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="700"/>
             <a:t>任务栈的栈底地址</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -3146,7 +2571,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="700"/>
             <a:t>位的</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -3154,7 +2578,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="700"/>
             <a:t>任务堆栈的大小</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -3162,7 +2585,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="700"/>
             <a:t>任务控制块的扩展地址</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -3170,7 +2592,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="700"/>
             <a:t>其他选项</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -3190,7 +2611,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="700"/>
             <a:t>调用成功</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -3198,7 +2618,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="700"/>
             <a:t>没有空闲的任务控制块</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -3229,7 +2648,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3271,7 +2690,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3313,7 +2732,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3355,7 +2774,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3380,7 +2799,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -3402,7 +2821,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3444,7 +2863,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3486,7 +2905,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3511,7 +2930,126 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>115608</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>149891</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698500" y="8667750"/>
+          <a:ext cx="9545358" cy="4690141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>10819</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>165446</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698500" y="13557250"/>
+          <a:ext cx="9440569" cy="2435571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>162953</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>38180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698500" y="16176625"/>
+          <a:ext cx="7497203" cy="562055"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3533,7 +3071,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3567,7 +3105,7 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="矩形 2"/>
         <xdr:cNvSpPr/>
@@ -3599,6 +3137,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -3609,11 +3148,6 @@
             </a:rPr>
             <a:t>⑴OSTCBStkPtr</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -3621,7 +3155,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>是个OS_STK类型的指针，OS_STK是个无符号整型，OS_STK是任务栈中每个数据项的类型，不同的硬件系统不同，用的时候得改</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -3629,7 +3162,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>任务堆栈是最底层的，要用汇编写，因此这个指针放在结构体的第一位</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -3637,7 +3169,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>结构体实体化后，控制块的0地址就存在OSTCBStkPtr指针里，方便了汇编语言的操作</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3656,7 +3187,7 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>95885</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="矩形 3"/>
         <xdr:cNvSpPr/>
@@ -3797,11 +3328,6 @@
             </a:rPr>
             <a:t>⑵条件编译</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -3809,7 +3335,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>一个条件编译，任务创建扩展功能就打开</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -3817,7 +3342,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>操作系统要节约资源，所以条件编译很多</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3836,7 +3360,7 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>106045</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="矩形 4"/>
         <xdr:cNvSpPr/>
@@ -3977,11 +3501,6 @@
             </a:rPr>
             <a:t>⑶条件编译</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -3997,7 +3516,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>指向事件控制块</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4016,7 +3534,7 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="矩形 5"/>
         <xdr:cNvSpPr/>
@@ -4157,11 +3675,6 @@
             </a:rPr>
             <a:t>⑷</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4205,11 +3718,6 @@
             </a:rPr>
             <a:t>就是就绪态，看表👆</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4222,12 +3730,6 @@
             </a:rPr>
             <a:t>⑸</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4303,11 +3805,6 @@
             </a:rPr>
             <a:t>为统计任务和空闲任务</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4320,12 +3817,6 @@
             </a:rPr>
             <a:t>⑹</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4368,7 +3859,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4410,7 +3901,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4434,8 +3925,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -4457,7 +3948,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4499,7 +3990,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4523,8 +4014,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -4546,7 +4037,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4588,7 +4079,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4630,7 +4121,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4672,7 +4163,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4696,8 +4187,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
@@ -4711,7 +4202,7 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>88265</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="19" name="直接箭头连接符 18"/>
         <xdr:cNvCxnSpPr/>
@@ -4758,7 +4249,7 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>103505</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="20" name="直接箭头连接符 19"/>
         <xdr:cNvCxnSpPr/>
@@ -4805,7 +4296,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>80645</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="22" name="直接箭头连接符 21"/>
         <xdr:cNvCxnSpPr/>
@@ -4852,7 +4343,7 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>80645</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="23" name="直接箭头连接符 22"/>
         <xdr:cNvCxnSpPr/>
@@ -4899,7 +4390,7 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>80645</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="24" name="直接箭头连接符 23"/>
         <xdr:cNvCxnSpPr/>
@@ -4946,7 +4437,7 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>76835</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="25" name="肘形连接符 24"/>
         <xdr:cNvCxnSpPr>
@@ -4998,7 +4489,7 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>102235</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="30" name="肘形连接符 29"/>
         <xdr:cNvCxnSpPr/>
@@ -5047,7 +4538,7 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>147320</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="31" name="肘形连接符 30"/>
         <xdr:cNvCxnSpPr/>
@@ -5096,7 +4587,7 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>17780</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="34" name="肘形连接符 33"/>
         <xdr:cNvCxnSpPr>
@@ -5146,7 +4637,7 @@
       <xdr:row>59</xdr:row>
       <xdr:rowOff>116840</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="35" name="矩形 34"/>
         <xdr:cNvSpPr/>
@@ -5298,7 +4789,7 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>146685</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="36" name="矩形 35"/>
         <xdr:cNvSpPr/>
@@ -5450,7 +4941,7 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>145732</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="37" name="肘形连接符 36"/>
         <xdr:cNvCxnSpPr>
@@ -5504,7 +4995,7 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="40" name="肘形连接符 39"/>
         <xdr:cNvCxnSpPr>
@@ -5564,7 +5055,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5598,7 +5089,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>121285</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="44" name="肘形连接符 43"/>
         <xdr:cNvCxnSpPr>
@@ -5651,7 +5142,7 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>48895</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="4" name="肘形连接符 3"/>
         <xdr:cNvCxnSpPr/>
@@ -5700,7 +5191,7 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>51435</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="5" name="肘形连接符 4"/>
         <xdr:cNvCxnSpPr>
@@ -5752,7 +5243,7 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>43815</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="8" name="肘形连接符 7"/>
         <xdr:cNvCxnSpPr>
@@ -5804,7 +5295,7 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="12" name="肘形连接符 11"/>
         <xdr:cNvCxnSpPr>
@@ -5839,6 +5330,66 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9283700" cy="5892800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6125,24 +5676,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE128"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD3"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.90625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="35"/>
+    <col min="1" max="16384" width="4.90625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="1" ht="22.5" spans="1:31">
+    <row r="1" spans="1:31" s="28" customFormat="1" ht="23">
       <c r="A1" s="35"/>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -6185,7 +5736,7 @@
       <c r="AD1" s="35"/>
       <c r="AE1" s="36"/>
     </row>
-    <row r="2" s="28" customFormat="1" spans="1:27">
+    <row r="2" spans="1:31" s="28" customFormat="1">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -6224,14 +5775,14 @@
       <c r="Z2" s="35"/>
       <c r="AA2" s="41"/>
     </row>
-    <row r="3" s="28" customFormat="1" spans="1:10">
+    <row r="3" spans="1:31" s="28" customFormat="1">
       <c r="A3" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="35"/>
       <c r="J3" s="35"/>
     </row>
-    <row r="4" s="28" customFormat="1" spans="1:10">
+    <row r="4" spans="1:31" s="28" customFormat="1">
       <c r="A4" s="35"/>
       <c r="B4" s="35" t="s">
         <v>12</v>
@@ -6239,7 +5790,7 @@
       <c r="C4" s="35"/>
       <c r="J4" s="35"/>
     </row>
-    <row r="5" s="28" customFormat="1" spans="1:10">
+    <row r="5" spans="1:31" s="28" customFormat="1">
       <c r="A5" s="35"/>
       <c r="B5" s="36">
         <v>1.2</v>
@@ -6247,7 +5798,7 @@
       <c r="C5" s="35"/>
       <c r="J5" s="35"/>
     </row>
-    <row r="6" s="28" customFormat="1" spans="1:10">
+    <row r="6" spans="1:31" s="28" customFormat="1">
       <c r="A6" s="35"/>
       <c r="B6" s="36">
         <v>1.3</v>
@@ -6255,103 +5806,103 @@
       <c r="C6" s="35"/>
       <c r="J6" s="35"/>
     </row>
-    <row r="7" s="28" customFormat="1" spans="1:10">
+    <row r="7" spans="1:31" s="28" customFormat="1">
       <c r="A7" s="35"/>
       <c r="B7" s="36"/>
       <c r="C7" s="35"/>
       <c r="J7" s="35"/>
     </row>
-    <row r="8" s="28" customFormat="1" spans="1:10">
+    <row r="8" spans="1:31" s="28" customFormat="1">
       <c r="A8" s="35"/>
       <c r="B8" s="36"/>
       <c r="C8" s="35"/>
       <c r="J8" s="35"/>
     </row>
-    <row r="9" s="28" customFormat="1" spans="1:10">
+    <row r="9" spans="1:31" s="28" customFormat="1">
       <c r="A9" s="35"/>
       <c r="B9" s="36"/>
       <c r="C9" s="35"/>
       <c r="J9" s="35"/>
     </row>
-    <row r="10" s="28" customFormat="1" spans="1:10">
+    <row r="10" spans="1:31" s="28" customFormat="1">
       <c r="A10" s="35"/>
       <c r="B10" s="36"/>
       <c r="C10" s="35"/>
       <c r="J10" s="35"/>
     </row>
-    <row r="11" s="28" customFormat="1" spans="1:10">
+    <row r="11" spans="1:31" s="28" customFormat="1">
       <c r="A11" s="35"/>
       <c r="B11" s="36"/>
       <c r="C11" s="35"/>
       <c r="J11" s="35"/>
     </row>
-    <row r="12" s="28" customFormat="1" spans="1:10">
+    <row r="12" spans="1:31" s="28" customFormat="1">
       <c r="A12" s="35"/>
       <c r="B12" s="36"/>
       <c r="C12" s="35"/>
       <c r="J12" s="35"/>
     </row>
-    <row r="13" s="28" customFormat="1" spans="1:10">
+    <row r="13" spans="1:31" s="28" customFormat="1">
       <c r="A13" s="35"/>
       <c r="B13" s="36"/>
       <c r="C13" s="35"/>
       <c r="J13" s="35"/>
     </row>
-    <row r="14" s="28" customFormat="1" spans="1:10">
+    <row r="14" spans="1:31" s="28" customFormat="1">
       <c r="A14" s="35"/>
       <c r="B14" s="36"/>
       <c r="C14" s="35"/>
       <c r="J14" s="35"/>
     </row>
-    <row r="15" s="28" customFormat="1" spans="1:10">
+    <row r="15" spans="1:31" s="28" customFormat="1">
       <c r="A15" s="35"/>
       <c r="B15" s="36"/>
       <c r="C15" s="35"/>
       <c r="J15" s="35"/>
     </row>
-    <row r="16" s="28" customFormat="1" spans="1:10">
+    <row r="16" spans="1:31" s="28" customFormat="1">
       <c r="A16" s="35"/>
       <c r="B16" s="36"/>
       <c r="C16" s="35"/>
       <c r="J16" s="35"/>
     </row>
-    <row r="17" s="28" customFormat="1" spans="1:10">
+    <row r="17" spans="1:10" s="28" customFormat="1">
       <c r="A17" s="35"/>
       <c r="B17" s="36"/>
       <c r="C17" s="35"/>
       <c r="J17" s="35"/>
     </row>
-    <row r="18" s="28" customFormat="1" spans="1:10">
+    <row r="18" spans="1:10" s="28" customFormat="1">
       <c r="A18" s="35"/>
       <c r="B18" s="36"/>
       <c r="C18" s="35"/>
       <c r="J18" s="35"/>
     </row>
-    <row r="19" s="28" customFormat="1" spans="1:10">
+    <row r="19" spans="1:10" s="28" customFormat="1">
       <c r="A19" s="35"/>
       <c r="B19" s="36"/>
       <c r="C19" s="35"/>
       <c r="J19" s="35"/>
     </row>
-    <row r="20" s="28" customFormat="1" spans="1:10">
+    <row r="20" spans="1:10" s="28" customFormat="1">
       <c r="A20" s="35"/>
       <c r="B20" s="36"/>
       <c r="C20" s="35"/>
       <c r="J20" s="35"/>
     </row>
-    <row r="21" s="28" customFormat="1" spans="1:10">
+    <row r="21" spans="1:10" s="28" customFormat="1">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="35"/>
       <c r="J21" s="35"/>
     </row>
-    <row r="22" s="28" customFormat="1" spans="1:10">
+    <row r="22" spans="1:10" s="28" customFormat="1">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="35"/>
       <c r="J22" s="35"/>
     </row>
-    <row r="23" s="28" customFormat="1" spans="1:10">
+    <row r="23" spans="1:10" s="28" customFormat="1">
       <c r="A23" s="35"/>
       <c r="B23" s="36">
         <v>1.4</v>
@@ -6359,7 +5910,7 @@
       <c r="C23" s="35"/>
       <c r="J23" s="35"/>
     </row>
-    <row r="24" s="28" customFormat="1" spans="1:10">
+    <row r="24" spans="1:10" s="28" customFormat="1">
       <c r="A24" s="35"/>
       <c r="B24" s="36" t="s">
         <v>13</v>
@@ -6367,7 +5918,7 @@
       <c r="C24" s="35"/>
       <c r="J24" s="35"/>
     </row>
-    <row r="25" s="28" customFormat="1" spans="1:10">
+    <row r="25" spans="1:10" s="28" customFormat="1">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36" t="s">
@@ -6375,7 +5926,7 @@
       </c>
       <c r="J25" s="35"/>
     </row>
-    <row r="26" s="28" customFormat="1" spans="1:10">
+    <row r="26" spans="1:10" s="28" customFormat="1">
       <c r="A26" s="35"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -6384,7 +5935,7 @@
       </c>
       <c r="J26" s="35"/>
     </row>
-    <row r="27" s="28" customFormat="1" spans="1:10">
+    <row r="27" spans="1:10" s="28" customFormat="1">
       <c r="A27" s="35"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -6393,7 +5944,7 @@
       </c>
       <c r="J27" s="35"/>
     </row>
-    <row r="28" s="28" customFormat="1" spans="1:10">
+    <row r="28" spans="1:10" s="28" customFormat="1">
       <c r="A28" s="35"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -6402,7 +5953,7 @@
       </c>
       <c r="J28" s="35"/>
     </row>
-    <row r="29" s="28" customFormat="1" spans="1:10">
+    <row r="29" spans="1:10" s="28" customFormat="1">
       <c r="A29" s="35"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -6411,7 +5962,7 @@
       </c>
       <c r="J29" s="35"/>
     </row>
-    <row r="30" s="28" customFormat="1" spans="1:10">
+    <row r="30" spans="1:10" s="28" customFormat="1">
       <c r="A30" s="35"/>
       <c r="B30" s="36"/>
       <c r="D30" s="28" t="s">
@@ -6419,13 +5970,13 @@
       </c>
       <c r="J30" s="35"/>
     </row>
-    <row r="31" s="28" customFormat="1" spans="3:10">
+    <row r="31" spans="1:10" s="28" customFormat="1">
       <c r="C31" s="36" t="s">
         <v>20</v>
       </c>
       <c r="J31" s="35"/>
     </row>
-    <row r="32" s="28" customFormat="1" spans="1:10">
+    <row r="32" spans="1:10" s="28" customFormat="1">
       <c r="A32" s="35"/>
       <c r="B32" s="37"/>
       <c r="D32" s="28" t="s">
@@ -6433,7 +5984,7 @@
       </c>
       <c r="J32" s="35"/>
     </row>
-    <row r="33" s="28" customFormat="1" spans="1:10">
+    <row r="33" spans="1:10" s="28" customFormat="1">
       <c r="A33" s="35"/>
       <c r="B33" s="37"/>
       <c r="D33" s="28" t="s">
@@ -6441,13 +5992,13 @@
       </c>
       <c r="J33" s="35"/>
     </row>
-    <row r="34" s="28" customFormat="1" spans="4:10">
+    <row r="34" spans="1:10" s="28" customFormat="1">
       <c r="D34" s="28" t="s">
         <v>23</v>
       </c>
       <c r="J34" s="35"/>
     </row>
-    <row r="35" s="28" customFormat="1" spans="1:10">
+    <row r="35" spans="1:10" s="28" customFormat="1">
       <c r="A35" s="35"/>
       <c r="B35" s="37"/>
       <c r="C35" s="36" t="s">
@@ -6455,7 +6006,7 @@
       </c>
       <c r="J35" s="35"/>
     </row>
-    <row r="36" s="28" customFormat="1" spans="1:10">
+    <row r="36" spans="1:10" s="28" customFormat="1">
       <c r="A36" s="35"/>
       <c r="B36" s="37"/>
       <c r="D36" s="28" t="s">
@@ -6463,19 +6014,19 @@
       </c>
       <c r="J36" s="35"/>
     </row>
-    <row r="37" s="28" customFormat="1" spans="4:10">
+    <row r="37" spans="1:10" s="28" customFormat="1">
       <c r="D37" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J37" s="35"/>
     </row>
-    <row r="38" s="28" customFormat="1" spans="4:10">
+    <row r="38" spans="1:10" s="28" customFormat="1">
       <c r="D38" s="28" t="s">
         <v>27</v>
       </c>
       <c r="J38" s="35"/>
     </row>
-    <row r="39" s="28" customFormat="1" spans="1:10">
+    <row r="39" spans="1:10" s="28" customFormat="1">
       <c r="A39" s="35"/>
       <c r="B39" s="38"/>
       <c r="C39" s="36"/>
@@ -6484,7 +6035,7 @@
       </c>
       <c r="J39" s="35"/>
     </row>
-    <row r="40" s="28" customFormat="1" spans="1:10">
+    <row r="40" spans="1:10" s="28" customFormat="1">
       <c r="A40" s="35"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36" t="s">
@@ -6492,7 +6043,7 @@
       </c>
       <c r="J40" s="35"/>
     </row>
-    <row r="41" s="28" customFormat="1" spans="1:10">
+    <row r="41" spans="1:10" s="28" customFormat="1">
       <c r="A41" s="35"/>
       <c r="B41" s="37"/>
       <c r="D41" s="28" t="s">
@@ -6500,32 +6051,32 @@
       </c>
       <c r="J41" s="35"/>
     </row>
-    <row r="42" s="28" customFormat="1" spans="4:10">
+    <row r="42" spans="1:10" s="28" customFormat="1">
       <c r="D42" s="28" t="s">
         <v>31</v>
       </c>
       <c r="J42" s="35"/>
     </row>
-    <row r="43" s="28" customFormat="1" spans="4:10">
+    <row r="43" spans="1:10" s="28" customFormat="1">
       <c r="D43" s="28" t="s">
         <v>32</v>
       </c>
       <c r="J43" s="35"/>
     </row>
-    <row r="44" s="28" customFormat="1" spans="3:10">
+    <row r="44" spans="1:10" s="28" customFormat="1">
       <c r="C44" s="36" t="s">
         <v>33</v>
       </c>
       <c r="J44" s="35"/>
     </row>
-    <row r="45" s="28" customFormat="1" spans="1:10">
+    <row r="45" spans="1:10" s="28" customFormat="1">
       <c r="A45" s="35"/>
       <c r="D45" s="28" t="s">
         <v>34</v>
       </c>
       <c r="J45" s="35"/>
     </row>
-    <row r="46" s="28" customFormat="1" spans="1:10">
+    <row r="46" spans="1:10" s="28" customFormat="1">
       <c r="A46" s="35"/>
       <c r="B46" s="37"/>
       <c r="D46" s="28" t="s">
@@ -6533,20 +6084,20 @@
       </c>
       <c r="J46" s="35"/>
     </row>
-    <row r="47" s="28" customFormat="1" spans="4:10">
+    <row r="47" spans="1:10" s="28" customFormat="1">
       <c r="D47" s="28" t="s">
         <v>36</v>
       </c>
       <c r="J47" s="35"/>
     </row>
-    <row r="48" s="28" customFormat="1" spans="1:10">
+    <row r="48" spans="1:10" s="28" customFormat="1">
       <c r="A48" s="35"/>
       <c r="D48" s="35" t="s">
         <v>37</v>
       </c>
       <c r="J48" s="35"/>
     </row>
-    <row r="49" s="28" customFormat="1" spans="1:10">
+    <row r="49" spans="1:16" s="28" customFormat="1">
       <c r="A49" s="35"/>
       <c r="B49" s="35"/>
       <c r="E49" s="28" t="s">
@@ -6554,7 +6105,7 @@
       </c>
       <c r="J49" s="35"/>
     </row>
-    <row r="50" s="28" customFormat="1" spans="1:10">
+    <row r="50" spans="1:16" s="28" customFormat="1">
       <c r="A50" s="35"/>
       <c r="B50" s="35"/>
       <c r="C50" s="35"/>
@@ -6563,7 +6114,7 @@
       </c>
       <c r="J50" s="35"/>
     </row>
-    <row r="51" s="28" customFormat="1" spans="1:16">
+    <row r="51" spans="1:16" s="28" customFormat="1">
       <c r="A51" s="35"/>
       <c r="B51" s="35"/>
       <c r="C51" s="35"/>
@@ -6583,7 +6134,7 @@
       <c r="O51" s="35"/>
       <c r="P51" s="40"/>
     </row>
-    <row r="52" s="28" customFormat="1" spans="1:10">
+    <row r="52" spans="1:16" s="28" customFormat="1">
       <c r="A52" s="35"/>
       <c r="B52" s="35"/>
       <c r="C52" s="35"/>
@@ -6592,7 +6143,7 @@
       </c>
       <c r="J52" s="35"/>
     </row>
-    <row r="53" s="28" customFormat="1" spans="1:10">
+    <row r="53" spans="1:16" s="28" customFormat="1">
       <c r="A53" s="35"/>
       <c r="B53" s="35"/>
       <c r="C53" s="35"/>
@@ -6601,7 +6152,7 @@
       </c>
       <c r="J53" s="35"/>
     </row>
-    <row r="54" s="28" customFormat="1" spans="1:10">
+    <row r="54" spans="1:16" s="28" customFormat="1">
       <c r="A54" s="35"/>
       <c r="B54" s="35"/>
       <c r="C54" s="35"/>
@@ -6610,7 +6161,7 @@
       </c>
       <c r="J54" s="35"/>
     </row>
-    <row r="55" s="28" customFormat="1" spans="1:16">
+    <row r="55" spans="1:16" s="28" customFormat="1">
       <c r="A55" s="35"/>
       <c r="B55" s="35"/>
       <c r="C55" s="35"/>
@@ -6630,349 +6181,346 @@
       <c r="O55" s="35"/>
       <c r="P55" s="40"/>
     </row>
-    <row r="56" s="28" customFormat="1" spans="1:10">
+    <row r="56" spans="1:16" s="28" customFormat="1">
       <c r="A56" s="35"/>
       <c r="B56" s="35"/>
       <c r="C56" s="35"/>
       <c r="D56" s="36"/>
       <c r="J56" s="35"/>
     </row>
-    <row r="57" s="28" customFormat="1" spans="1:10">
+    <row r="57" spans="1:16" s="28" customFormat="1">
       <c r="A57" s="35"/>
       <c r="B57" s="35"/>
       <c r="C57" s="35"/>
       <c r="D57" s="36"/>
       <c r="J57" s="35"/>
     </row>
-    <row r="58" s="28" customFormat="1" spans="1:10">
+    <row r="58" spans="1:16" s="28" customFormat="1">
       <c r="A58" s="35"/>
       <c r="B58" s="35"/>
       <c r="C58" s="35"/>
       <c r="J58" s="35"/>
     </row>
-    <row r="59" s="28" customFormat="1" spans="1:10">
+    <row r="59" spans="1:16" s="28" customFormat="1">
       <c r="A59" s="35"/>
       <c r="B59" s="35"/>
       <c r="C59" s="35"/>
       <c r="J59" s="35"/>
     </row>
-    <row r="60" s="28" customFormat="1" spans="1:10">
+    <row r="60" spans="1:16" s="28" customFormat="1">
       <c r="A60" s="35"/>
       <c r="B60" s="35"/>
       <c r="C60" s="35"/>
       <c r="J60" s="35"/>
     </row>
-    <row r="61" s="28" customFormat="1" spans="1:10">
+    <row r="61" spans="1:16" s="28" customFormat="1">
       <c r="A61" s="35"/>
       <c r="B61" s="35"/>
       <c r="C61" s="35"/>
       <c r="J61" s="35"/>
     </row>
-    <row r="66" s="35" customFormat="1" spans="2:2">
+    <row r="66" spans="2:5">
       <c r="B66" s="37"/>
     </row>
-    <row r="69" s="35" customFormat="1" spans="5:5">
+    <row r="69" spans="2:5">
       <c r="E69" s="35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="70" s="35" customFormat="1" spans="5:5">
+    <row r="70" spans="2:5">
       <c r="E70" s="35" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="71" s="35" customFormat="1" spans="5:5">
+    <row r="71" spans="2:5">
       <c r="E71" s="35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="72" s="35" customFormat="1" spans="3:5">
+    <row r="72" spans="2:5">
       <c r="C72" s="37"/>
       <c r="E72" s="35" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="73" s="35" customFormat="1" spans="3:3">
+    <row r="73" spans="2:5">
       <c r="C73" s="36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="74" s="35" customFormat="1" spans="4:4">
+    <row r="74" spans="2:5">
       <c r="D74" s="35" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="75" s="35" customFormat="1" spans="3:4">
+    <row r="75" spans="2:5">
       <c r="C75" s="40"/>
       <c r="D75" s="35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="76" s="35" customFormat="1" spans="4:5">
+    <row r="76" spans="2:5">
       <c r="D76" s="35" t="s">
         <v>52</v>
       </c>
       <c r="E76" s="40"/>
     </row>
-    <row r="77" s="35" customFormat="1" spans="4:4">
+    <row r="77" spans="2:5">
       <c r="D77" s="40" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="78" s="35" customFormat="1" spans="4:5">
+    <row r="78" spans="2:5">
       <c r="D78" s="35" t="s">
         <v>54</v>
       </c>
       <c r="E78" s="40"/>
     </row>
-    <row r="79" s="35" customFormat="1" spans="4:4">
+    <row r="79" spans="2:5">
       <c r="D79" s="40" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="80" s="35" customFormat="1" spans="3:4">
+    <row r="80" spans="2:5">
       <c r="C80" s="40"/>
       <c r="D80" s="35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="81" s="35" customFormat="1" spans="3:4">
+    <row r="81" spans="3:5">
       <c r="C81" s="40"/>
       <c r="D81" s="35" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="82" s="35" customFormat="1" spans="3:3">
+    <row r="82" spans="3:5">
       <c r="C82" s="36" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="83" s="35" customFormat="1" spans="3:4">
+    <row r="83" spans="3:5">
       <c r="C83" s="40"/>
       <c r="D83" s="35" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="84" s="35" customFormat="1" spans="3:4">
+    <row r="84" spans="3:5">
       <c r="C84" s="40"/>
       <c r="D84" s="35" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="85" s="35" customFormat="1" spans="3:3">
+    <row r="85" spans="3:5">
       <c r="C85" s="36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="86" s="35" customFormat="1" spans="4:4">
+    <row r="86" spans="3:5">
       <c r="D86" s="35" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="87" s="35" customFormat="1" spans="5:5">
+    <row r="87" spans="3:5">
       <c r="E87" s="35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="88" s="35" customFormat="1" spans="5:5">
+    <row r="88" spans="3:5">
       <c r="E88" s="35" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="89" s="35" customFormat="1" spans="5:5">
+    <row r="89" spans="3:5">
       <c r="E89" s="35" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="90" s="35" customFormat="1" spans="5:5">
+    <row r="90" spans="3:5">
       <c r="E90" s="35" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="91" s="35" customFormat="1" spans="3:5">
+    <row r="91" spans="3:5">
       <c r="C91" s="36"/>
       <c r="E91" s="36" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="92" s="35" customFormat="1" spans="3:5">
+    <row r="92" spans="3:5">
       <c r="C92" s="37"/>
       <c r="E92" s="35" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="93" spans="5:5">
+    <row r="93" spans="3:5">
       <c r="E93" s="35" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="105" spans="5:5">
+    <row r="105" spans="4:6">
       <c r="E105" s="35" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="106" spans="6:6">
+    <row r="106" spans="4:6">
       <c r="F106" s="35" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="107" spans="6:6">
+    <row r="107" spans="4:6">
       <c r="F107" s="35" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="108" spans="6:6">
+    <row r="108" spans="4:6">
       <c r="F108" s="35" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="109" spans="4:4">
+    <row r="109" spans="4:6">
       <c r="D109" s="35" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="110" spans="5:5">
+    <row r="110" spans="4:6">
       <c r="E110" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="111" spans="5:5">
+    <row r="111" spans="4:6">
       <c r="E111" s="35" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="112" spans="5:5">
+    <row r="112" spans="4:6">
       <c r="E112" s="35" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="113" spans="5:5">
+    <row r="113" spans="2:5">
       <c r="E113" s="35" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="114" spans="2:2">
+    <row r="114" spans="2:5">
       <c r="B114" s="36" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="115" spans="2:3">
+    <row r="115" spans="2:5">
       <c r="B115" s="36"/>
       <c r="C115" s="35" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="2:4">
+    <row r="116" spans="2:5">
       <c r="B116" s="36"/>
       <c r="D116" s="35" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="117" spans="2:4">
+    <row r="117" spans="2:5">
       <c r="B117" s="36"/>
       <c r="D117" s="35" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="118" spans="2:3">
+    <row r="118" spans="2:5">
       <c r="B118" s="36"/>
       <c r="C118" s="35" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="119" spans="2:4">
+    <row r="119" spans="2:5">
       <c r="B119" s="36"/>
       <c r="D119" s="35" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="120" spans="2:4">
+    <row r="120" spans="2:5">
       <c r="B120" s="36"/>
       <c r="D120" s="35" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="121" spans="2:4">
+    <row r="121" spans="2:5">
       <c r="B121" s="36"/>
       <c r="D121" s="35" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="122" spans="2:4">
+    <row r="122" spans="2:5">
       <c r="B122" s="36"/>
       <c r="D122" s="35" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="123" spans="2:4">
+    <row r="123" spans="2:5">
       <c r="B123" s="36"/>
       <c r="D123" s="35" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="124" spans="2:2">
+    <row r="124" spans="2:5">
       <c r="B124" s="35" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="125" spans="3:3">
+    <row r="125" spans="2:5">
       <c r="C125" s="35" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="126" spans="3:3">
+    <row r="126" spans="2:5">
       <c r="C126" s="35" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="127" spans="3:3">
+    <row r="127" spans="2:5">
       <c r="C127" s="35" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="128" spans="3:3">
+    <row r="128" spans="2:5">
       <c r="C128" s="35" t="s">
         <v>93</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE249"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD3"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.90625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="35"/>
+    <col min="1" max="16384" width="4.90625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="1" ht="22.5" spans="1:31">
+    <row r="1" spans="1:31" s="28" customFormat="1" ht="23">
       <c r="A1" s="35"/>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -7017,7 +6565,7 @@
       <c r="AD1" s="35"/>
       <c r="AE1" s="36"/>
     </row>
-    <row r="2" s="28" customFormat="1" spans="1:27">
+    <row r="2" spans="1:31" s="28" customFormat="1">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -7058,7 +6606,7 @@
       <c r="Z2" s="35"/>
       <c r="AA2" s="41"/>
     </row>
-    <row r="3" s="28" customFormat="1" spans="1:10">
+    <row r="3" spans="1:31" s="28" customFormat="1">
       <c r="A3" s="35" t="s">
         <v>97</v>
       </c>
@@ -7066,7 +6614,7 @@
       <c r="C3" s="35"/>
       <c r="J3" s="35"/>
     </row>
-    <row r="4" s="28" customFormat="1" spans="1:10">
+    <row r="4" spans="1:31" s="28" customFormat="1">
       <c r="A4" s="35"/>
       <c r="B4" s="36" t="s">
         <v>98</v>
@@ -7074,7 +6622,7 @@
       <c r="C4" s="35"/>
       <c r="J4" s="35"/>
     </row>
-    <row r="5" s="28" customFormat="1" spans="1:10">
+    <row r="5" spans="1:31" s="28" customFormat="1">
       <c r="A5" s="35"/>
       <c r="B5" s="36"/>
       <c r="C5" s="35" t="s">
@@ -7082,7 +6630,7 @@
       </c>
       <c r="J5" s="35"/>
     </row>
-    <row r="6" s="28" customFormat="1" spans="1:10">
+    <row r="6" spans="1:31" s="28" customFormat="1">
       <c r="A6" s="35"/>
       <c r="B6" s="36"/>
       <c r="C6" s="35" t="s">
@@ -7090,7 +6638,7 @@
       </c>
       <c r="J6" s="35"/>
     </row>
-    <row r="7" s="28" customFormat="1" spans="1:10">
+    <row r="7" spans="1:31" s="28" customFormat="1">
       <c r="A7" s="35"/>
       <c r="B7" s="36"/>
       <c r="C7" s="35" t="s">
@@ -7098,7 +6646,7 @@
       </c>
       <c r="J7" s="35"/>
     </row>
-    <row r="8" s="28" customFormat="1" spans="1:10">
+    <row r="8" spans="1:31" s="28" customFormat="1">
       <c r="A8" s="35"/>
       <c r="B8" s="36"/>
       <c r="C8" s="35" t="s">
@@ -7106,7 +6654,7 @@
       </c>
       <c r="J8" s="35"/>
     </row>
-    <row r="9" s="28" customFormat="1" spans="1:10">
+    <row r="9" spans="1:31" s="28" customFormat="1">
       <c r="A9" s="35"/>
       <c r="B9" s="36"/>
       <c r="C9" s="35" t="s">
@@ -7114,7 +6662,7 @@
       </c>
       <c r="J9" s="35"/>
     </row>
-    <row r="10" s="28" customFormat="1" spans="1:10">
+    <row r="10" spans="1:31" s="28" customFormat="1">
       <c r="A10" s="35"/>
       <c r="B10" s="36"/>
       <c r="C10" s="35" t="s">
@@ -7122,7 +6670,7 @@
       </c>
       <c r="J10" s="35"/>
     </row>
-    <row r="11" s="28" customFormat="1" spans="1:10">
+    <row r="11" spans="1:31" s="28" customFormat="1">
       <c r="A11" s="35"/>
       <c r="B11" s="36"/>
       <c r="C11" s="35" t="s">
@@ -7130,7 +6678,7 @@
       </c>
       <c r="J11" s="35"/>
     </row>
-    <row r="12" s="28" customFormat="1" spans="1:10">
+    <row r="12" spans="1:31" s="28" customFormat="1">
       <c r="A12" s="35"/>
       <c r="B12" s="36"/>
       <c r="C12" s="35" t="s">
@@ -7138,7 +6686,7 @@
       </c>
       <c r="J12" s="35"/>
     </row>
-    <row r="13" s="28" customFormat="1" spans="1:10">
+    <row r="13" spans="1:31" s="28" customFormat="1">
       <c r="A13" s="35"/>
       <c r="B13" s="36"/>
       <c r="C13" s="35" t="s">
@@ -7146,7 +6694,7 @@
       </c>
       <c r="J13" s="35"/>
     </row>
-    <row r="14" s="28" customFormat="1" spans="1:10">
+    <row r="14" spans="1:31" s="28" customFormat="1">
       <c r="A14" s="35"/>
       <c r="B14" s="36"/>
       <c r="C14" s="35" t="s">
@@ -7154,7 +6702,7 @@
       </c>
       <c r="J14" s="35"/>
     </row>
-    <row r="15" s="28" customFormat="1" spans="1:10">
+    <row r="15" spans="1:31" s="28" customFormat="1">
       <c r="A15" s="35"/>
       <c r="B15" s="36" t="s">
         <v>109</v>
@@ -7162,7 +6710,7 @@
       <c r="C15" s="35"/>
       <c r="J15" s="35"/>
     </row>
-    <row r="16" s="28" customFormat="1" spans="1:10">
+    <row r="16" spans="1:31" s="28" customFormat="1">
       <c r="A16" s="35"/>
       <c r="B16" s="36"/>
       <c r="C16" s="35" t="s">
@@ -7170,7 +6718,7 @@
       </c>
       <c r="J16" s="35"/>
     </row>
-    <row r="17" s="28" customFormat="1" spans="1:10">
+    <row r="17" spans="1:10" s="28" customFormat="1">
       <c r="A17" s="35"/>
       <c r="B17" s="36"/>
       <c r="C17" s="35" t="s">
@@ -7178,7 +6726,7 @@
       </c>
       <c r="J17" s="35"/>
     </row>
-    <row r="18" s="28" customFormat="1" spans="1:10">
+    <row r="18" spans="1:10" s="28" customFormat="1">
       <c r="A18" s="35"/>
       <c r="B18" s="36"/>
       <c r="D18" s="28" t="s">
@@ -7186,7 +6734,7 @@
       </c>
       <c r="J18" s="35"/>
     </row>
-    <row r="19" s="28" customFormat="1" spans="1:10">
+    <row r="19" spans="1:10" s="28" customFormat="1">
       <c r="A19" s="35"/>
       <c r="B19" s="36"/>
       <c r="C19" s="35"/>
@@ -7195,7 +6743,7 @@
       </c>
       <c r="J19" s="35"/>
     </row>
-    <row r="20" s="28" customFormat="1" spans="1:10">
+    <row r="20" spans="1:10" s="28" customFormat="1">
       <c r="A20" s="35"/>
       <c r="B20" s="36"/>
       <c r="C20" s="35"/>
@@ -7204,7 +6752,7 @@
       </c>
       <c r="J20" s="35"/>
     </row>
-    <row r="21" s="28" customFormat="1" spans="1:10">
+    <row r="21" spans="1:10" s="28" customFormat="1">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="35"/>
@@ -7213,7 +6761,7 @@
       </c>
       <c r="J21" s="35"/>
     </row>
-    <row r="22" s="28" customFormat="1" spans="1:10">
+    <row r="22" spans="1:10" s="28" customFormat="1">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="35"/>
@@ -7222,7 +6770,7 @@
       </c>
       <c r="J22" s="35"/>
     </row>
-    <row r="23" s="28" customFormat="1" spans="1:10">
+    <row r="23" spans="1:10" s="28" customFormat="1">
       <c r="A23" s="35"/>
       <c r="B23" s="36"/>
       <c r="C23" s="35"/>
@@ -7231,7 +6779,7 @@
       </c>
       <c r="J23" s="35"/>
     </row>
-    <row r="24" s="28" customFormat="1" spans="1:10">
+    <row r="24" spans="1:10" s="28" customFormat="1">
       <c r="A24" s="35"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
@@ -7240,16 +6788,16 @@
       </c>
       <c r="J24" s="35"/>
     </row>
-    <row r="25" s="28" customFormat="1" spans="1:10">
+    <row r="25" spans="1:10" s="28" customFormat="1">
       <c r="A25" s="35"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
-      <c r="E25" s="51" t="s">
+      <c r="E25" s="45" t="s">
         <v>119</v>
       </c>
       <c r="J25" s="35"/>
     </row>
-    <row r="26" s="28" customFormat="1" spans="1:10">
+    <row r="26" spans="1:10" s="28" customFormat="1">
       <c r="A26" s="35"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -7258,7 +6806,7 @@
       </c>
       <c r="J26" s="35"/>
     </row>
-    <row r="27" s="28" customFormat="1" spans="1:10">
+    <row r="27" spans="1:10" s="28" customFormat="1">
       <c r="A27" s="35"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -7267,7 +6815,7 @@
       </c>
       <c r="J27" s="35"/>
     </row>
-    <row r="28" s="28" customFormat="1" spans="1:10">
+    <row r="28" spans="1:10" s="28" customFormat="1">
       <c r="A28" s="35"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -7276,7 +6824,7 @@
       </c>
       <c r="J28" s="35"/>
     </row>
-    <row r="29" s="28" customFormat="1" spans="1:10">
+    <row r="29" spans="1:10" s="28" customFormat="1">
       <c r="A29" s="35"/>
       <c r="B29" s="36"/>
       <c r="C29" s="35" t="s">
@@ -7284,14 +6832,14 @@
       </c>
       <c r="J29" s="35"/>
     </row>
-    <row r="30" s="28" customFormat="1" spans="3:10">
+    <row r="30" spans="1:10" s="28" customFormat="1">
       <c r="C30" s="36"/>
       <c r="D30" s="28" t="s">
         <v>124</v>
       </c>
       <c r="J30" s="35"/>
     </row>
-    <row r="31" s="28" customFormat="1" spans="1:10">
+    <row r="31" spans="1:10" s="28" customFormat="1">
       <c r="A31" s="35"/>
       <c r="B31" s="37"/>
       <c r="D31" s="28" t="s">
@@ -7299,7 +6847,7 @@
       </c>
       <c r="J31" s="35"/>
     </row>
-    <row r="32" s="28" customFormat="1" spans="1:10">
+    <row r="32" spans="1:10" s="28" customFormat="1">
       <c r="A32" s="35"/>
       <c r="B32" s="37"/>
       <c r="D32" s="28" t="s">
@@ -7307,13 +6855,13 @@
       </c>
       <c r="J32" s="35"/>
     </row>
-    <row r="33" s="28" customFormat="1" spans="4:10">
+    <row r="33" spans="1:10" s="28" customFormat="1">
       <c r="D33" s="28" t="s">
         <v>127</v>
       </c>
       <c r="J33" s="35"/>
     </row>
-    <row r="34" s="28" customFormat="1" spans="1:10">
+    <row r="34" spans="1:10" s="28" customFormat="1">
       <c r="A34" s="35"/>
       <c r="B34" s="37"/>
       <c r="C34" s="36"/>
@@ -7322,64 +6870,64 @@
       </c>
       <c r="J34" s="35"/>
     </row>
-    <row r="35" s="28" customFormat="1" spans="1:10">
+    <row r="35" spans="1:10" s="28" customFormat="1">
       <c r="A35" s="35"/>
       <c r="B35" s="37"/>
       <c r="J35" s="35"/>
     </row>
-    <row r="36" s="28" customFormat="1" spans="10:10">
+    <row r="36" spans="1:10" s="28" customFormat="1">
       <c r="J36" s="35"/>
     </row>
-    <row r="37" s="28" customFormat="1" spans="10:10">
+    <row r="37" spans="1:10" s="28" customFormat="1">
       <c r="J37" s="35"/>
     </row>
-    <row r="38" s="28" customFormat="1" spans="1:10">
+    <row r="38" spans="1:10" s="28" customFormat="1">
       <c r="A38" s="35"/>
       <c r="B38" s="38"/>
       <c r="C38" s="36"/>
       <c r="J38" s="35"/>
     </row>
-    <row r="39" s="28" customFormat="1" spans="1:10">
+    <row r="39" spans="1:10" s="28" customFormat="1">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
       <c r="J39" s="35"/>
     </row>
-    <row r="40" s="28" customFormat="1" spans="1:10">
+    <row r="40" spans="1:10" s="28" customFormat="1">
       <c r="A40" s="35"/>
       <c r="B40" s="37"/>
       <c r="J40" s="35"/>
     </row>
-    <row r="41" s="28" customFormat="1" spans="10:10">
+    <row r="41" spans="1:10" s="28" customFormat="1">
       <c r="J41" s="35"/>
     </row>
-    <row r="42" s="28" customFormat="1" spans="10:10">
+    <row r="42" spans="1:10" s="28" customFormat="1">
       <c r="J42" s="35"/>
     </row>
-    <row r="43" s="28" customFormat="1" spans="3:10">
+    <row r="43" spans="1:10" s="28" customFormat="1">
       <c r="C43" s="36"/>
       <c r="J43" s="35"/>
     </row>
-    <row r="44" s="28" customFormat="1" spans="1:10">
+    <row r="44" spans="1:10" s="28" customFormat="1">
       <c r="A44" s="35"/>
       <c r="J44" s="35"/>
     </row>
-    <row r="45" s="28" customFormat="1" spans="1:10">
+    <row r="45" spans="1:10" s="28" customFormat="1">
       <c r="A45" s="35"/>
       <c r="B45" s="37"/>
       <c r="J45" s="35"/>
     </row>
-    <row r="46" s="28" customFormat="1" spans="10:10">
+    <row r="46" spans="1:10" s="28" customFormat="1">
       <c r="J46" s="35"/>
     </row>
-    <row r="47" s="28" customFormat="1" spans="1:10">
+    <row r="47" spans="1:10" s="28" customFormat="1">
       <c r="A47" s="35"/>
       <c r="D47" s="35" t="s">
         <v>129</v>
       </c>
       <c r="J47" s="35"/>
     </row>
-    <row r="48" s="28" customFormat="1" spans="1:10">
+    <row r="48" spans="1:10" s="28" customFormat="1">
       <c r="A48" s="35"/>
       <c r="B48" s="35"/>
       <c r="D48" s="28" t="s">
@@ -7387,7 +6935,7 @@
       </c>
       <c r="J48" s="35"/>
     </row>
-    <row r="49" s="28" customFormat="1" spans="1:10">
+    <row r="49" spans="1:16" s="28" customFormat="1">
       <c r="A49" s="35"/>
       <c r="B49" s="35"/>
       <c r="C49" s="35"/>
@@ -7396,7 +6944,7 @@
       </c>
       <c r="J49" s="35"/>
     </row>
-    <row r="50" s="28" customFormat="1" spans="1:16">
+    <row r="50" spans="1:16" s="28" customFormat="1">
       <c r="A50" s="35"/>
       <c r="B50" s="35"/>
       <c r="C50" s="35"/>
@@ -7416,7 +6964,7 @@
       <c r="O50" s="35"/>
       <c r="P50" s="40"/>
     </row>
-    <row r="51" s="28" customFormat="1" spans="1:10">
+    <row r="51" spans="1:16" s="28" customFormat="1">
       <c r="A51" s="35"/>
       <c r="B51" s="35"/>
       <c r="C51" s="35" t="s">
@@ -7424,7 +6972,7 @@
       </c>
       <c r="J51" s="35"/>
     </row>
-    <row r="52" s="28" customFormat="1" spans="1:10">
+    <row r="52" spans="1:16" s="28" customFormat="1">
       <c r="A52" s="35"/>
       <c r="B52" s="35"/>
       <c r="C52" s="35"/>
@@ -7433,7 +6981,7 @@
       </c>
       <c r="J52" s="35"/>
     </row>
-    <row r="53" s="28" customFormat="1" spans="1:10">
+    <row r="53" spans="1:16" s="28" customFormat="1">
       <c r="A53" s="35"/>
       <c r="B53" s="35"/>
       <c r="C53" s="35"/>
@@ -7442,7 +6990,7 @@
       </c>
       <c r="J53" s="35"/>
     </row>
-    <row r="54" s="28" customFormat="1" spans="1:16">
+    <row r="54" spans="1:16" s="28" customFormat="1">
       <c r="A54" s="35"/>
       <c r="B54" s="35"/>
       <c r="C54" s="35"/>
@@ -7462,7 +7010,7 @@
       <c r="O54" s="35"/>
       <c r="P54" s="40"/>
     </row>
-    <row r="55" s="28" customFormat="1" spans="1:10">
+    <row r="55" spans="1:16" s="28" customFormat="1">
       <c r="A55" s="35"/>
       <c r="B55" s="35"/>
       <c r="C55" s="35"/>
@@ -7471,7 +7019,7 @@
       </c>
       <c r="J55" s="35"/>
     </row>
-    <row r="56" s="28" customFormat="1" spans="1:10">
+    <row r="56" spans="1:16" s="28" customFormat="1">
       <c r="A56" s="35"/>
       <c r="B56" s="35"/>
       <c r="C56" s="35" t="s">
@@ -7480,7 +7028,7 @@
       <c r="D56" s="36"/>
       <c r="J56" s="35"/>
     </row>
-    <row r="57" s="28" customFormat="1" spans="1:10">
+    <row r="57" spans="1:16" s="28" customFormat="1">
       <c r="A57" s="35"/>
       <c r="B57" s="35"/>
       <c r="C57" s="35"/>
@@ -7489,7 +7037,7 @@
       </c>
       <c r="J57" s="35"/>
     </row>
-    <row r="58" s="28" customFormat="1" spans="1:10">
+    <row r="58" spans="1:16" s="28" customFormat="1">
       <c r="A58" s="35"/>
       <c r="B58" s="35"/>
       <c r="C58" s="35"/>
@@ -7498,7 +7046,7 @@
       </c>
       <c r="J58" s="35"/>
     </row>
-    <row r="59" s="28" customFormat="1" spans="1:10">
+    <row r="59" spans="1:16" s="28" customFormat="1">
       <c r="A59" s="35"/>
       <c r="B59" s="35"/>
       <c r="C59" s="35"/>
@@ -7507,664 +7055,665 @@
       </c>
       <c r="J59" s="35"/>
     </row>
-    <row r="60" s="28" customFormat="1" spans="1:10">
+    <row r="60" spans="1:16" s="28" customFormat="1">
       <c r="A60" s="35"/>
       <c r="B60" s="35"/>
       <c r="C60" s="35"/>
       <c r="J60" s="35"/>
     </row>
-    <row r="62" spans="4:4">
+    <row r="62" spans="1:16">
       <c r="D62" s="35" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="4:4">
+    <row r="63" spans="1:16">
       <c r="D63" s="35" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="64" spans="4:4">
+    <row r="64" spans="1:16">
       <c r="D64" s="35" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="65" s="35" customFormat="1" spans="2:4">
+    <row r="65" spans="2:5">
       <c r="B65" s="37"/>
       <c r="D65" s="35" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="66" spans="3:3">
+    <row r="66" spans="2:5">
       <c r="C66" s="35" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="4:4">
+    <row r="67" spans="2:5">
       <c r="D67" s="35" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="4:4">
+    <row r="68" spans="2:5">
       <c r="D68" s="35" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="69" s="35" customFormat="1" spans="3:4">
+    <row r="69" spans="2:5">
       <c r="C69" s="37"/>
       <c r="D69" s="35" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="70" s="35" customFormat="1" spans="3:4">
+    <row r="70" spans="2:5">
       <c r="C70" s="36"/>
       <c r="D70" s="35" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="72" s="35" customFormat="1" spans="3:3">
+    <row r="72" spans="2:5">
       <c r="C72" s="40"/>
     </row>
-    <row r="73" s="35" customFormat="1" spans="5:5">
+    <row r="73" spans="2:5">
       <c r="E73" s="40"/>
     </row>
-    <row r="74" s="35" customFormat="1" spans="4:4">
+    <row r="74" spans="2:5">
       <c r="D74" s="40"/>
     </row>
-    <row r="76" s="35" customFormat="1" spans="4:4">
+    <row r="76" spans="2:5">
       <c r="D76" s="40"/>
     </row>
-    <row r="77" s="35" customFormat="1" spans="3:3">
+    <row r="77" spans="2:5">
       <c r="C77" s="40"/>
     </row>
-    <row r="78" s="35" customFormat="1" spans="3:3">
+    <row r="78" spans="2:5">
       <c r="C78" s="40"/>
     </row>
-    <row r="79" s="35" customFormat="1" spans="3:3">
+    <row r="79" spans="2:5">
       <c r="C79" s="36"/>
     </row>
-    <row r="80" s="35" customFormat="1" spans="3:3">
+    <row r="80" spans="2:5">
       <c r="C80" s="40"/>
     </row>
-    <row r="81" s="35" customFormat="1" spans="3:3">
+    <row r="81" spans="3:5">
       <c r="C81" s="40"/>
     </row>
-    <row r="82" s="35" customFormat="1" spans="3:3">
+    <row r="82" spans="3:5">
       <c r="C82" s="36"/>
     </row>
-    <row r="85" spans="5:5">
+    <row r="85" spans="3:5">
       <c r="E85" s="40" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="86" spans="5:5">
+    <row r="86" spans="3:5">
       <c r="E86" s="35" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="87" spans="5:5">
+    <row r="87" spans="3:5">
       <c r="E87" s="35" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="88" s="35" customFormat="1" spans="3:5">
+    <row r="88" spans="3:5">
       <c r="C88" s="36"/>
       <c r="E88" s="35" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="89" s="35" customFormat="1" spans="3:5">
+    <row r="89" spans="3:5">
       <c r="C89" s="37"/>
       <c r="E89" s="35" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="90" spans="5:5">
+    <row r="90" spans="3:5">
       <c r="E90" s="35" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="91" spans="5:5">
+    <row r="91" spans="3:5">
       <c r="E91" s="35" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="92" spans="5:5">
+    <row r="92" spans="3:5">
       <c r="E92" s="35" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="93" spans="5:5">
+    <row r="93" spans="3:5">
       <c r="E93" s="35" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="96" spans="5:5">
+    <row r="96" spans="3:5">
       <c r="E96" s="35" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="97" spans="5:5">
+    <row r="97" spans="2:5">
       <c r="E97" s="35" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="98" spans="5:5">
+    <row r="98" spans="2:5">
       <c r="E98" s="35" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="99" spans="2:2">
+    <row r="99" spans="2:5">
       <c r="B99" s="35" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="100" spans="3:3">
+    <row r="100" spans="2:5">
       <c r="C100" s="35" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="101" spans="4:4">
+    <row r="101" spans="2:5">
       <c r="D101" s="35" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="102" spans="4:4">
+    <row r="102" spans="2:5">
       <c r="D102" s="35" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="111" s="35" customFormat="1" spans="2:4">
+    <row r="111" spans="2:5">
       <c r="B111" s="36"/>
       <c r="D111" s="35" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="112" s="35" customFormat="1" spans="2:4">
+    <row r="112" spans="2:5">
       <c r="B112" s="36"/>
-      <c r="D112" s="52" t="s">
+      <c r="D112" s="46" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="113" s="35" customFormat="1" spans="2:3">
+    <row r="113" spans="2:4">
       <c r="B113" s="36"/>
       <c r="C113" s="35" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="114" s="35" customFormat="1" spans="2:4">
+    <row r="114" spans="2:4">
       <c r="B114" s="36"/>
       <c r="D114" s="35" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="115" s="35" customFormat="1" spans="2:4">
+    <row r="115" spans="2:4">
       <c r="B115" s="36"/>
       <c r="D115" s="35" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="116" s="35" customFormat="1" spans="2:4">
+    <row r="116" spans="2:4">
       <c r="B116" s="36"/>
-      <c r="D116" s="52" t="s">
+      <c r="D116" s="46" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="117" s="35" customFormat="1" spans="2:2">
+    <row r="117" spans="2:4">
       <c r="B117" s="36" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="118" s="35" customFormat="1" spans="2:3">
+    <row r="118" spans="2:4">
       <c r="B118" s="36"/>
       <c r="C118" s="35" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="119" s="35" customFormat="1" spans="2:3">
+    <row r="119" spans="2:4">
       <c r="B119" s="36"/>
       <c r="C119" s="35" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="120" s="35" customFormat="1" spans="2:3">
+    <row r="120" spans="2:4">
       <c r="B120" s="36"/>
       <c r="C120" s="35" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="121" s="35" customFormat="1" spans="2:4">
+    <row r="121" spans="2:4">
       <c r="B121" s="36"/>
       <c r="D121" s="35" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="122" spans="4:4">
-      <c r="D122" s="52" t="s">
+    <row r="122" spans="2:4">
+      <c r="D122" s="46" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="123" spans="3:3">
+    <row r="123" spans="2:4">
       <c r="C123" s="35" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="124" spans="4:4">
+    <row r="124" spans="2:4">
       <c r="D124" s="35" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="125" spans="4:4">
+    <row r="125" spans="2:4">
       <c r="D125" s="35" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="137" spans="2:2">
+    <row r="137" spans="2:4">
       <c r="B137" s="35" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="138" spans="3:3">
+    <row r="138" spans="2:4">
       <c r="C138" s="35" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="139" spans="3:3">
+    <row r="139" spans="2:4">
       <c r="C139" s="35" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="140" spans="3:3">
+    <row r="140" spans="2:4">
       <c r="C140" s="35" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="141" spans="4:4">
+    <row r="141" spans="2:4">
       <c r="D141" s="37" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="142" spans="4:4">
+    <row r="142" spans="2:4">
       <c r="D142" s="35" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="143" spans="4:4">
+    <row r="143" spans="2:4">
       <c r="D143" s="35" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="163" spans="4:4">
+    <row r="163" spans="3:4">
       <c r="D163" s="35" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="164" spans="4:4">
+    <row r="164" spans="3:4">
       <c r="D164" s="35" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="165" spans="4:4">
+    <row r="165" spans="3:4">
       <c r="D165" s="35" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="166" spans="4:4">
+    <row r="166" spans="3:4">
       <c r="D166" s="35" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="167" spans="4:4">
+    <row r="167" spans="3:4">
       <c r="D167" s="35" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="168" spans="3:3">
+    <row r="168" spans="3:4">
       <c r="C168" s="35" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="169" spans="4:4">
+    <row r="169" spans="3:4">
       <c r="D169" s="35" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="170" spans="4:4">
+    <row r="170" spans="3:4">
       <c r="D170" s="35" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="180" spans="3:3">
+    <row r="180" spans="2:4">
       <c r="C180" s="35" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="181" spans="4:4">
+    <row r="181" spans="2:4">
       <c r="D181" s="35" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="186" spans="2:2">
+    <row r="186" spans="2:4">
       <c r="B186" s="35" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="187" spans="3:3">
+    <row r="187" spans="2:4">
       <c r="C187" s="35" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="188" spans="3:3">
+    <row r="188" spans="2:4">
       <c r="C188" s="35" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="189" spans="3:3">
+    <row r="189" spans="2:4">
       <c r="C189" s="35" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="190" spans="3:3">
+    <row r="190" spans="2:4">
       <c r="C190" s="35" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="191" spans="3:3">
+    <row r="191" spans="2:4">
       <c r="C191" s="35" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="192" spans="4:4">
+    <row r="192" spans="2:4">
       <c r="D192" s="35" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="193" spans="4:4">
+    <row r="193" spans="3:5">
       <c r="D193" s="35" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="194" spans="4:4">
+    <row r="194" spans="3:5">
       <c r="D194" s="35" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="195" spans="5:5">
+    <row r="195" spans="3:5">
       <c r="E195" s="37" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="196" spans="4:4">
+    <row r="196" spans="3:5">
       <c r="D196" s="35" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="197" spans="4:4">
+    <row r="197" spans="3:5">
       <c r="D197" s="35" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="198" spans="4:4">
+    <row r="198" spans="3:5">
       <c r="D198" s="35" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="199" spans="4:4">
+    <row r="199" spans="3:5">
       <c r="D199" s="35" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="200" spans="4:5">
+    <row r="200" spans="3:5">
       <c r="D200" s="35" t="s">
         <v>211</v>
       </c>
       <c r="E200" s="28"/>
     </row>
-    <row r="201" spans="4:4">
+    <row r="201" spans="3:5">
       <c r="D201" s="28" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="202" spans="3:3">
+    <row r="202" spans="3:5">
       <c r="C202" s="35" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="203" spans="4:4">
+    <row r="203" spans="3:5">
       <c r="D203" s="35" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="204" spans="4:4">
+    <row r="204" spans="3:5">
       <c r="D204" s="35" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="205" spans="4:4">
+    <row r="205" spans="3:5">
       <c r="D205" s="35" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="206" spans="4:4">
+    <row r="206" spans="3:5">
       <c r="D206" s="35" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="207" spans="3:3">
+    <row r="207" spans="3:5">
       <c r="C207" s="35" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="208" spans="4:4">
+    <row r="208" spans="3:5">
       <c r="D208" s="35" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="209" spans="4:4">
+    <row r="209" spans="2:5">
       <c r="D209" s="35" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="210" spans="4:4">
+    <row r="210" spans="2:5">
       <c r="D210" s="35" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="211" spans="4:4">
+    <row r="211" spans="2:5">
       <c r="D211" s="35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="212" spans="5:5">
+    <row r="212" spans="2:5">
       <c r="E212" s="35" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="213" spans="5:5">
+    <row r="213" spans="2:5">
       <c r="E213" s="35" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="214" spans="5:5">
+    <row r="214" spans="2:5">
       <c r="E214" s="35" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="215" spans="4:4">
+    <row r="215" spans="2:5">
       <c r="D215" s="35" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="216" spans="2:2">
+    <row r="216" spans="2:5">
       <c r="B216" s="35" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="217" spans="3:3">
+    <row r="217" spans="2:5">
       <c r="C217" s="35" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="218" spans="3:3">
+    <row r="218" spans="2:5">
       <c r="C218" s="35" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="219" spans="3:3">
+    <row r="219" spans="2:5">
       <c r="C219" s="35" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="220" spans="3:3">
+    <row r="220" spans="2:5">
       <c r="C220" s="35" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="221" spans="3:3">
+    <row r="221" spans="2:5">
       <c r="C221" s="35" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="222" spans="3:3">
+    <row r="222" spans="2:5">
       <c r="C222" s="35" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="223" spans="3:3">
+    <row r="223" spans="2:5">
       <c r="C223" s="35" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="224" spans="3:3">
+    <row r="224" spans="2:5">
       <c r="C224" s="35" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="225" spans="2:2">
+    <row r="225" spans="2:4">
       <c r="B225" s="35" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="226" spans="3:3">
+    <row r="226" spans="2:4">
       <c r="C226" s="35" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="227" spans="4:4">
+    <row r="227" spans="2:4">
       <c r="D227" s="35" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="228" spans="4:4">
+    <row r="228" spans="2:4">
       <c r="D228" s="35" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="229" spans="4:4">
+    <row r="229" spans="2:4">
       <c r="D229" s="35" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="230" spans="4:4">
+    <row r="230" spans="2:4">
       <c r="D230" s="35" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="231" spans="4:4">
+    <row r="231" spans="2:4">
       <c r="D231" s="35" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="232" spans="4:4">
+    <row r="232" spans="2:4">
       <c r="D232" s="35" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="233" spans="3:3">
+    <row r="233" spans="2:4">
       <c r="C233" s="35" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="234" spans="4:4">
+    <row r="234" spans="2:4">
       <c r="D234" s="35" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="235" spans="4:4">
+    <row r="235" spans="2:4">
       <c r="D235" s="35" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="236" spans="4:4">
+    <row r="236" spans="2:4">
       <c r="D236" s="35" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="237" spans="4:4">
+    <row r="237" spans="2:4">
       <c r="D237" s="35" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="238" spans="4:4">
+    <row r="238" spans="2:4">
       <c r="D238" s="35" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="239" spans="4:4">
+    <row r="239" spans="2:4">
       <c r="D239" s="35" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="240" spans="3:3">
+    <row r="240" spans="2:4">
       <c r="C240" s="35" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="241" spans="4:4">
+    <row r="241" spans="2:4">
       <c r="D241" s="35" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="242" spans="3:3">
+    <row r="242" spans="2:4">
       <c r="C242" s="35" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="243" spans="4:4">
+    <row r="243" spans="2:4">
       <c r="D243" s="35" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="244" spans="4:4">
+    <row r="244" spans="2:4">
       <c r="D244" s="35" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="245" spans="2:2">
+    <row r="245" spans="2:4">
       <c r="B245" s="35" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="246" spans="3:3">
+    <row r="246" spans="2:4">
       <c r="C246" s="35" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="247" spans="3:3">
+    <row r="247" spans="2:4">
       <c r="C247" s="35" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="248" spans="3:3">
+    <row r="248" spans="2:4">
       <c r="C248" s="35" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="249" spans="3:3">
+    <row r="249" spans="2:4">
       <c r="C249" s="35" t="s">
         <v>259</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E25" location="任务控制块源码!A1" display="上图"/>
     <hyperlink ref="D112" location="任务控制块Init源码!A1" display="源码："/>
@@ -8172,26 +7721,24 @@
     <hyperlink ref="D122" location="OS_Init源码!A1" display="源码："/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE123"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD3"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.90625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="35"/>
+    <col min="1" max="16384" width="4.90625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="1" ht="22.5" spans="1:31">
+    <row r="1" spans="1:31" s="28" customFormat="1" ht="23">
       <c r="A1" s="35"/>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -8234,7 +7781,7 @@
       <c r="AD1" s="35"/>
       <c r="AE1" s="36"/>
     </row>
-    <row r="2" s="28" customFormat="1" spans="1:27">
+    <row r="2" spans="1:31" s="28" customFormat="1">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -8273,14 +7820,14 @@
       <c r="Z2" s="35"/>
       <c r="AA2" s="41"/>
     </row>
-    <row r="3" s="28" customFormat="1" spans="1:10">
+    <row r="3" spans="1:31" s="28" customFormat="1">
       <c r="A3" s="35" t="s">
         <v>260</v>
       </c>
       <c r="B3" s="35"/>
       <c r="J3" s="35"/>
     </row>
-    <row r="4" s="28" customFormat="1" spans="1:10">
+    <row r="4" spans="1:31" s="28" customFormat="1">
       <c r="A4" s="35"/>
       <c r="B4" s="35" t="s">
         <v>261</v>
@@ -8288,7 +7835,7 @@
       <c r="C4" s="35"/>
       <c r="J4" s="35"/>
     </row>
-    <row r="5" s="28" customFormat="1" spans="1:10">
+    <row r="5" spans="1:31" s="28" customFormat="1">
       <c r="A5" s="35"/>
       <c r="B5" s="36"/>
       <c r="C5" s="35" t="s">
@@ -8296,7 +7843,7 @@
       </c>
       <c r="J5" s="35"/>
     </row>
-    <row r="6" s="28" customFormat="1" spans="1:10">
+    <row r="6" spans="1:31" s="28" customFormat="1">
       <c r="A6" s="35"/>
       <c r="B6" s="36"/>
       <c r="C6" s="35" t="s">
@@ -8304,7 +7851,7 @@
       </c>
       <c r="J6" s="35"/>
     </row>
-    <row r="7" s="28" customFormat="1" spans="1:10">
+    <row r="7" spans="1:31" s="28" customFormat="1">
       <c r="A7" s="35"/>
       <c r="B7" s="36"/>
       <c r="C7" s="35" t="s">
@@ -8312,7 +7859,7 @@
       </c>
       <c r="J7" s="35"/>
     </row>
-    <row r="8" s="28" customFormat="1" spans="1:10">
+    <row r="8" spans="1:31" s="28" customFormat="1">
       <c r="A8" s="35"/>
       <c r="B8" s="36"/>
       <c r="C8" s="35" t="s">
@@ -8320,7 +7867,7 @@
       </c>
       <c r="J8" s="35"/>
     </row>
-    <row r="9" s="28" customFormat="1" spans="1:10">
+    <row r="9" spans="1:31" s="28" customFormat="1">
       <c r="A9" s="35"/>
       <c r="B9" s="36"/>
       <c r="C9" s="35" t="s">
@@ -8328,7 +7875,7 @@
       </c>
       <c r="J9" s="35"/>
     </row>
-    <row r="10" s="28" customFormat="1" spans="1:10">
+    <row r="10" spans="1:31" s="28" customFormat="1">
       <c r="A10" s="35"/>
       <c r="B10" s="36"/>
       <c r="C10" s="35" t="s">
@@ -8336,7 +7883,7 @@
       </c>
       <c r="J10" s="35"/>
     </row>
-    <row r="11" s="28" customFormat="1" spans="1:10">
+    <row r="11" spans="1:31" s="28" customFormat="1">
       <c r="A11" s="35"/>
       <c r="B11" s="36"/>
       <c r="C11" s="35"/>
@@ -8345,7 +7892,7 @@
       </c>
       <c r="J11" s="35"/>
     </row>
-    <row r="12" s="28" customFormat="1" spans="1:10">
+    <row r="12" spans="1:31" s="28" customFormat="1">
       <c r="A12" s="35"/>
       <c r="B12" s="36"/>
       <c r="C12" s="35"/>
@@ -8354,7 +7901,7 @@
       </c>
       <c r="J12" s="35"/>
     </row>
-    <row r="13" s="28" customFormat="1" spans="1:10">
+    <row r="13" spans="1:31" s="28" customFormat="1">
       <c r="A13" s="35"/>
       <c r="B13" s="36"/>
       <c r="C13" s="35"/>
@@ -8363,7 +7910,7 @@
       </c>
       <c r="J13" s="35"/>
     </row>
-    <row r="14" s="28" customFormat="1" spans="1:10">
+    <row r="14" spans="1:31" s="28" customFormat="1">
       <c r="A14" s="35"/>
       <c r="B14" s="36"/>
       <c r="C14" s="35"/>
@@ -8372,7 +7919,7 @@
       </c>
       <c r="J14" s="35"/>
     </row>
-    <row r="15" s="28" customFormat="1" spans="1:10">
+    <row r="15" spans="1:31" s="28" customFormat="1">
       <c r="A15" s="35"/>
       <c r="B15" s="36"/>
       <c r="C15" s="35" t="s">
@@ -8380,7 +7927,7 @@
       </c>
       <c r="J15" s="35"/>
     </row>
-    <row r="16" s="28" customFormat="1" spans="1:10">
+    <row r="16" spans="1:31" s="28" customFormat="1">
       <c r="A16" s="35"/>
       <c r="B16" s="36"/>
       <c r="C16" s="35"/>
@@ -8389,7 +7936,7 @@
       </c>
       <c r="J16" s="35"/>
     </row>
-    <row r="17" s="28" customFormat="1" spans="1:10">
+    <row r="17" spans="1:10" s="28" customFormat="1">
       <c r="A17" s="35"/>
       <c r="B17" s="36"/>
       <c r="C17" s="35" t="s">
@@ -8397,7 +7944,7 @@
       </c>
       <c r="J17" s="35"/>
     </row>
-    <row r="18" s="28" customFormat="1" spans="1:10">
+    <row r="18" spans="1:10" s="28" customFormat="1">
       <c r="A18" s="35"/>
       <c r="B18" s="36"/>
       <c r="C18" s="35"/>
@@ -8406,7 +7953,7 @@
       </c>
       <c r="J18" s="35"/>
     </row>
-    <row r="19" s="28" customFormat="1" spans="1:10">
+    <row r="19" spans="1:10" s="28" customFormat="1">
       <c r="A19" s="35"/>
       <c r="B19" s="36"/>
       <c r="C19" s="35"/>
@@ -8415,7 +7962,7 @@
       </c>
       <c r="J19" s="35"/>
     </row>
-    <row r="20" s="28" customFormat="1" spans="1:10">
+    <row r="20" spans="1:10" s="28" customFormat="1">
       <c r="A20" s="35"/>
       <c r="B20" s="36"/>
       <c r="C20" s="35"/>
@@ -8424,7 +7971,7 @@
       </c>
       <c r="J20" s="35"/>
     </row>
-    <row r="21" s="28" customFormat="1" spans="1:10">
+    <row r="21" spans="1:10" s="28" customFormat="1">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="35"/>
@@ -8433,7 +7980,7 @@
       </c>
       <c r="J21" s="35"/>
     </row>
-    <row r="22" s="28" customFormat="1" spans="1:10">
+    <row r="22" spans="1:10" s="28" customFormat="1">
       <c r="A22" s="35"/>
       <c r="B22" s="36" t="s">
         <v>279</v>
@@ -8441,7 +7988,7 @@
       <c r="C22" s="35"/>
       <c r="J22" s="35"/>
     </row>
-    <row r="23" s="28" customFormat="1" spans="1:10">
+    <row r="23" spans="1:10" s="28" customFormat="1">
       <c r="A23" s="35"/>
       <c r="B23" s="36"/>
       <c r="C23" s="35" t="s">
@@ -8449,7 +7996,7 @@
       </c>
       <c r="J23" s="35"/>
     </row>
-    <row r="24" s="28" customFormat="1" spans="1:10">
+    <row r="24" spans="1:10" s="28" customFormat="1">
       <c r="A24" s="35"/>
       <c r="B24" s="36"/>
       <c r="C24" s="35" t="s">
@@ -8457,7 +8004,7 @@
       </c>
       <c r="J24" s="35"/>
     </row>
-    <row r="25" s="28" customFormat="1" spans="1:10">
+    <row r="25" spans="1:10" s="28" customFormat="1">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
@@ -8466,7 +8013,7 @@
       </c>
       <c r="J25" s="35"/>
     </row>
-    <row r="26" s="28" customFormat="1" spans="1:10">
+    <row r="26" spans="1:10" s="28" customFormat="1">
       <c r="A26" s="35"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -8475,7 +8022,7 @@
       </c>
       <c r="J26" s="35"/>
     </row>
-    <row r="27" s="28" customFormat="1" spans="1:10">
+    <row r="27" spans="1:10" s="28" customFormat="1">
       <c r="A27" s="35"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -8484,7 +8031,7 @@
       </c>
       <c r="J27" s="35"/>
     </row>
-    <row r="28" s="28" customFormat="1" spans="1:10">
+    <row r="28" spans="1:10" s="28" customFormat="1">
       <c r="A28" s="35"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -8493,7 +8040,7 @@
       </c>
       <c r="J28" s="35"/>
     </row>
-    <row r="29" s="28" customFormat="1" spans="1:10">
+    <row r="29" spans="1:10" s="28" customFormat="1">
       <c r="A29" s="35"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -8502,7 +8049,7 @@
       </c>
       <c r="J29" s="35"/>
     </row>
-    <row r="30" s="28" customFormat="1" spans="1:10">
+    <row r="30" spans="1:10" s="28" customFormat="1">
       <c r="A30" s="35"/>
       <c r="B30" s="36"/>
       <c r="C30" s="28" t="s">
@@ -8510,14 +8057,14 @@
       </c>
       <c r="J30" s="35"/>
     </row>
-    <row r="31" s="28" customFormat="1" spans="3:10">
+    <row r="31" spans="1:10" s="28" customFormat="1">
       <c r="C31" s="36"/>
       <c r="D31" s="28" t="s">
         <v>288</v>
       </c>
       <c r="J31" s="35"/>
     </row>
-    <row r="32" s="28" customFormat="1" spans="1:10">
+    <row r="32" spans="1:10" s="28" customFormat="1">
       <c r="A32" s="35"/>
       <c r="B32" s="37"/>
       <c r="C32" s="28" t="s">
@@ -8525,7 +8072,7 @@
       </c>
       <c r="J32" s="35"/>
     </row>
-    <row r="33" s="28" customFormat="1" spans="1:10">
+    <row r="33" spans="1:10" s="28" customFormat="1">
       <c r="A33" s="35"/>
       <c r="B33" s="37"/>
       <c r="D33" s="28" t="s">
@@ -8533,13 +8080,13 @@
       </c>
       <c r="J33" s="35"/>
     </row>
-    <row r="34" s="28" customFormat="1" spans="4:10">
+    <row r="34" spans="1:10" s="28" customFormat="1">
       <c r="D34" s="28" t="s">
         <v>291</v>
       </c>
       <c r="J34" s="35"/>
     </row>
-    <row r="35" s="28" customFormat="1" spans="1:10">
+    <row r="35" spans="1:10" s="28" customFormat="1">
       <c r="A35" s="35"/>
       <c r="B35" s="37"/>
       <c r="C35" s="36"/>
@@ -8548,7 +8095,7 @@
       </c>
       <c r="J35" s="35"/>
     </row>
-    <row r="36" s="28" customFormat="1" spans="1:10">
+    <row r="36" spans="1:10" s="28" customFormat="1">
       <c r="A36" s="35"/>
       <c r="B36" s="37"/>
       <c r="C36" s="28" t="s">
@@ -8556,19 +8103,19 @@
       </c>
       <c r="J36" s="35"/>
     </row>
-    <row r="37" s="28" customFormat="1" spans="4:10">
+    <row r="37" spans="1:10" s="28" customFormat="1">
       <c r="D37" s="28" t="s">
         <v>294</v>
       </c>
       <c r="J37" s="35"/>
     </row>
-    <row r="38" s="28" customFormat="1" spans="3:10">
+    <row r="38" spans="1:10" s="28" customFormat="1">
       <c r="C38" s="28" t="s">
         <v>295</v>
       </c>
       <c r="J38" s="35"/>
     </row>
-    <row r="39" s="28" customFormat="1" spans="1:10">
+    <row r="39" spans="1:10" s="28" customFormat="1">
       <c r="A39" s="35"/>
       <c r="B39" s="38"/>
       <c r="C39" s="36"/>
@@ -8577,7 +8124,7 @@
       </c>
       <c r="J39" s="35"/>
     </row>
-    <row r="40" s="28" customFormat="1" spans="1:10">
+    <row r="40" spans="1:10" s="28" customFormat="1">
       <c r="A40" s="35"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
@@ -8586,7 +8133,7 @@
       </c>
       <c r="J40" s="35"/>
     </row>
-    <row r="41" s="28" customFormat="1" spans="1:10">
+    <row r="41" spans="1:10" s="28" customFormat="1">
       <c r="A41" s="35"/>
       <c r="B41" s="37"/>
       <c r="D41" s="28" t="s">
@@ -8594,48 +8141,48 @@
       </c>
       <c r="J41" s="35"/>
     </row>
-    <row r="42" s="28" customFormat="1" spans="4:10">
+    <row r="42" spans="1:10" s="28" customFormat="1">
       <c r="D42" s="28" t="s">
         <v>299</v>
       </c>
       <c r="J42" s="35"/>
     </row>
-    <row r="43" s="28" customFormat="1" spans="10:10">
+    <row r="43" spans="1:10" s="28" customFormat="1">
       <c r="J43" s="35"/>
     </row>
-    <row r="44" s="28" customFormat="1" spans="3:10">
+    <row r="44" spans="1:10" s="28" customFormat="1">
       <c r="C44" s="36"/>
       <c r="J44" s="35"/>
     </row>
-    <row r="45" s="28" customFormat="1" spans="1:10">
+    <row r="45" spans="1:10" s="28" customFormat="1">
       <c r="A45" s="35"/>
       <c r="J45" s="35"/>
     </row>
-    <row r="46" s="28" customFormat="1" spans="1:10">
+    <row r="46" spans="1:10" s="28" customFormat="1">
       <c r="A46" s="35"/>
       <c r="B46" s="37"/>
       <c r="J46" s="35"/>
     </row>
-    <row r="47" s="28" customFormat="1" spans="10:10">
+    <row r="47" spans="1:10" s="28" customFormat="1">
       <c r="J47" s="35"/>
     </row>
-    <row r="48" s="28" customFormat="1" spans="1:10">
+    <row r="48" spans="1:10" s="28" customFormat="1">
       <c r="A48" s="35"/>
       <c r="D48" s="35"/>
       <c r="J48" s="35"/>
     </row>
-    <row r="49" s="28" customFormat="1" spans="1:10">
+    <row r="49" spans="1:16" s="28" customFormat="1">
       <c r="A49" s="35"/>
       <c r="B49" s="35"/>
       <c r="J49" s="35"/>
     </row>
-    <row r="50" s="28" customFormat="1" spans="1:10">
+    <row r="50" spans="1:16" s="28" customFormat="1">
       <c r="A50" s="35"/>
       <c r="B50" s="35"/>
       <c r="C50" s="35"/>
       <c r="J50" s="35"/>
     </row>
-    <row r="51" s="28" customFormat="1" spans="1:16">
+    <row r="51" spans="1:16" s="28" customFormat="1">
       <c r="A51" s="35"/>
       <c r="B51" s="35"/>
       <c r="C51" s="35"/>
@@ -8653,26 +8200,26 @@
       <c r="O51" s="35"/>
       <c r="P51" s="40"/>
     </row>
-    <row r="52" s="28" customFormat="1" spans="1:10">
+    <row r="52" spans="1:16" s="28" customFormat="1">
       <c r="A52" s="35"/>
       <c r="B52" s="35"/>
       <c r="C52" s="35"/>
       <c r="J52" s="35"/>
     </row>
-    <row r="53" s="28" customFormat="1" spans="1:10">
+    <row r="53" spans="1:16" s="28" customFormat="1">
       <c r="A53" s="35"/>
       <c r="B53" s="35"/>
       <c r="C53" s="35"/>
       <c r="D53" s="35"/>
       <c r="J53" s="35"/>
     </row>
-    <row r="54" s="28" customFormat="1" spans="1:10">
+    <row r="54" spans="1:16" s="28" customFormat="1">
       <c r="A54" s="35"/>
       <c r="B54" s="35"/>
       <c r="C54" s="35"/>
       <c r="J54" s="35"/>
     </row>
-    <row r="55" s="28" customFormat="1" spans="1:16">
+    <row r="55" spans="1:16" s="28" customFormat="1">
       <c r="A55" s="35"/>
       <c r="B55" s="35"/>
       <c r="C55" s="35"/>
@@ -8690,144 +8237,143 @@
       <c r="O55" s="35"/>
       <c r="P55" s="40"/>
     </row>
-    <row r="56" s="28" customFormat="1" spans="1:10">
+    <row r="56" spans="1:16" s="28" customFormat="1">
       <c r="A56" s="35"/>
       <c r="B56" s="35"/>
       <c r="C56" s="35"/>
       <c r="D56" s="36"/>
       <c r="J56" s="35"/>
     </row>
-    <row r="57" s="28" customFormat="1" spans="1:10">
+    <row r="57" spans="1:16" s="28" customFormat="1">
       <c r="A57" s="35"/>
       <c r="B57" s="35"/>
       <c r="C57" s="35"/>
       <c r="D57" s="36"/>
       <c r="J57" s="35"/>
     </row>
-    <row r="58" s="28" customFormat="1" spans="1:10">
+    <row r="58" spans="1:16" s="28" customFormat="1">
       <c r="A58" s="35"/>
       <c r="B58" s="35"/>
       <c r="C58" s="35"/>
       <c r="J58" s="35"/>
     </row>
-    <row r="59" s="28" customFormat="1" spans="1:10">
+    <row r="59" spans="1:16" s="28" customFormat="1">
       <c r="A59" s="35"/>
       <c r="B59" s="35"/>
       <c r="C59" s="35"/>
       <c r="J59" s="35"/>
     </row>
-    <row r="60" s="28" customFormat="1" spans="1:10">
+    <row r="60" spans="1:16" s="28" customFormat="1">
       <c r="A60" s="35"/>
       <c r="B60" s="35"/>
       <c r="C60" s="35"/>
       <c r="J60" s="35"/>
     </row>
-    <row r="61" s="28" customFormat="1" spans="1:10">
+    <row r="61" spans="1:16" s="28" customFormat="1">
       <c r="A61" s="35"/>
       <c r="B61" s="35"/>
       <c r="C61" s="35"/>
       <c r="J61" s="35"/>
     </row>
-    <row r="66" s="35" customFormat="1" spans="2:2">
+    <row r="66" spans="2:5">
       <c r="B66" s="37"/>
     </row>
-    <row r="72" s="35" customFormat="1" spans="3:3">
+    <row r="72" spans="2:5">
       <c r="C72" s="37"/>
     </row>
-    <row r="73" s="35" customFormat="1" spans="3:3">
+    <row r="73" spans="2:5">
       <c r="C73" s="36"/>
     </row>
-    <row r="75" s="35" customFormat="1" spans="3:3">
+    <row r="75" spans="2:5">
       <c r="C75" s="40"/>
     </row>
-    <row r="76" s="35" customFormat="1" spans="5:5">
+    <row r="76" spans="2:5">
       <c r="E76" s="40"/>
     </row>
-    <row r="77" s="35" customFormat="1" spans="4:4">
+    <row r="77" spans="2:5">
       <c r="D77" s="40"/>
     </row>
-    <row r="78" s="35" customFormat="1" spans="5:5">
+    <row r="78" spans="2:5">
       <c r="E78" s="40"/>
     </row>
-    <row r="79" s="35" customFormat="1" spans="4:4">
+    <row r="79" spans="2:5">
       <c r="D79" s="40"/>
     </row>
-    <row r="80" s="35" customFormat="1" spans="3:3">
+    <row r="80" spans="2:5">
       <c r="C80" s="40"/>
     </row>
-    <row r="81" s="35" customFormat="1" spans="3:3">
+    <row r="81" spans="3:5">
       <c r="C81" s="40"/>
     </row>
-    <row r="82" s="35" customFormat="1" spans="3:3">
+    <row r="82" spans="3:5">
       <c r="C82" s="36"/>
     </row>
-    <row r="83" s="35" customFormat="1" spans="3:3">
+    <row r="83" spans="3:5">
       <c r="C83" s="40"/>
     </row>
-    <row r="84" s="35" customFormat="1" spans="3:3">
+    <row r="84" spans="3:5">
       <c r="C84" s="40"/>
     </row>
-    <row r="85" s="35" customFormat="1" spans="3:3">
+    <row r="85" spans="3:5">
       <c r="C85" s="36"/>
     </row>
-    <row r="91" s="35" customFormat="1" spans="3:5">
+    <row r="91" spans="3:5">
       <c r="C91" s="36"/>
       <c r="E91" s="36"/>
     </row>
-    <row r="92" s="35" customFormat="1" spans="3:3">
+    <row r="92" spans="3:5">
       <c r="C92" s="37"/>
     </row>
-    <row r="114" s="35" customFormat="1" spans="2:2">
+    <row r="114" spans="2:2">
       <c r="B114" s="36"/>
     </row>
-    <row r="115" s="35" customFormat="1" spans="2:2">
+    <row r="115" spans="2:2">
       <c r="B115" s="36"/>
     </row>
-    <row r="116" s="35" customFormat="1" spans="2:2">
+    <row r="116" spans="2:2">
       <c r="B116" s="36"/>
     </row>
-    <row r="117" s="35" customFormat="1" spans="2:2">
+    <row r="117" spans="2:2">
       <c r="B117" s="36"/>
     </row>
-    <row r="118" s="35" customFormat="1" spans="2:2">
+    <row r="118" spans="2:2">
       <c r="B118" s="36"/>
     </row>
-    <row r="119" s="35" customFormat="1" spans="2:2">
+    <row r="119" spans="2:2">
       <c r="B119" s="36"/>
     </row>
-    <row r="120" s="35" customFormat="1" spans="2:2">
+    <row r="120" spans="2:2">
       <c r="B120" s="36"/>
     </row>
-    <row r="121" s="35" customFormat="1" spans="2:2">
+    <row r="121" spans="2:2">
       <c r="B121" s="36"/>
     </row>
-    <row r="122" s="35" customFormat="1" spans="2:2">
+    <row r="122" spans="2:2">
       <c r="B122" s="36"/>
     </row>
-    <row r="123" s="35" customFormat="1" spans="2:2">
+    <row r="123" spans="2:2">
       <c r="B123" s="36"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="220" zoomScaleNormal="220" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="G109" sqref="G109"/>
+    <sheetView showGridLines="0" topLeftCell="A96" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N98" sqref="N98:O98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.90625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="35"/>
+    <col min="1" max="16384" width="4.90625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="1" ht="22.5" spans="1:31">
+    <row r="1" spans="1:31" s="28" customFormat="1" ht="23">
       <c r="A1" s="35"/>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -8870,7 +8416,7 @@
       <c r="AD1" s="35"/>
       <c r="AE1" s="36"/>
     </row>
-    <row r="2" s="28" customFormat="1" spans="1:27">
+    <row r="2" spans="1:31" s="28" customFormat="1">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -8909,14 +8455,14 @@
       <c r="Z2" s="35"/>
       <c r="AA2" s="41"/>
     </row>
-    <row r="3" s="28" customFormat="1" spans="1:10">
+    <row r="3" spans="1:31" s="28" customFormat="1">
       <c r="A3" s="35" t="s">
         <v>300</v>
       </c>
       <c r="B3" s="35"/>
       <c r="J3" s="35"/>
     </row>
-    <row r="4" s="28" customFormat="1" spans="1:10">
+    <row r="4" spans="1:31" s="28" customFormat="1">
       <c r="A4" s="35"/>
       <c r="B4" s="35" t="s">
         <v>301</v>
@@ -8924,7 +8470,7 @@
       <c r="C4" s="35"/>
       <c r="J4" s="35"/>
     </row>
-    <row r="5" s="28" customFormat="1" spans="1:10">
+    <row r="5" spans="1:31" s="28" customFormat="1">
       <c r="A5" s="35"/>
       <c r="B5" s="36" t="s">
         <v>302</v>
@@ -8932,7 +8478,7 @@
       <c r="C5" s="35"/>
       <c r="J5" s="35"/>
     </row>
-    <row r="6" s="28" customFormat="1" spans="1:10">
+    <row r="6" spans="1:31" s="28" customFormat="1">
       <c r="A6" s="35"/>
       <c r="B6" s="36" t="s">
         <v>303</v>
@@ -8940,7 +8486,7 @@
       <c r="C6" s="35"/>
       <c r="J6" s="35"/>
     </row>
-    <row r="7" s="28" customFormat="1" spans="1:10">
+    <row r="7" spans="1:31" s="28" customFormat="1">
       <c r="A7" s="35"/>
       <c r="B7" s="36" t="s">
         <v>304</v>
@@ -8948,7 +8494,7 @@
       <c r="C7" s="35"/>
       <c r="J7" s="35"/>
     </row>
-    <row r="8" s="28" customFormat="1" spans="1:10">
+    <row r="8" spans="1:31" s="28" customFormat="1">
       <c r="A8" s="35"/>
       <c r="B8" s="36"/>
       <c r="C8" s="35" t="s">
@@ -8956,7 +8502,7 @@
       </c>
       <c r="J8" s="35"/>
     </row>
-    <row r="9" s="28" customFormat="1" spans="1:10">
+    <row r="9" spans="1:31" s="28" customFormat="1">
       <c r="A9" s="35"/>
       <c r="B9" s="36"/>
       <c r="C9" s="35"/>
@@ -8965,7 +8511,7 @@
       </c>
       <c r="J9" s="35"/>
     </row>
-    <row r="10" s="28" customFormat="1" spans="1:10">
+    <row r="10" spans="1:31" s="28" customFormat="1">
       <c r="A10" s="35"/>
       <c r="B10" s="36"/>
       <c r="C10" s="35" t="s">
@@ -8973,7 +8519,7 @@
       </c>
       <c r="J10" s="35"/>
     </row>
-    <row r="11" s="28" customFormat="1" spans="1:10">
+    <row r="11" spans="1:31" s="28" customFormat="1">
       <c r="A11" s="35"/>
       <c r="B11" s="36"/>
       <c r="C11" s="35"/>
@@ -8982,7 +8528,7 @@
       </c>
       <c r="J11" s="35"/>
     </row>
-    <row r="12" s="28" customFormat="1" spans="1:10">
+    <row r="12" spans="1:31" s="28" customFormat="1">
       <c r="A12" s="35"/>
       <c r="B12" s="36"/>
       <c r="C12" s="35"/>
@@ -8991,7 +8537,7 @@
       </c>
       <c r="J12" s="35"/>
     </row>
-    <row r="13" s="28" customFormat="1" spans="1:10">
+    <row r="13" spans="1:31" s="28" customFormat="1">
       <c r="A13" s="35"/>
       <c r="B13" s="36"/>
       <c r="C13" s="35"/>
@@ -9000,49 +8546,49 @@
       </c>
       <c r="J13" s="35"/>
     </row>
-    <row r="14" s="28" customFormat="1" spans="1:10">
+    <row r="14" spans="1:31" s="28" customFormat="1">
       <c r="A14" s="35"/>
       <c r="B14" s="36"/>
       <c r="C14" s="35"/>
       <c r="J14" s="35"/>
     </row>
-    <row r="15" s="28" customFormat="1" spans="1:10">
+    <row r="15" spans="1:31" s="28" customFormat="1">
       <c r="A15" s="35"/>
       <c r="B15" s="36"/>
       <c r="C15" s="35"/>
       <c r="J15" s="35"/>
     </row>
-    <row r="16" s="28" customFormat="1" spans="1:10">
+    <row r="16" spans="1:31" s="28" customFormat="1">
       <c r="A16" s="35"/>
       <c r="B16" s="36"/>
       <c r="C16" s="35"/>
       <c r="J16" s="35"/>
     </row>
-    <row r="17" s="28" customFormat="1" spans="1:10">
+    <row r="17" spans="1:10" s="28" customFormat="1">
       <c r="A17" s="35"/>
       <c r="B17" s="36"/>
       <c r="C17" s="35"/>
       <c r="J17" s="35"/>
     </row>
-    <row r="18" s="28" customFormat="1" spans="1:10">
+    <row r="18" spans="1:10" s="28" customFormat="1">
       <c r="A18" s="35"/>
       <c r="B18" s="36"/>
       <c r="C18" s="35"/>
       <c r="J18" s="35"/>
     </row>
-    <row r="19" s="28" customFormat="1" spans="1:10">
+    <row r="19" spans="1:10" s="28" customFormat="1">
       <c r="A19" s="35"/>
       <c r="B19" s="36"/>
       <c r="C19" s="35"/>
       <c r="J19" s="35"/>
     </row>
-    <row r="20" s="28" customFormat="1" spans="1:10">
+    <row r="20" spans="1:10" s="28" customFormat="1">
       <c r="A20" s="35"/>
       <c r="B20" s="36"/>
       <c r="C20" s="35"/>
       <c r="J20" s="35"/>
     </row>
-    <row r="21" s="28" customFormat="1" spans="1:10">
+    <row r="21" spans="1:10" s="28" customFormat="1">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="35"/>
@@ -9051,43 +8597,43 @@
       </c>
       <c r="J21" s="35"/>
     </row>
-    <row r="22" s="28" customFormat="1" spans="1:10">
+    <row r="22" spans="1:10" s="28" customFormat="1">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="35"/>
       <c r="J22" s="35"/>
     </row>
-    <row r="23" s="28" customFormat="1" spans="1:10">
+    <row r="23" spans="1:10" s="28" customFormat="1">
       <c r="A23" s="35"/>
       <c r="B23" s="36"/>
       <c r="C23" s="35"/>
       <c r="J23" s="35"/>
     </row>
-    <row r="24" s="28" customFormat="1" spans="1:10">
+    <row r="24" spans="1:10" s="28" customFormat="1">
       <c r="A24" s="35"/>
       <c r="B24" s="36"/>
       <c r="C24" s="35"/>
       <c r="J24" s="35"/>
     </row>
-    <row r="25" s="28" customFormat="1" spans="1:10">
+    <row r="25" spans="1:10" s="28" customFormat="1">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="J25" s="35"/>
     </row>
-    <row r="26" s="28" customFormat="1" spans="1:10">
+    <row r="26" spans="1:10" s="28" customFormat="1">
       <c r="A26" s="35"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
       <c r="J26" s="35"/>
     </row>
-    <row r="27" s="28" customFormat="1" spans="1:10">
+    <row r="27" spans="1:10" s="28" customFormat="1">
       <c r="A27" s="35"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
       <c r="J27" s="35"/>
     </row>
-    <row r="28" s="28" customFormat="1" spans="1:10">
+    <row r="28" spans="1:10" s="28" customFormat="1">
       <c r="A28" s="35"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -9096,7 +8642,7 @@
       </c>
       <c r="J28" s="35"/>
     </row>
-    <row r="29" s="28" customFormat="1" spans="1:10">
+    <row r="29" spans="1:10" s="28" customFormat="1">
       <c r="A29" s="35"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36" t="s">
@@ -9104,7 +8650,7 @@
       </c>
       <c r="J29" s="35"/>
     </row>
-    <row r="30" s="28" customFormat="1" spans="1:10">
+    <row r="30" spans="1:10" s="28" customFormat="1">
       <c r="A30" s="35"/>
       <c r="B30" s="36"/>
       <c r="D30" s="28" t="s">
@@ -9112,14 +8658,14 @@
       </c>
       <c r="J30" s="35"/>
     </row>
-    <row r="31" s="28" customFormat="1" spans="3:10">
+    <row r="31" spans="1:10" s="28" customFormat="1">
       <c r="C31" s="36"/>
       <c r="D31" s="28" t="s">
         <v>315</v>
       </c>
       <c r="J31" s="35"/>
     </row>
-    <row r="32" s="28" customFormat="1" spans="1:10">
+    <row r="32" spans="1:10" s="28" customFormat="1">
       <c r="A32" s="35"/>
       <c r="B32" s="37"/>
       <c r="D32" s="28" t="s">
@@ -9127,70 +8673,70 @@
       </c>
       <c r="J32" s="35"/>
     </row>
-    <row r="33" s="28" customFormat="1" spans="1:10">
+    <row r="33" spans="1:10" s="28" customFormat="1">
       <c r="A33" s="35"/>
       <c r="B33" s="37"/>
       <c r="J33" s="35"/>
     </row>
-    <row r="34" s="28" customFormat="1" spans="10:10">
+    <row r="34" spans="1:10" s="28" customFormat="1">
       <c r="J34" s="35"/>
     </row>
-    <row r="35" s="28" customFormat="1" spans="1:10">
+    <row r="35" spans="1:10" s="28" customFormat="1">
       <c r="A35" s="35"/>
       <c r="B35" s="37"/>
       <c r="C35" s="36"/>
       <c r="J35" s="35"/>
     </row>
-    <row r="36" s="28" customFormat="1" spans="1:10">
+    <row r="36" spans="1:10" s="28" customFormat="1">
       <c r="A36" s="35"/>
       <c r="B36" s="37"/>
       <c r="J36" s="35"/>
     </row>
-    <row r="37" s="28" customFormat="1" spans="10:10">
+    <row r="37" spans="1:10" s="28" customFormat="1">
       <c r="J37" s="35"/>
     </row>
-    <row r="38" s="28" customFormat="1" spans="10:10">
+    <row r="38" spans="1:10" s="28" customFormat="1">
       <c r="J38" s="35"/>
     </row>
-    <row r="39" s="28" customFormat="1" spans="1:10">
+    <row r="39" spans="1:10" s="28" customFormat="1">
       <c r="A39" s="35"/>
       <c r="B39" s="38"/>
       <c r="C39" s="36"/>
       <c r="J39" s="35"/>
     </row>
-    <row r="40" s="28" customFormat="1" spans="1:10">
+    <row r="40" spans="1:10" s="28" customFormat="1">
       <c r="A40" s="35"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
       <c r="D40" s="40"/>
       <c r="J40" s="35"/>
     </row>
-    <row r="41" s="28" customFormat="1" spans="1:10">
+    <row r="41" spans="1:10" s="28" customFormat="1">
       <c r="A41" s="35"/>
       <c r="B41" s="37"/>
       <c r="J41" s="35"/>
     </row>
-    <row r="42" s="28" customFormat="1" spans="10:10">
+    <row r="42" spans="1:10" s="28" customFormat="1">
       <c r="J42" s="35"/>
     </row>
-    <row r="43" s="28" customFormat="1" spans="10:10">
+    <row r="43" spans="1:10" s="28" customFormat="1">
       <c r="J43" s="35"/>
     </row>
-    <row r="44" s="28" customFormat="1" spans="2:10">
+    <row r="44" spans="1:10" s="28" customFormat="1">
       <c r="B44" s="28" t="s">
         <v>317</v>
       </c>
       <c r="C44" s="36"/>
       <c r="J44" s="35"/>
     </row>
-    <row r="45" s="28" customFormat="1" spans="1:10">
+    <row r="45" spans="1:10" s="28" customFormat="1">
       <c r="A45" s="35"/>
       <c r="C45" s="28" t="s">
         <v>318</v>
       </c>
       <c r="J45" s="35"/>
     </row>
-    <row r="46" s="28" customFormat="1" spans="1:10">
+    <row r="46" spans="1:10" s="28" customFormat="1">
       <c r="A46" s="35"/>
       <c r="B46" s="37"/>
       <c r="D46" s="28" t="s">
@@ -9198,20 +8744,20 @@
       </c>
       <c r="J46" s="35"/>
     </row>
-    <row r="47" s="28" customFormat="1" spans="3:10">
+    <row r="47" spans="1:10" s="28" customFormat="1">
       <c r="C47" s="28" t="s">
         <v>320</v>
       </c>
       <c r="J47" s="35"/>
     </row>
-    <row r="48" s="28" customFormat="1" spans="1:10">
+    <row r="48" spans="1:10" s="28" customFormat="1">
       <c r="A48" s="35"/>
       <c r="D48" s="35" t="s">
         <v>321</v>
       </c>
       <c r="J48" s="35"/>
     </row>
-    <row r="49" s="28" customFormat="1" spans="1:10">
+    <row r="49" spans="1:16" s="28" customFormat="1">
       <c r="A49" s="35"/>
       <c r="B49" s="35"/>
       <c r="D49" s="28" t="s">
@@ -9219,7 +8765,7 @@
       </c>
       <c r="J49" s="35"/>
     </row>
-    <row r="50" s="28" customFormat="1" spans="1:10">
+    <row r="50" spans="1:16" s="28" customFormat="1">
       <c r="A50" s="35"/>
       <c r="B50" s="35"/>
       <c r="C50" s="35"/>
@@ -9228,7 +8774,7 @@
       </c>
       <c r="J50" s="35"/>
     </row>
-    <row r="51" s="28" customFormat="1" spans="1:16">
+    <row r="51" spans="1:16" s="28" customFormat="1">
       <c r="A51" s="35"/>
       <c r="B51" s="35"/>
       <c r="C51" s="35" t="s">
@@ -9248,7 +8794,7 @@
       <c r="O51" s="35"/>
       <c r="P51" s="40"/>
     </row>
-    <row r="52" s="28" customFormat="1" spans="1:10">
+    <row r="52" spans="1:16" s="28" customFormat="1">
       <c r="A52" s="35"/>
       <c r="B52" s="35"/>
       <c r="C52" s="35"/>
@@ -9257,7 +8803,7 @@
       </c>
       <c r="J52" s="35"/>
     </row>
-    <row r="53" s="28" customFormat="1" spans="1:10">
+    <row r="53" spans="1:16" s="28" customFormat="1">
       <c r="A53" s="35"/>
       <c r="B53" s="35"/>
       <c r="C53" s="35"/>
@@ -9266,7 +8812,7 @@
       </c>
       <c r="J53" s="35"/>
     </row>
-    <row r="54" s="28" customFormat="1" spans="1:10">
+    <row r="54" spans="1:16" s="28" customFormat="1">
       <c r="A54" s="35"/>
       <c r="B54" s="35"/>
       <c r="C54" s="35"/>
@@ -9275,7 +8821,7 @@
       </c>
       <c r="J54" s="35"/>
     </row>
-    <row r="55" s="28" customFormat="1" spans="1:16">
+    <row r="55" spans="1:16" s="28" customFormat="1">
       <c r="A55" s="35"/>
       <c r="B55" s="35"/>
       <c r="C55" s="35" t="s">
@@ -9295,7 +8841,7 @@
       <c r="O55" s="35"/>
       <c r="P55" s="40"/>
     </row>
-    <row r="56" s="28" customFormat="1" spans="1:10">
+    <row r="56" spans="1:16" s="28" customFormat="1">
       <c r="A56" s="35"/>
       <c r="B56" s="35"/>
       <c r="C56" s="35"/>
@@ -9304,7 +8850,7 @@
       </c>
       <c r="J56" s="35"/>
     </row>
-    <row r="57" s="28" customFormat="1" spans="1:10">
+    <row r="57" spans="1:16" s="28" customFormat="1">
       <c r="A57" s="35"/>
       <c r="B57" s="35"/>
       <c r="C57" s="35" t="s">
@@ -9313,7 +8859,7 @@
       <c r="D57" s="36"/>
       <c r="J57" s="35"/>
     </row>
-    <row r="58" s="28" customFormat="1" spans="1:10">
+    <row r="58" spans="1:16" s="28" customFormat="1">
       <c r="A58" s="35"/>
       <c r="B58" s="35"/>
       <c r="C58" s="35"/>
@@ -9322,7 +8868,7 @@
       </c>
       <c r="J58" s="35"/>
     </row>
-    <row r="59" s="28" customFormat="1" spans="1:10">
+    <row r="59" spans="1:16" s="28" customFormat="1">
       <c r="A59" s="35"/>
       <c r="B59" s="35" t="s">
         <v>332</v>
@@ -9330,7 +8876,7 @@
       <c r="C59" s="35"/>
       <c r="J59" s="35"/>
     </row>
-    <row r="60" s="28" customFormat="1" spans="1:10">
+    <row r="60" spans="1:16" s="28" customFormat="1">
       <c r="A60" s="35"/>
       <c r="B60" s="35"/>
       <c r="C60" s="35" t="s">
@@ -9338,7 +8884,7 @@
       </c>
       <c r="J60" s="35"/>
     </row>
-    <row r="61" s="28" customFormat="1" spans="1:10">
+    <row r="61" spans="1:16" s="28" customFormat="1">
       <c r="A61" s="35"/>
       <c r="B61" s="35"/>
       <c r="C61" s="35" t="s">
@@ -9346,487 +8892,487 @@
       </c>
       <c r="J61" s="35"/>
     </row>
-    <row r="62" spans="3:3">
+    <row r="62" spans="1:16">
       <c r="C62" s="35" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="63" spans="4:4">
+    <row r="63" spans="1:16">
       <c r="D63" s="35" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="64" spans="3:3">
+    <row r="64" spans="1:16">
       <c r="C64" s="35" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="65" spans="4:4">
+    <row r="65" spans="2:4">
       <c r="D65" s="35" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="66" s="35" customFormat="1" spans="2:3">
+    <row r="66" spans="2:4">
       <c r="B66" s="37"/>
       <c r="C66" s="35" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="67" spans="3:3">
+    <row r="67" spans="2:4">
       <c r="C67" s="35" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="68" spans="3:3">
+    <row r="68" spans="2:4">
       <c r="C68" s="35" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="69" spans="3:3">
+    <row r="69" spans="2:4">
       <c r="C69" s="35" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="70" spans="3:3">
+    <row r="70" spans="2:4">
       <c r="C70" s="35" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="71" spans="3:3">
+    <row r="71" spans="2:4">
       <c r="C71" s="35" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="72" s="35" customFormat="1" spans="3:3">
+    <row r="72" spans="2:4">
       <c r="C72" s="35" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="73" s="35" customFormat="1" spans="4:4">
+    <row r="73" spans="2:4">
       <c r="D73" s="35" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="74" spans="4:4">
+    <row r="74" spans="2:4">
       <c r="D74" s="35" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="75" s="35" customFormat="1" spans="4:4">
+    <row r="75" spans="2:4">
       <c r="D75" s="35" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="76" spans="4:4">
+    <row r="76" spans="2:4">
       <c r="D76" s="35" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="77" spans="4:4">
+    <row r="77" spans="2:4">
       <c r="D77" s="35" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="78" spans="4:4">
+    <row r="78" spans="2:4">
       <c r="D78" s="35" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="79" spans="4:4">
+    <row r="79" spans="2:4">
       <c r="D79" s="35" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:4">
       <c r="B80" s="35" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="81" s="35" customFormat="1" spans="3:3">
+    <row r="81" spans="2:27">
       <c r="C81" s="40" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="82" s="35" customFormat="1" spans="3:3">
+    <row r="82" spans="2:27">
       <c r="C82" s="36" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="83" s="35" customFormat="1" spans="3:3">
+    <row r="83" spans="2:27">
       <c r="C83" s="40" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="84" s="35" customFormat="1" spans="2:2">
+    <row r="84" spans="2:27">
       <c r="B84" s="35" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="85" spans="3:3">
+    <row r="85" spans="2:27">
       <c r="C85" s="35" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="86" spans="3:3">
+    <row r="86" spans="2:27">
       <c r="C86" s="35" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="87" spans="4:27">
-      <c r="D87" s="42" t="s">
+    <row r="87" spans="2:27">
+      <c r="D87" s="47" t="s">
         <v>360</v>
       </c>
-      <c r="E87" s="42"/>
-      <c r="F87" s="42"/>
-      <c r="G87" s="42" t="s">
+      <c r="E87" s="47"/>
+      <c r="F87" s="47"/>
+      <c r="G87" s="47" t="s">
         <v>361</v>
       </c>
-      <c r="H87" s="42"/>
-      <c r="I87" s="45" t="s">
+      <c r="H87" s="47"/>
+      <c r="I87" s="42" t="s">
         <v>362</v>
       </c>
-      <c r="J87" s="46"/>
-      <c r="K87" s="46"/>
-      <c r="L87" s="46"/>
-      <c r="M87" s="46"/>
-      <c r="N87" s="46"/>
-      <c r="O87" s="46"/>
-      <c r="P87" s="46"/>
-      <c r="Q87" s="46"/>
-      <c r="R87" s="46"/>
-      <c r="S87" s="46"/>
-      <c r="T87" s="46"/>
-      <c r="U87" s="46"/>
-      <c r="V87" s="46"/>
-      <c r="W87" s="46"/>
-      <c r="X87" s="46"/>
-      <c r="Y87" s="46"/>
-      <c r="Z87" s="46"/>
-      <c r="AA87" s="49"/>
-    </row>
-    <row r="88" spans="4:27">
-      <c r="D88" s="42" t="s">
+      <c r="J87" s="43"/>
+      <c r="K87" s="43"/>
+      <c r="L87" s="43"/>
+      <c r="M87" s="43"/>
+      <c r="N87" s="43"/>
+      <c r="O87" s="43"/>
+      <c r="P87" s="43"/>
+      <c r="Q87" s="43"/>
+      <c r="R87" s="43"/>
+      <c r="S87" s="43"/>
+      <c r="T87" s="43"/>
+      <c r="U87" s="43"/>
+      <c r="V87" s="43"/>
+      <c r="W87" s="43"/>
+      <c r="X87" s="43"/>
+      <c r="Y87" s="43"/>
+      <c r="Z87" s="43"/>
+      <c r="AA87" s="44"/>
+    </row>
+    <row r="88" spans="2:27">
+      <c r="D88" s="47" t="s">
         <v>363</v>
       </c>
-      <c r="E88" s="42"/>
-      <c r="F88" s="42"/>
-      <c r="G88" s="42">
+      <c r="E88" s="47"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="47">
         <v>5</v>
       </c>
-      <c r="H88" s="42"/>
-      <c r="I88" s="47" t="s">
+      <c r="H88" s="47"/>
+      <c r="I88" s="48" t="s">
         <v>364</v>
       </c>
-      <c r="J88" s="48"/>
-      <c r="K88" s="48"/>
-      <c r="L88" s="48"/>
-      <c r="M88" s="48"/>
-      <c r="N88" s="48"/>
-      <c r="O88" s="48"/>
-      <c r="P88" s="48"/>
-      <c r="Q88" s="48"/>
-      <c r="R88" s="48"/>
-      <c r="S88" s="48"/>
-      <c r="T88" s="48"/>
-      <c r="U88" s="48"/>
-      <c r="V88" s="48"/>
-      <c r="W88" s="48"/>
-      <c r="X88" s="48"/>
-      <c r="Y88" s="48"/>
-      <c r="Z88" s="48"/>
+      <c r="J88" s="49"/>
+      <c r="K88" s="49"/>
+      <c r="L88" s="49"/>
+      <c r="M88" s="49"/>
+      <c r="N88" s="49"/>
+      <c r="O88" s="49"/>
+      <c r="P88" s="49"/>
+      <c r="Q88" s="49"/>
+      <c r="R88" s="49"/>
+      <c r="S88" s="49"/>
+      <c r="T88" s="49"/>
+      <c r="U88" s="49"/>
+      <c r="V88" s="49"/>
+      <c r="W88" s="49"/>
+      <c r="X88" s="49"/>
+      <c r="Y88" s="49"/>
+      <c r="Z88" s="49"/>
       <c r="AA88" s="50"/>
     </row>
-    <row r="89" spans="4:27">
-      <c r="D89" s="42" t="s">
+    <row r="89" spans="2:27">
+      <c r="D89" s="47" t="s">
         <v>365</v>
       </c>
-      <c r="E89" s="42"/>
-      <c r="F89" s="42"/>
-      <c r="G89" s="42">
+      <c r="E89" s="47"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="47">
         <v>60</v>
       </c>
-      <c r="H89" s="42"/>
-      <c r="I89" s="47" t="s">
+      <c r="H89" s="47"/>
+      <c r="I89" s="48" t="s">
         <v>366</v>
       </c>
-      <c r="J89" s="48"/>
-      <c r="K89" s="48"/>
-      <c r="L89" s="48"/>
-      <c r="M89" s="48"/>
-      <c r="N89" s="48"/>
-      <c r="O89" s="48"/>
-      <c r="P89" s="48"/>
-      <c r="Q89" s="48"/>
-      <c r="R89" s="48"/>
-      <c r="S89" s="48"/>
-      <c r="T89" s="48"/>
-      <c r="U89" s="48"/>
-      <c r="V89" s="48"/>
-      <c r="W89" s="48"/>
-      <c r="X89" s="48"/>
-      <c r="Y89" s="48"/>
-      <c r="Z89" s="48"/>
+      <c r="J89" s="49"/>
+      <c r="K89" s="49"/>
+      <c r="L89" s="49"/>
+      <c r="M89" s="49"/>
+      <c r="N89" s="49"/>
+      <c r="O89" s="49"/>
+      <c r="P89" s="49"/>
+      <c r="Q89" s="49"/>
+      <c r="R89" s="49"/>
+      <c r="S89" s="49"/>
+      <c r="T89" s="49"/>
+      <c r="U89" s="49"/>
+      <c r="V89" s="49"/>
+      <c r="W89" s="49"/>
+      <c r="X89" s="49"/>
+      <c r="Y89" s="49"/>
+      <c r="Z89" s="49"/>
       <c r="AA89" s="50"/>
     </row>
-    <row r="90" s="35" customFormat="1" spans="4:27">
-      <c r="D90" s="42" t="s">
+    <row r="90" spans="2:27">
+      <c r="D90" s="47" t="s">
         <v>367</v>
       </c>
-      <c r="E90" s="42"/>
-      <c r="F90" s="42"/>
-      <c r="G90" s="42">
+      <c r="E90" s="47"/>
+      <c r="F90" s="47"/>
+      <c r="G90" s="47">
         <v>20</v>
       </c>
-      <c r="H90" s="42"/>
-      <c r="I90" s="47" t="s">
+      <c r="H90" s="47"/>
+      <c r="I90" s="48" t="s">
         <v>368</v>
       </c>
-      <c r="J90" s="48"/>
-      <c r="K90" s="48"/>
-      <c r="L90" s="48"/>
-      <c r="M90" s="48"/>
-      <c r="N90" s="48"/>
-      <c r="O90" s="48"/>
-      <c r="P90" s="48"/>
-      <c r="Q90" s="48"/>
-      <c r="R90" s="48"/>
-      <c r="S90" s="48"/>
-      <c r="T90" s="48"/>
-      <c r="U90" s="48"/>
-      <c r="V90" s="48"/>
-      <c r="W90" s="48"/>
-      <c r="X90" s="48"/>
-      <c r="Y90" s="48"/>
-      <c r="Z90" s="48"/>
+      <c r="J90" s="49"/>
+      <c r="K90" s="49"/>
+      <c r="L90" s="49"/>
+      <c r="M90" s="49"/>
+      <c r="N90" s="49"/>
+      <c r="O90" s="49"/>
+      <c r="P90" s="49"/>
+      <c r="Q90" s="49"/>
+      <c r="R90" s="49"/>
+      <c r="S90" s="49"/>
+      <c r="T90" s="49"/>
+      <c r="U90" s="49"/>
+      <c r="V90" s="49"/>
+      <c r="W90" s="49"/>
+      <c r="X90" s="49"/>
+      <c r="Y90" s="49"/>
+      <c r="Z90" s="49"/>
       <c r="AA90" s="50"/>
     </row>
-    <row r="91" s="35" customFormat="1" spans="4:4">
+    <row r="91" spans="2:27">
       <c r="D91" s="35" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="92" spans="4:4">
+    <row r="92" spans="2:27">
       <c r="D92" s="35" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="93" spans="4:4">
+    <row r="93" spans="2:27">
       <c r="D93" s="35" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="94" spans="2:3">
-      <c r="B94" s="35" t="s">
+    <row r="94" spans="2:27">
+      <c r="B94" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="C94" s="36"/>
+    </row>
+    <row r="95" spans="2:27">
+      <c r="C95" s="35" t="s">
         <v>372</v>
       </c>
-      <c r="C94" s="36"/>
-    </row>
-    <row r="95" spans="3:3">
-      <c r="C95" s="35" t="s">
+    </row>
+    <row r="96" spans="2:27">
+      <c r="C96" s="35" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="96" spans="3:3">
-      <c r="C96" s="35" t="s">
+    <row r="97" spans="3:19">
+      <c r="C97" s="35" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="97" spans="3:3">
-      <c r="C97" s="35" t="s">
+    <row r="98" spans="3:19">
+      <c r="D98" s="51">
+        <v>7</v>
+      </c>
+      <c r="E98" s="52"/>
+      <c r="F98" s="51">
+        <v>6</v>
+      </c>
+      <c r="G98" s="52"/>
+      <c r="H98" s="51">
+        <v>5</v>
+      </c>
+      <c r="I98" s="52"/>
+      <c r="J98" s="51">
+        <v>4</v>
+      </c>
+      <c r="K98" s="52"/>
+      <c r="L98" s="51">
+        <v>3</v>
+      </c>
+      <c r="M98" s="52"/>
+      <c r="N98" s="51">
+        <v>2</v>
+      </c>
+      <c r="O98" s="52"/>
+      <c r="P98" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q98" s="52"/>
+      <c r="R98" s="51">
+        <v>0</v>
+      </c>
+      <c r="S98" s="52"/>
+    </row>
+    <row r="99" spans="3:19">
+      <c r="D99" s="51" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="98" spans="4:19">
-      <c r="D98" s="43">
+      <c r="E99" s="52"/>
+      <c r="F99" s="51" t="s">
+        <v>375</v>
+      </c>
+      <c r="G99" s="52"/>
+      <c r="H99" s="51" t="s">
+        <v>375</v>
+      </c>
+      <c r="I99" s="52"/>
+      <c r="J99" s="51" t="s">
+        <v>375</v>
+      </c>
+      <c r="K99" s="52"/>
+      <c r="L99" s="51" t="s">
+        <v>376</v>
+      </c>
+      <c r="M99" s="52"/>
+      <c r="N99" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="O99" s="52"/>
+      <c r="P99" s="51" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q99" s="52"/>
+      <c r="R99" s="51" t="s">
+        <v>379</v>
+      </c>
+      <c r="S99" s="52"/>
+    </row>
+    <row r="100" spans="3:19">
+      <c r="D100" s="35" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19">
+      <c r="D101" s="51">
         <v>7</v>
       </c>
-      <c r="E98" s="44"/>
-      <c r="F98" s="43">
+      <c r="E101" s="52"/>
+      <c r="F101" s="51">
         <v>6</v>
       </c>
-      <c r="G98" s="44"/>
-      <c r="H98" s="43">
+      <c r="G101" s="52"/>
+      <c r="H101" s="51">
         <v>5</v>
       </c>
-      <c r="I98" s="44"/>
-      <c r="J98" s="43">
+      <c r="I101" s="52"/>
+      <c r="J101" s="51">
         <v>4</v>
       </c>
-      <c r="K98" s="44"/>
-      <c r="L98" s="43">
+      <c r="K101" s="52"/>
+      <c r="L101" s="51">
         <v>3</v>
       </c>
-      <c r="M98" s="44"/>
-      <c r="N98" s="43">
+      <c r="M101" s="52"/>
+      <c r="N101" s="51">
         <v>2</v>
       </c>
-      <c r="O98" s="44"/>
-      <c r="P98" s="43">
+      <c r="O101" s="52"/>
+      <c r="P101" s="51">
         <v>1</v>
       </c>
-      <c r="Q98" s="44"/>
-      <c r="R98" s="43">
+      <c r="Q101" s="52"/>
+      <c r="R101" s="51">
         <v>0</v>
       </c>
-      <c r="S98" s="44"/>
-    </row>
-    <row r="99" spans="4:19">
-      <c r="D99" s="43" t="s">
-        <v>376</v>
-      </c>
-      <c r="E99" s="44"/>
-      <c r="F99" s="43" t="s">
-        <v>376</v>
-      </c>
-      <c r="G99" s="44"/>
-      <c r="H99" s="43" t="s">
-        <v>376</v>
-      </c>
-      <c r="I99" s="44"/>
-      <c r="J99" s="43" t="s">
-        <v>376</v>
-      </c>
-      <c r="K99" s="44"/>
-      <c r="L99" s="43" t="s">
-        <v>377</v>
-      </c>
-      <c r="M99" s="44"/>
-      <c r="N99" s="43" t="s">
-        <v>378</v>
-      </c>
-      <c r="O99" s="44"/>
-      <c r="P99" s="43" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q99" s="44"/>
-      <c r="R99" s="43" t="s">
-        <v>380</v>
-      </c>
-      <c r="S99" s="44"/>
-    </row>
-    <row r="100" spans="4:4">
-      <c r="D100" s="35" t="s">
+      <c r="S101" s="52"/>
+    </row>
+    <row r="102" spans="3:19">
+      <c r="D102" s="51">
+        <v>0</v>
+      </c>
+      <c r="E102" s="52"/>
+      <c r="F102" s="51">
+        <v>0</v>
+      </c>
+      <c r="G102" s="52"/>
+      <c r="H102" s="51">
+        <v>0</v>
+      </c>
+      <c r="I102" s="52"/>
+      <c r="J102" s="51">
+        <v>0</v>
+      </c>
+      <c r="K102" s="52"/>
+      <c r="L102" s="51">
+        <v>1</v>
+      </c>
+      <c r="M102" s="52"/>
+      <c r="N102" s="51">
+        <v>0</v>
+      </c>
+      <c r="O102" s="52"/>
+      <c r="P102" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="52"/>
+      <c r="R102" s="51">
+        <v>1</v>
+      </c>
+      <c r="S102" s="52"/>
+    </row>
+    <row r="103" spans="3:19">
+      <c r="D103" s="35" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="101" spans="4:19">
-      <c r="D101" s="43">
-        <v>7</v>
-      </c>
-      <c r="E101" s="44"/>
-      <c r="F101" s="43">
-        <v>6</v>
-      </c>
-      <c r="G101" s="44"/>
-      <c r="H101" s="43">
-        <v>5</v>
-      </c>
-      <c r="I101" s="44"/>
-      <c r="J101" s="43">
-        <v>4</v>
-      </c>
-      <c r="K101" s="44"/>
-      <c r="L101" s="43">
-        <v>3</v>
-      </c>
-      <c r="M101" s="44"/>
-      <c r="N101" s="43">
-        <v>2</v>
-      </c>
-      <c r="O101" s="44"/>
-      <c r="P101" s="43">
-        <v>1</v>
-      </c>
-      <c r="Q101" s="44"/>
-      <c r="R101" s="43">
-        <v>0</v>
-      </c>
-      <c r="S101" s="44"/>
-    </row>
-    <row r="102" spans="4:19">
-      <c r="D102" s="43">
-        <v>0</v>
-      </c>
-      <c r="E102" s="44"/>
-      <c r="F102" s="43">
-        <v>0</v>
-      </c>
-      <c r="G102" s="44"/>
-      <c r="H102" s="43">
-        <v>0</v>
-      </c>
-      <c r="I102" s="44"/>
-      <c r="J102" s="43">
-        <v>0</v>
-      </c>
-      <c r="K102" s="44"/>
-      <c r="L102" s="43">
-        <v>1</v>
-      </c>
-      <c r="M102" s="44"/>
-      <c r="N102" s="43">
-        <v>0</v>
-      </c>
-      <c r="O102" s="44"/>
-      <c r="P102" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="44"/>
-      <c r="R102" s="43">
-        <v>1</v>
-      </c>
-      <c r="S102" s="44"/>
-    </row>
-    <row r="103" spans="4:4">
-      <c r="D103" s="35" t="s">
+    <row r="104" spans="3:19">
+      <c r="D104" s="35" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="104" spans="4:4">
-      <c r="D104" s="35" t="s">
+    <row r="105" spans="3:19">
+      <c r="C105" s="35" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="105" spans="3:3">
-      <c r="C105" s="35" t="s">
+    <row r="106" spans="3:19">
+      <c r="D106" s="35" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="106" spans="4:4">
-      <c r="D106" s="35" t="s">
+    <row r="107" spans="3:19">
+      <c r="D107" s="35" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="107" spans="4:4">
-      <c r="D107" s="35" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="113" s="35" customFormat="1" spans="2:2">
+    <row r="113" spans="2:25">
       <c r="B113" s="36"/>
     </row>
-    <row r="114" s="35" customFormat="1" spans="2:2">
+    <row r="114" spans="2:25">
       <c r="B114" s="36"/>
     </row>
-    <row r="115" s="35" customFormat="1" spans="2:2">
+    <row r="115" spans="2:25">
       <c r="B115" s="36"/>
     </row>
-    <row r="116" s="35" customFormat="1" spans="2:2">
+    <row r="116" spans="2:25">
       <c r="B116" s="36"/>
     </row>
-    <row r="117" s="35" customFormat="1" spans="2:2">
+    <row r="117" spans="2:25">
       <c r="B117" s="36"/>
     </row>
-    <row r="118" s="35" customFormat="1" spans="2:2">
+    <row r="118" spans="2:25">
       <c r="B118" s="36"/>
     </row>
-    <row r="119" s="35" customFormat="1" spans="2:2">
+    <row r="119" spans="2:25">
       <c r="B119" s="36"/>
     </row>
-    <row r="120" s="35" customFormat="1" spans="2:2">
+    <row r="120" spans="2:25">
       <c r="B120" s="36"/>
     </row>
-    <row r="121" s="35" customFormat="1" spans="2:25">
+    <row r="121" spans="2:25">
       <c r="B121" s="36"/>
       <c r="T121" s="35" t="s">
         <v>1</v>
@@ -9845,7 +9391,7 @@
       </c>
       <c r="Y121" s="36"/>
     </row>
-    <row r="122" s="35" customFormat="1" spans="2:25">
+    <row r="122" spans="2:25">
       <c r="B122" s="36"/>
       <c r="T122" s="35" t="s">
         <v>6</v>
@@ -9866,22 +9412,22 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="I88:AA88"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="I89:AA89"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="I90:AA90"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="R101:S101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="R102:S102"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="L101:M101"/>
     <mergeCell ref="N98:O98"/>
     <mergeCell ref="P98:Q98"/>
     <mergeCell ref="R98:S98"/>
@@ -9893,44 +9439,44 @@
     <mergeCell ref="N99:O99"/>
     <mergeCell ref="P99:Q99"/>
     <mergeCell ref="R99:S99"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="L101:M101"/>
-    <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="R101:S101"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="L102:M102"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="R102:S102"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="I89:AA89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="I90:AA90"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="I88:AA88"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE123"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C7" sqref="$A1:$XFD1048576"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.90625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="35"/>
+    <col min="1" max="16384" width="4.90625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="1" ht="22.5" spans="1:31">
+    <row r="1" spans="1:31" s="28" customFormat="1" ht="23">
       <c r="A1" s="35"/>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -9973,7 +9519,7 @@
       <c r="AD1" s="35"/>
       <c r="AE1" s="36"/>
     </row>
-    <row r="2" s="28" customFormat="1" spans="1:27">
+    <row r="2" spans="1:31" s="28" customFormat="1">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -10012,271 +9558,271 @@
       <c r="Z2" s="35"/>
       <c r="AA2" s="41"/>
     </row>
-    <row r="3" s="28" customFormat="1" spans="1:10">
+    <row r="3" spans="1:31" s="28" customFormat="1">
       <c r="A3" s="35" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B3" s="35"/>
       <c r="J3" s="35"/>
     </row>
-    <row r="4" s="28" customFormat="1" spans="1:10">
+    <row r="4" spans="1:31" s="28" customFormat="1">
       <c r="A4" s="35"/>
       <c r="B4" s="35" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C4" s="35"/>
       <c r="J4" s="35"/>
     </row>
-    <row r="5" s="28" customFormat="1" spans="1:10">
+    <row r="5" spans="1:31" s="28" customFormat="1">
       <c r="A5" s="35"/>
       <c r="B5" s="36"/>
       <c r="C5" s="35" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J5" s="35"/>
     </row>
-    <row r="6" s="28" customFormat="1" spans="1:10">
+    <row r="6" spans="1:31" s="28" customFormat="1">
       <c r="A6" s="35"/>
       <c r="B6" s="36"/>
       <c r="C6" s="35" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J6" s="35"/>
     </row>
-    <row r="7" s="28" customFormat="1" spans="1:10">
+    <row r="7" spans="1:31" s="28" customFormat="1">
       <c r="A7" s="35"/>
       <c r="B7" s="36"/>
       <c r="C7" s="35"/>
       <c r="J7" s="35"/>
     </row>
-    <row r="8" s="28" customFormat="1" spans="1:10">
+    <row r="8" spans="1:31" s="28" customFormat="1">
       <c r="A8" s="35"/>
       <c r="B8" s="36"/>
       <c r="C8" s="35"/>
       <c r="J8" s="35"/>
     </row>
-    <row r="9" s="28" customFormat="1" spans="1:10">
+    <row r="9" spans="1:31" s="28" customFormat="1">
       <c r="A9" s="35"/>
       <c r="B9" s="36"/>
       <c r="C9" s="35"/>
       <c r="J9" s="35"/>
     </row>
-    <row r="10" s="28" customFormat="1" spans="1:10">
+    <row r="10" spans="1:31" s="28" customFormat="1">
       <c r="A10" s="35"/>
       <c r="B10" s="36"/>
       <c r="C10" s="35"/>
       <c r="J10" s="35"/>
     </row>
-    <row r="11" s="28" customFormat="1" spans="1:10">
+    <row r="11" spans="1:31" s="28" customFormat="1">
       <c r="A11" s="35"/>
       <c r="B11" s="36"/>
       <c r="C11" s="35"/>
       <c r="J11" s="35"/>
     </row>
-    <row r="12" s="28" customFormat="1" spans="1:10">
+    <row r="12" spans="1:31" s="28" customFormat="1">
       <c r="A12" s="35"/>
       <c r="B12" s="36"/>
       <c r="C12" s="35"/>
       <c r="J12" s="35"/>
     </row>
-    <row r="13" s="28" customFormat="1" spans="1:10">
+    <row r="13" spans="1:31" s="28" customFormat="1">
       <c r="A13" s="35"/>
       <c r="B13" s="36"/>
       <c r="C13" s="35"/>
       <c r="J13" s="35"/>
     </row>
-    <row r="14" s="28" customFormat="1" spans="1:10">
+    <row r="14" spans="1:31" s="28" customFormat="1">
       <c r="A14" s="35"/>
       <c r="B14" s="36"/>
       <c r="C14" s="35"/>
       <c r="J14" s="35"/>
     </row>
-    <row r="15" s="28" customFormat="1" spans="1:10">
+    <row r="15" spans="1:31" s="28" customFormat="1">
       <c r="A15" s="35"/>
       <c r="B15" s="36"/>
       <c r="C15" s="35"/>
       <c r="J15" s="35"/>
     </row>
-    <row r="16" s="28" customFormat="1" spans="1:10">
+    <row r="16" spans="1:31" s="28" customFormat="1">
       <c r="A16" s="35"/>
       <c r="B16" s="36"/>
       <c r="C16" s="35"/>
       <c r="J16" s="35"/>
     </row>
-    <row r="17" s="28" customFormat="1" spans="1:10">
+    <row r="17" spans="1:10" s="28" customFormat="1">
       <c r="A17" s="35"/>
       <c r="B17" s="36"/>
       <c r="C17" s="35"/>
       <c r="J17" s="35"/>
     </row>
-    <row r="18" s="28" customFormat="1" spans="1:10">
+    <row r="18" spans="1:10" s="28" customFormat="1">
       <c r="A18" s="35"/>
       <c r="B18" s="36"/>
       <c r="C18" s="35"/>
       <c r="J18" s="35"/>
     </row>
-    <row r="19" s="28" customFormat="1" spans="1:10">
+    <row r="19" spans="1:10" s="28" customFormat="1">
       <c r="A19" s="35"/>
       <c r="B19" s="36"/>
       <c r="C19" s="35"/>
       <c r="J19" s="35"/>
     </row>
-    <row r="20" s="28" customFormat="1" spans="1:10">
+    <row r="20" spans="1:10" s="28" customFormat="1">
       <c r="A20" s="35"/>
       <c r="B20" s="36"/>
       <c r="C20" s="35"/>
       <c r="J20" s="35"/>
     </row>
-    <row r="21" s="28" customFormat="1" spans="1:10">
+    <row r="21" spans="1:10" s="28" customFormat="1">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="35"/>
       <c r="J21" s="35"/>
     </row>
-    <row r="22" s="28" customFormat="1" spans="1:10">
+    <row r="22" spans="1:10" s="28" customFormat="1">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="35"/>
       <c r="J22" s="35"/>
     </row>
-    <row r="23" s="28" customFormat="1" spans="1:10">
+    <row r="23" spans="1:10" s="28" customFormat="1">
       <c r="A23" s="35"/>
       <c r="B23" s="36"/>
       <c r="C23" s="35"/>
       <c r="J23" s="35"/>
     </row>
-    <row r="24" s="28" customFormat="1" spans="1:10">
+    <row r="24" spans="1:10" s="28" customFormat="1">
       <c r="A24" s="35"/>
       <c r="B24" s="36"/>
       <c r="C24" s="35"/>
       <c r="J24" s="35"/>
     </row>
-    <row r="25" s="28" customFormat="1" spans="1:10">
+    <row r="25" spans="1:10" s="28" customFormat="1">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="J25" s="35"/>
     </row>
-    <row r="26" s="28" customFormat="1" spans="1:10">
+    <row r="26" spans="1:10" s="28" customFormat="1">
       <c r="A26" s="35"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
       <c r="J26" s="35"/>
     </row>
-    <row r="27" s="28" customFormat="1" spans="1:10">
+    <row r="27" spans="1:10" s="28" customFormat="1">
       <c r="A27" s="35"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
       <c r="J27" s="35"/>
     </row>
-    <row r="28" s="28" customFormat="1" spans="1:10">
+    <row r="28" spans="1:10" s="28" customFormat="1">
       <c r="A28" s="35"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
       <c r="J28" s="35"/>
     </row>
-    <row r="29" s="28" customFormat="1" spans="1:10">
+    <row r="29" spans="1:10" s="28" customFormat="1">
       <c r="A29" s="35"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
       <c r="J29" s="35"/>
     </row>
-    <row r="30" s="28" customFormat="1" spans="1:10">
+    <row r="30" spans="1:10" s="28" customFormat="1">
       <c r="A30" s="35"/>
       <c r="B30" s="36"/>
       <c r="J30" s="35"/>
     </row>
-    <row r="31" s="28" customFormat="1" spans="3:10">
+    <row r="31" spans="1:10" s="28" customFormat="1">
       <c r="C31" s="36"/>
       <c r="J31" s="35"/>
     </row>
-    <row r="32" s="28" customFormat="1" spans="1:10">
+    <row r="32" spans="1:10" s="28" customFormat="1">
       <c r="A32" s="35"/>
       <c r="B32" s="37"/>
       <c r="J32" s="35"/>
     </row>
-    <row r="33" s="28" customFormat="1" spans="1:10">
+    <row r="33" spans="1:10" s="28" customFormat="1">
       <c r="A33" s="35"/>
       <c r="B33" s="37"/>
       <c r="J33" s="35"/>
     </row>
-    <row r="34" s="28" customFormat="1" spans="10:10">
+    <row r="34" spans="1:10" s="28" customFormat="1">
       <c r="J34" s="35"/>
     </row>
-    <row r="35" s="28" customFormat="1" spans="1:10">
+    <row r="35" spans="1:10" s="28" customFormat="1">
       <c r="A35" s="35"/>
       <c r="B35" s="37"/>
       <c r="C35" s="36"/>
       <c r="J35" s="35"/>
     </row>
-    <row r="36" s="28" customFormat="1" spans="1:10">
+    <row r="36" spans="1:10" s="28" customFormat="1">
       <c r="A36" s="35"/>
       <c r="B36" s="37"/>
       <c r="J36" s="35"/>
     </row>
-    <row r="37" s="28" customFormat="1" spans="10:10">
+    <row r="37" spans="1:10" s="28" customFormat="1">
       <c r="J37" s="35"/>
     </row>
-    <row r="38" s="28" customFormat="1" spans="10:10">
+    <row r="38" spans="1:10" s="28" customFormat="1">
       <c r="J38" s="35"/>
     </row>
-    <row r="39" s="28" customFormat="1" spans="1:10">
+    <row r="39" spans="1:10" s="28" customFormat="1">
       <c r="A39" s="35"/>
       <c r="B39" s="38"/>
       <c r="C39" s="36"/>
       <c r="J39" s="35"/>
     </row>
-    <row r="40" s="28" customFormat="1" spans="1:10">
+    <row r="40" spans="1:10" s="28" customFormat="1">
       <c r="A40" s="35"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
       <c r="D40" s="40"/>
       <c r="J40" s="35"/>
     </row>
-    <row r="41" s="28" customFormat="1" spans="1:10">
+    <row r="41" spans="1:10" s="28" customFormat="1">
       <c r="A41" s="35"/>
       <c r="B41" s="37"/>
       <c r="J41" s="35"/>
     </row>
-    <row r="42" s="28" customFormat="1" spans="10:10">
+    <row r="42" spans="1:10" s="28" customFormat="1">
       <c r="J42" s="35"/>
     </row>
-    <row r="43" s="28" customFormat="1" spans="10:10">
+    <row r="43" spans="1:10" s="28" customFormat="1">
       <c r="J43" s="35"/>
     </row>
-    <row r="44" s="28" customFormat="1" spans="3:10">
+    <row r="44" spans="1:10" s="28" customFormat="1">
       <c r="C44" s="36"/>
       <c r="J44" s="35"/>
     </row>
-    <row r="45" s="28" customFormat="1" spans="1:10">
+    <row r="45" spans="1:10" s="28" customFormat="1">
       <c r="A45" s="35"/>
       <c r="J45" s="35"/>
     </row>
-    <row r="46" s="28" customFormat="1" spans="1:10">
+    <row r="46" spans="1:10" s="28" customFormat="1">
       <c r="A46" s="35"/>
       <c r="B46" s="37"/>
       <c r="J46" s="35"/>
     </row>
-    <row r="47" s="28" customFormat="1" spans="10:10">
+    <row r="47" spans="1:10" s="28" customFormat="1">
       <c r="J47" s="35"/>
     </row>
-    <row r="48" s="28" customFormat="1" spans="1:10">
+    <row r="48" spans="1:10" s="28" customFormat="1">
       <c r="A48" s="35"/>
       <c r="D48" s="35"/>
       <c r="J48" s="35"/>
     </row>
-    <row r="49" s="28" customFormat="1" spans="1:10">
+    <row r="49" spans="1:16" s="28" customFormat="1">
       <c r="A49" s="35"/>
       <c r="B49" s="35"/>
       <c r="J49" s="35"/>
     </row>
-    <row r="50" s="28" customFormat="1" spans="1:10">
+    <row r="50" spans="1:16" s="28" customFormat="1">
       <c r="A50" s="35"/>
       <c r="B50" s="35"/>
       <c r="C50" s="35"/>
       <c r="J50" s="35"/>
     </row>
-    <row r="51" s="28" customFormat="1" spans="1:16">
+    <row r="51" spans="1:16" s="28" customFormat="1">
       <c r="A51" s="35"/>
       <c r="B51" s="35"/>
       <c r="C51" s="35"/>
@@ -10294,26 +9840,26 @@
       <c r="O51" s="35"/>
       <c r="P51" s="40"/>
     </row>
-    <row r="52" s="28" customFormat="1" spans="1:10">
+    <row r="52" spans="1:16" s="28" customFormat="1">
       <c r="A52" s="35"/>
       <c r="B52" s="35"/>
       <c r="C52" s="35"/>
       <c r="J52" s="35"/>
     </row>
-    <row r="53" s="28" customFormat="1" spans="1:10">
+    <row r="53" spans="1:16" s="28" customFormat="1">
       <c r="A53" s="35"/>
       <c r="B53" s="35"/>
       <c r="C53" s="35"/>
       <c r="D53" s="35"/>
       <c r="J53" s="35"/>
     </row>
-    <row r="54" s="28" customFormat="1" spans="1:10">
+    <row r="54" spans="1:16" s="28" customFormat="1">
       <c r="A54" s="35"/>
       <c r="B54" s="35"/>
       <c r="C54" s="35"/>
       <c r="J54" s="35"/>
     </row>
-    <row r="55" s="28" customFormat="1" spans="1:16">
+    <row r="55" spans="1:16" s="28" customFormat="1">
       <c r="A55" s="35"/>
       <c r="B55" s="35"/>
       <c r="C55" s="35"/>
@@ -10331,123 +9877,123 @@
       <c r="O55" s="35"/>
       <c r="P55" s="40"/>
     </row>
-    <row r="56" s="28" customFormat="1" spans="1:10">
+    <row r="56" spans="1:16" s="28" customFormat="1">
       <c r="A56" s="35"/>
       <c r="B56" s="35"/>
       <c r="C56" s="35"/>
       <c r="D56" s="36"/>
       <c r="J56" s="35"/>
     </row>
-    <row r="57" s="28" customFormat="1" spans="1:10">
+    <row r="57" spans="1:16" s="28" customFormat="1">
       <c r="A57" s="35"/>
       <c r="B57" s="35"/>
       <c r="C57" s="35"/>
       <c r="D57" s="36"/>
       <c r="J57" s="35"/>
     </row>
-    <row r="58" s="28" customFormat="1" spans="1:10">
+    <row r="58" spans="1:16" s="28" customFormat="1">
       <c r="A58" s="35"/>
       <c r="B58" s="35"/>
       <c r="C58" s="35"/>
       <c r="J58" s="35"/>
     </row>
-    <row r="59" s="28" customFormat="1" spans="1:10">
+    <row r="59" spans="1:16" s="28" customFormat="1">
       <c r="A59" s="35"/>
       <c r="B59" s="35"/>
       <c r="C59" s="35"/>
       <c r="J59" s="35"/>
     </row>
-    <row r="60" s="28" customFormat="1" spans="1:10">
+    <row r="60" spans="1:16" s="28" customFormat="1">
       <c r="A60" s="35"/>
       <c r="B60" s="35"/>
       <c r="C60" s="35"/>
       <c r="J60" s="35"/>
     </row>
-    <row r="61" s="28" customFormat="1" spans="1:10">
+    <row r="61" spans="1:16" s="28" customFormat="1">
       <c r="A61" s="35"/>
       <c r="B61" s="35"/>
       <c r="C61" s="35"/>
       <c r="J61" s="35"/>
     </row>
-    <row r="66" s="35" customFormat="1" spans="2:2">
+    <row r="66" spans="2:2">
       <c r="B66" s="37"/>
     </row>
-    <row r="81" s="35" customFormat="1" spans="3:3">
+    <row r="81" spans="3:5">
       <c r="C81" s="40"/>
     </row>
-    <row r="82" s="35" customFormat="1" spans="3:3">
+    <row r="82" spans="3:5">
       <c r="C82" s="36"/>
     </row>
-    <row r="83" s="35" customFormat="1" spans="3:3">
+    <row r="83" spans="3:5">
       <c r="C83" s="40"/>
     </row>
-    <row r="84" s="35" customFormat="1" spans="3:3">
+    <row r="84" spans="3:5">
       <c r="C84" s="37"/>
     </row>
-    <row r="85" s="35" customFormat="1" spans="3:3">
+    <row r="85" spans="3:5">
       <c r="C85" s="36"/>
     </row>
-    <row r="86" s="35" customFormat="1" spans="3:3">
+    <row r="86" spans="3:5">
       <c r="C86" s="37"/>
     </row>
-    <row r="91" s="35" customFormat="1" spans="3:5">
+    <row r="91" spans="3:5">
       <c r="C91" s="36"/>
       <c r="E91" s="36"/>
     </row>
-    <row r="92" s="35" customFormat="1" spans="3:3">
+    <row r="92" spans="3:5">
       <c r="C92" s="37"/>
     </row>
-    <row r="114" s="35" customFormat="1" spans="2:2">
+    <row r="114" spans="2:2">
       <c r="B114" s="36"/>
     </row>
-    <row r="115" s="35" customFormat="1" spans="2:2">
+    <row r="115" spans="2:2">
       <c r="B115" s="36"/>
     </row>
-    <row r="116" s="35" customFormat="1" spans="2:2">
+    <row r="116" spans="2:2">
       <c r="B116" s="36"/>
     </row>
-    <row r="117" s="35" customFormat="1" spans="2:2">
+    <row r="117" spans="2:2">
       <c r="B117" s="36"/>
     </row>
-    <row r="118" s="35" customFormat="1" spans="2:2">
+    <row r="118" spans="2:2">
       <c r="B118" s="36"/>
     </row>
-    <row r="119" s="35" customFormat="1" spans="2:2">
+    <row r="119" spans="2:2">
       <c r="B119" s="36"/>
     </row>
-    <row r="120" s="35" customFormat="1" spans="2:2">
+    <row r="120" spans="2:2">
       <c r="B120" s="36"/>
     </row>
-    <row r="121" s="35" customFormat="1" spans="2:2">
+    <row r="121" spans="2:2">
       <c r="B121" s="36"/>
     </row>
-    <row r="122" s="35" customFormat="1" spans="2:2">
+    <row r="122" spans="2:2">
       <c r="B122" s="36"/>
     </row>
-    <row r="123" s="35" customFormat="1" spans="2:2">
+    <row r="123" spans="2:2">
       <c r="B123" s="36"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE122"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD3"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.90625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="35"/>
+    <col min="1" max="16384" width="4.90625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="1" ht="22.5" spans="1:31">
+    <row r="1" spans="1:31" s="28" customFormat="1" ht="23">
       <c r="A1" s="35"/>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -10478,7 +10024,7 @@
       <c r="AD1" s="35"/>
       <c r="AE1" s="36"/>
     </row>
-    <row r="2" s="28" customFormat="1" spans="1:27">
+    <row r="2" spans="1:31" s="28" customFormat="1">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -10507,259 +10053,259 @@
       <c r="Z2" s="35"/>
       <c r="AA2" s="41"/>
     </row>
-    <row r="3" s="28" customFormat="1" spans="1:10">
+    <row r="3" spans="1:31" s="28" customFormat="1">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
       <c r="J3" s="35"/>
     </row>
-    <row r="4" s="28" customFormat="1" spans="1:10">
+    <row r="4" spans="1:31" s="28" customFormat="1">
       <c r="A4" s="35"/>
       <c r="B4" s="36"/>
       <c r="C4" s="35"/>
       <c r="J4" s="35"/>
     </row>
-    <row r="5" s="28" customFormat="1" spans="1:10">
+    <row r="5" spans="1:31" s="28" customFormat="1">
       <c r="A5" s="35"/>
       <c r="B5" s="36"/>
       <c r="C5" s="35"/>
       <c r="J5" s="35"/>
     </row>
-    <row r="6" s="28" customFormat="1" spans="1:10">
+    <row r="6" spans="1:31" s="28" customFormat="1">
       <c r="A6" s="35"/>
       <c r="B6" s="36"/>
       <c r="C6" s="35"/>
       <c r="J6" s="35"/>
     </row>
-    <row r="7" s="28" customFormat="1" spans="1:10">
+    <row r="7" spans="1:31" s="28" customFormat="1">
       <c r="A7" s="35"/>
       <c r="B7" s="36"/>
       <c r="C7" s="35"/>
       <c r="J7" s="35"/>
     </row>
-    <row r="8" s="28" customFormat="1" spans="1:10">
+    <row r="8" spans="1:31" s="28" customFormat="1">
       <c r="A8" s="35"/>
       <c r="B8" s="36"/>
       <c r="C8" s="35"/>
       <c r="J8" s="35"/>
     </row>
-    <row r="9" s="28" customFormat="1" spans="1:10">
+    <row r="9" spans="1:31" s="28" customFormat="1">
       <c r="A9" s="35"/>
       <c r="B9" s="36"/>
       <c r="C9" s="35"/>
       <c r="J9" s="35"/>
     </row>
-    <row r="10" s="28" customFormat="1" spans="1:10">
+    <row r="10" spans="1:31" s="28" customFormat="1">
       <c r="A10" s="35"/>
       <c r="B10" s="36"/>
       <c r="C10" s="35"/>
       <c r="J10" s="35"/>
     </row>
-    <row r="11" s="28" customFormat="1" spans="1:10">
+    <row r="11" spans="1:31" s="28" customFormat="1">
       <c r="A11" s="35"/>
       <c r="B11" s="36"/>
       <c r="C11" s="35"/>
       <c r="J11" s="35"/>
     </row>
-    <row r="12" s="28" customFormat="1" spans="1:18">
+    <row r="12" spans="1:31" s="28" customFormat="1">
       <c r="A12" s="35"/>
       <c r="B12" s="36"/>
       <c r="C12" s="35"/>
       <c r="J12" s="35"/>
       <c r="R12" s="35"/>
     </row>
-    <row r="13" s="28" customFormat="1" spans="1:18">
+    <row r="13" spans="1:31" s="28" customFormat="1">
       <c r="A13" s="35"/>
       <c r="B13" s="36"/>
       <c r="C13" s="35"/>
       <c r="J13" s="35"/>
       <c r="R13" s="35"/>
     </row>
-    <row r="14" s="28" customFormat="1" spans="1:10">
+    <row r="14" spans="1:31" s="28" customFormat="1">
       <c r="A14" s="35"/>
       <c r="B14" s="36"/>
       <c r="C14" s="35"/>
       <c r="J14" s="35"/>
     </row>
-    <row r="15" s="28" customFormat="1" spans="1:10">
+    <row r="15" spans="1:31" s="28" customFormat="1">
       <c r="A15" s="35"/>
       <c r="B15" s="36"/>
       <c r="C15" s="35"/>
       <c r="J15" s="35"/>
     </row>
-    <row r="16" s="28" customFormat="1" spans="1:10">
+    <row r="16" spans="1:31" s="28" customFormat="1">
       <c r="A16" s="35"/>
       <c r="B16" s="36"/>
       <c r="C16" s="35"/>
       <c r="J16" s="35"/>
     </row>
-    <row r="17" s="28" customFormat="1" spans="1:10">
+    <row r="17" spans="1:18" s="28" customFormat="1">
       <c r="A17" s="35"/>
       <c r="B17" s="36"/>
       <c r="C17" s="35"/>
       <c r="J17" s="35"/>
     </row>
-    <row r="18" s="28" customFormat="1" spans="1:18">
+    <row r="18" spans="1:18" s="28" customFormat="1">
       <c r="A18" s="35"/>
       <c r="B18" s="36"/>
       <c r="J18" s="35"/>
       <c r="R18" s="35"/>
     </row>
-    <row r="19" s="28" customFormat="1" spans="1:10">
+    <row r="19" spans="1:18" s="28" customFormat="1">
       <c r="A19" s="35"/>
       <c r="B19" s="36"/>
       <c r="C19" s="35"/>
       <c r="J19" s="35"/>
     </row>
-    <row r="20" s="28" customFormat="1" spans="1:10">
+    <row r="20" spans="1:18" s="28" customFormat="1">
       <c r="A20" s="35"/>
       <c r="B20" s="36"/>
       <c r="C20" s="35"/>
       <c r="J20" s="35"/>
     </row>
-    <row r="21" s="28" customFormat="1" spans="1:10">
+    <row r="21" spans="1:18" s="28" customFormat="1">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="35"/>
       <c r="J21" s="35"/>
     </row>
-    <row r="22" s="28" customFormat="1" spans="1:10">
+    <row r="22" spans="1:18" s="28" customFormat="1">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="35"/>
       <c r="J22" s="35"/>
     </row>
-    <row r="23" s="28" customFormat="1" spans="1:10">
+    <row r="23" spans="1:18" s="28" customFormat="1">
       <c r="A23" s="35"/>
       <c r="B23" s="36"/>
       <c r="C23" s="35"/>
       <c r="J23" s="35"/>
     </row>
-    <row r="24" s="28" customFormat="1" spans="1:10">
+    <row r="24" spans="1:18" s="28" customFormat="1">
       <c r="A24" s="35"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="J24" s="35"/>
     </row>
-    <row r="25" s="28" customFormat="1" spans="1:10">
+    <row r="25" spans="1:18" s="28" customFormat="1">
       <c r="A25" s="35"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
       <c r="J25" s="35"/>
     </row>
-    <row r="26" s="28" customFormat="1" spans="1:10">
+    <row r="26" spans="1:18" s="28" customFormat="1">
       <c r="A26" s="35"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
       <c r="J26" s="35"/>
     </row>
-    <row r="27" s="28" customFormat="1" spans="1:10">
+    <row r="27" spans="1:18" s="28" customFormat="1">
       <c r="A27" s="35"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
       <c r="J27" s="35"/>
     </row>
-    <row r="28" s="28" customFormat="1" spans="1:10">
+    <row r="28" spans="1:18" s="28" customFormat="1">
       <c r="A28" s="35"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
       <c r="J28" s="35"/>
     </row>
-    <row r="29" s="28" customFormat="1" spans="1:10">
+    <row r="29" spans="1:18" s="28" customFormat="1">
       <c r="A29" s="35"/>
       <c r="B29" s="36"/>
       <c r="J29" s="35"/>
     </row>
-    <row r="30" s="28" customFormat="1" spans="3:10">
+    <row r="30" spans="1:18" s="28" customFormat="1">
       <c r="C30" s="36"/>
       <c r="J30" s="35"/>
     </row>
-    <row r="31" s="28" customFormat="1" spans="1:10">
+    <row r="31" spans="1:18" s="28" customFormat="1">
       <c r="A31" s="35"/>
       <c r="B31" s="37"/>
       <c r="J31" s="35"/>
     </row>
-    <row r="32" s="28" customFormat="1" spans="1:10">
+    <row r="32" spans="1:18" s="28" customFormat="1">
       <c r="A32" s="35"/>
       <c r="B32" s="37"/>
       <c r="J32" s="35"/>
     </row>
-    <row r="33" s="28" customFormat="1" spans="10:10">
+    <row r="33" spans="1:10" s="28" customFormat="1">
       <c r="J33" s="35"/>
     </row>
-    <row r="34" s="28" customFormat="1" spans="1:10">
+    <row r="34" spans="1:10" s="28" customFormat="1">
       <c r="A34" s="35"/>
       <c r="B34" s="37"/>
       <c r="C34" s="36"/>
       <c r="J34" s="35"/>
     </row>
-    <row r="35" s="28" customFormat="1" spans="1:10">
+    <row r="35" spans="1:10" s="28" customFormat="1">
       <c r="A35" s="35"/>
       <c r="B35" s="37"/>
       <c r="J35" s="35"/>
     </row>
-    <row r="36" s="28" customFormat="1" spans="10:10">
+    <row r="36" spans="1:10" s="28" customFormat="1">
       <c r="J36" s="35"/>
     </row>
-    <row r="37" s="28" customFormat="1" spans="10:10">
+    <row r="37" spans="1:10" s="28" customFormat="1">
       <c r="J37" s="35"/>
     </row>
-    <row r="38" s="28" customFormat="1" spans="1:10">
+    <row r="38" spans="1:10" s="28" customFormat="1">
       <c r="A38" s="35"/>
       <c r="B38" s="38"/>
       <c r="C38" s="36"/>
       <c r="J38" s="35"/>
     </row>
-    <row r="39" s="28" customFormat="1" spans="1:10">
+    <row r="39" spans="1:10" s="28" customFormat="1">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
       <c r="J39" s="35"/>
     </row>
-    <row r="40" s="28" customFormat="1" spans="1:10">
+    <row r="40" spans="1:10" s="28" customFormat="1">
       <c r="A40" s="35"/>
       <c r="B40" s="37"/>
       <c r="J40" s="35"/>
     </row>
-    <row r="41" s="28" customFormat="1" spans="10:10">
+    <row r="41" spans="1:10" s="28" customFormat="1">
       <c r="J41" s="35"/>
     </row>
-    <row r="42" s="28" customFormat="1" spans="10:10">
+    <row r="42" spans="1:10" s="28" customFormat="1">
       <c r="J42" s="35"/>
     </row>
-    <row r="43" s="28" customFormat="1" spans="3:10">
+    <row r="43" spans="1:10" s="28" customFormat="1">
       <c r="C43" s="36"/>
       <c r="J43" s="35"/>
     </row>
-    <row r="44" s="28" customFormat="1" spans="1:10">
+    <row r="44" spans="1:10" s="28" customFormat="1">
       <c r="A44" s="35"/>
       <c r="J44" s="35"/>
     </row>
-    <row r="45" s="28" customFormat="1" spans="1:10">
+    <row r="45" spans="1:10" s="28" customFormat="1">
       <c r="A45" s="35"/>
       <c r="B45" s="37"/>
       <c r="J45" s="35"/>
     </row>
-    <row r="46" s="28" customFormat="1" spans="10:10">
+    <row r="46" spans="1:10" s="28" customFormat="1">
       <c r="J46" s="35"/>
     </row>
-    <row r="47" s="28" customFormat="1" spans="1:10">
+    <row r="47" spans="1:10" s="28" customFormat="1">
       <c r="A47" s="35"/>
       <c r="D47" s="35"/>
       <c r="J47" s="35"/>
     </row>
-    <row r="48" s="28" customFormat="1" spans="1:10">
+    <row r="48" spans="1:10" s="28" customFormat="1">
       <c r="A48" s="35"/>
       <c r="B48" s="35"/>
       <c r="J48" s="35"/>
     </row>
-    <row r="49" s="28" customFormat="1" spans="1:10">
+    <row r="49" spans="1:16" s="28" customFormat="1">
       <c r="A49" s="35"/>
       <c r="B49" s="35"/>
       <c r="C49" s="35"/>
       <c r="J49" s="35"/>
     </row>
-    <row r="50" s="28" customFormat="1" spans="1:16">
+    <row r="50" spans="1:16" s="28" customFormat="1">
       <c r="A50" s="35"/>
       <c r="B50" s="35"/>
       <c r="C50" s="35"/>
@@ -10777,26 +10323,26 @@
       <c r="O50" s="35"/>
       <c r="P50" s="40"/>
     </row>
-    <row r="51" s="28" customFormat="1" spans="1:10">
+    <row r="51" spans="1:16" s="28" customFormat="1">
       <c r="A51" s="35"/>
       <c r="B51" s="35"/>
       <c r="C51" s="35"/>
       <c r="J51" s="35"/>
     </row>
-    <row r="52" s="28" customFormat="1" spans="1:10">
+    <row r="52" spans="1:16" s="28" customFormat="1">
       <c r="A52" s="35"/>
       <c r="B52" s="35"/>
       <c r="C52" s="35"/>
       <c r="D52" s="35"/>
       <c r="J52" s="35"/>
     </row>
-    <row r="53" s="28" customFormat="1" spans="1:10">
+    <row r="53" spans="1:16" s="28" customFormat="1">
       <c r="A53" s="35"/>
       <c r="B53" s="35"/>
       <c r="C53" s="35"/>
       <c r="J53" s="35"/>
     </row>
-    <row r="54" s="28" customFormat="1" spans="1:16">
+    <row r="54" spans="1:16" s="28" customFormat="1">
       <c r="A54" s="35"/>
       <c r="B54" s="35"/>
       <c r="C54" s="35"/>
@@ -10814,319 +10360,274 @@
       <c r="O54" s="35"/>
       <c r="P54" s="40"/>
     </row>
-    <row r="55" s="28" customFormat="1" spans="1:10">
+    <row r="55" spans="1:16" s="28" customFormat="1">
       <c r="A55" s="35"/>
       <c r="B55" s="35"/>
       <c r="C55" s="35"/>
       <c r="D55" s="36"/>
       <c r="J55" s="35"/>
     </row>
-    <row r="56" s="28" customFormat="1" spans="1:10">
+    <row r="56" spans="1:16" s="28" customFormat="1">
       <c r="A56" s="35"/>
       <c r="B56" s="35"/>
       <c r="C56" s="35"/>
       <c r="D56" s="36"/>
       <c r="J56" s="35"/>
     </row>
-    <row r="57" s="28" customFormat="1" spans="1:10">
+    <row r="57" spans="1:16" s="28" customFormat="1">
       <c r="A57" s="35"/>
       <c r="B57" s="35"/>
       <c r="C57" s="35"/>
       <c r="J57" s="35"/>
     </row>
-    <row r="58" s="28" customFormat="1" spans="1:10">
+    <row r="58" spans="1:16" s="28" customFormat="1">
       <c r="A58" s="35"/>
       <c r="B58" s="35"/>
       <c r="C58" s="35"/>
       <c r="J58" s="35"/>
     </row>
-    <row r="59" s="28" customFormat="1" spans="1:10">
+    <row r="59" spans="1:16" s="28" customFormat="1">
       <c r="A59" s="35"/>
       <c r="B59" s="35"/>
       <c r="C59" s="35"/>
       <c r="J59" s="35"/>
     </row>
-    <row r="60" s="28" customFormat="1" spans="1:10">
+    <row r="60" spans="1:16" s="28" customFormat="1">
       <c r="A60" s="35"/>
       <c r="B60" s="35"/>
       <c r="C60" s="35"/>
       <c r="J60" s="35"/>
     </row>
-    <row r="65" s="35" customFormat="1" spans="2:2">
+    <row r="65" spans="2:5">
       <c r="B65" s="37"/>
     </row>
-    <row r="71" s="35" customFormat="1" spans="3:3">
+    <row r="71" spans="2:5">
       <c r="C71" s="37"/>
     </row>
-    <row r="72" s="35" customFormat="1" spans="3:3">
+    <row r="72" spans="2:5">
       <c r="C72" s="36"/>
     </row>
-    <row r="74" s="35" customFormat="1" spans="3:3">
+    <row r="74" spans="2:5">
       <c r="C74" s="40"/>
     </row>
-    <row r="75" s="35" customFormat="1" spans="5:5">
+    <row r="75" spans="2:5">
       <c r="E75" s="40"/>
     </row>
-    <row r="76" s="35" customFormat="1" spans="4:4">
+    <row r="76" spans="2:5">
       <c r="D76" s="40"/>
     </row>
-    <row r="77" s="35" customFormat="1" spans="5:5">
+    <row r="77" spans="2:5">
       <c r="E77" s="40"/>
     </row>
-    <row r="78" s="35" customFormat="1" spans="4:4">
+    <row r="78" spans="2:5">
       <c r="D78" s="40"/>
     </row>
-    <row r="79" s="35" customFormat="1" spans="3:3">
+    <row r="79" spans="2:5">
       <c r="C79" s="40"/>
     </row>
-    <row r="80" s="35" customFormat="1" spans="3:3">
+    <row r="80" spans="2:5">
       <c r="C80" s="40"/>
     </row>
-    <row r="81" s="35" customFormat="1" spans="3:3">
+    <row r="81" spans="3:5">
       <c r="C81" s="36"/>
     </row>
-    <row r="82" s="35" customFormat="1" spans="3:3">
+    <row r="82" spans="3:5">
       <c r="C82" s="40"/>
     </row>
-    <row r="83" s="35" customFormat="1" spans="3:3">
+    <row r="83" spans="3:5">
       <c r="C83" s="40"/>
     </row>
-    <row r="84" s="35" customFormat="1" spans="3:3">
+    <row r="84" spans="3:5">
       <c r="C84" s="36"/>
     </row>
-    <row r="90" s="35" customFormat="1" spans="3:5">
+    <row r="90" spans="3:5">
       <c r="C90" s="36"/>
       <c r="E90" s="36"/>
     </row>
-    <row r="91" s="35" customFormat="1" spans="3:3">
+    <row r="91" spans="3:5">
       <c r="C91" s="37"/>
     </row>
-    <row r="113" s="35" customFormat="1" spans="2:2">
+    <row r="113" spans="2:2">
       <c r="B113" s="36"/>
     </row>
-    <row r="114" s="35" customFormat="1" spans="2:2">
+    <row r="114" spans="2:2">
       <c r="B114" s="36"/>
     </row>
-    <row r="115" s="35" customFormat="1" spans="2:2">
+    <row r="115" spans="2:2">
       <c r="B115" s="36"/>
     </row>
-    <row r="116" s="35" customFormat="1" spans="2:2">
+    <row r="116" spans="2:2">
       <c r="B116" s="36"/>
     </row>
-    <row r="117" s="35" customFormat="1" spans="2:2">
+    <row r="117" spans="2:2">
       <c r="B117" s="36"/>
     </row>
-    <row r="118" s="35" customFormat="1" spans="2:2">
+    <row r="118" spans="2:2">
       <c r="B118" s="36"/>
     </row>
-    <row r="119" s="35" customFormat="1" spans="2:2">
+    <row r="119" spans="2:2">
       <c r="B119" s="36"/>
     </row>
-    <row r="120" s="35" customFormat="1" spans="2:2">
+    <row r="120" spans="2:2">
       <c r="B120" s="36"/>
     </row>
-    <row r="121" s="35" customFormat="1" spans="2:2">
+    <row r="121" spans="2:2">
       <c r="B121" s="36"/>
     </row>
-    <row r="122" s="35" customFormat="1" spans="2:2">
+    <row r="122" spans="2:2">
       <c r="B122" s="36"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A80"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD3"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.6328125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="4.625" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A35:A136"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD3"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.6328125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="4.625" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="35" customFormat="1" spans="1:1">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="36" customFormat="1"/>
-    <row r="37" customFormat="1"/>
-    <row r="38" customFormat="1"/>
-    <row r="39" customFormat="1"/>
-    <row r="40" customFormat="1"/>
-    <row r="41" customFormat="1"/>
-    <row r="42" customFormat="1"/>
-    <row r="43" customFormat="1"/>
-    <row r="44" customFormat="1"/>
-    <row r="45" customFormat="1"/>
-    <row r="46" customFormat="1"/>
-    <row r="47" customFormat="1"/>
-    <row r="48" customFormat="1"/>
-    <row r="49" customFormat="1"/>
-    <row r="50" customFormat="1"/>
-    <row r="51" customFormat="1"/>
-    <row r="52" customFormat="1"/>
-    <row r="53" customFormat="1"/>
-    <row r="54" customFormat="1"/>
-    <row r="55" customFormat="1"/>
-    <row r="56" customFormat="1" spans="1:1">
-      <c r="A56" t="s">
+    <row r="69" spans="1:1">
+      <c r="A69" s="34" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="57" customFormat="1"/>
-    <row r="58" customFormat="1"/>
-    <row r="59" customFormat="1"/>
-    <row r="60" customFormat="1"/>
-    <row r="61" customFormat="1"/>
-    <row r="62" customFormat="1"/>
-    <row r="63" customFormat="1"/>
-    <row r="64" customFormat="1"/>
-    <row r="65" customFormat="1"/>
-    <row r="66" customFormat="1"/>
-    <row r="67" customFormat="1"/>
-    <row r="68" customFormat="1"/>
-    <row r="69" customFormat="1" spans="1:1">
-      <c r="A69" s="34" t="s">
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="70" customFormat="1" spans="1:1">
-      <c r="A70" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="71" customFormat="1"/>
-    <row r="72" customFormat="1"/>
-    <row r="73" customFormat="1"/>
-    <row r="74" customFormat="1"/>
-    <row r="75" customFormat="1"/>
-    <row r="76" customFormat="1"/>
-    <row r="77" customFormat="1"/>
-    <row r="78" customFormat="1"/>
-    <row r="79" customFormat="1"/>
-    <row r="80" customFormat="1"/>
     <row r="134" spans="1:1">
       <c r="A134" s="34" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="34"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB53"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD3"/>
+    <sheetView showGridLines="0" topLeftCell="L1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>400</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="2" t="s">
         <v>401</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>402</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="H3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="3" t="s">
         <v>403</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="3" t="s">
-        <v>404</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D4" s="2"/>
       <c r="H4" t="s">
+        <v>405</v>
+      </c>
+      <c r="N4" t="s">
         <v>406</v>
-      </c>
-      <c r="N4" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D5" s="2"/>
       <c r="H5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N5" s="20"/>
       <c r="X5" s="28"/>
@@ -11137,11 +10638,11 @@
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D6" s="2"/>
       <c r="H6" s="5">
@@ -11150,11 +10651,11 @@
       <c r="I6" s="21"/>
       <c r="N6" s="22"/>
       <c r="P6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="X6" s="28"/>
       <c r="Y6" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Z6" s="28"/>
       <c r="AA6" s="28"/>
@@ -11162,11 +10663,11 @@
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D7" s="2"/>
       <c r="H7" s="5">
@@ -11174,32 +10675,32 @@
       </c>
       <c r="I7" s="21"/>
       <c r="N7" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="P7" s="23" t="s">
         <v>416</v>
-      </c>
-      <c r="P7" s="23" t="s">
-        <v>417</v>
       </c>
       <c r="Q7" s="29"/>
       <c r="S7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="X7" s="28"/>
       <c r="Y7" s="32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Z7" s="33"/>
       <c r="AA7" s="28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AB7" s="28"/>
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D8" s="2"/>
       <c r="H8" s="5">
@@ -11211,21 +10712,21 @@
       <c r="Q8" s="30"/>
       <c r="X8" s="28"/>
       <c r="Y8" s="32" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Z8" s="33"/>
       <c r="AA8" s="28" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AB8" s="28"/>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D9" s="2"/>
       <c r="H9" s="5">
@@ -11237,17 +10738,17 @@
       <c r="Q9" s="30"/>
       <c r="X9" s="28"/>
       <c r="Y9" s="32" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Z9" s="33"/>
       <c r="AA9" s="28" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AB9" s="28"/>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -11257,30 +10758,30 @@
       </c>
       <c r="I10" s="21"/>
       <c r="N10" s="25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P10" s="24"/>
       <c r="Q10" s="30"/>
       <c r="S10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="X10" s="28"/>
       <c r="Y10" s="32" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Z10" s="33"/>
       <c r="AA10" s="28" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AB10" s="28"/>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D11" s="6"/>
       <c r="H11" s="5">
@@ -11288,29 +10789,29 @@
       </c>
       <c r="I11" s="21"/>
       <c r="P11" s="26" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="Q11" s="21"/>
       <c r="S11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="X11" s="28"/>
       <c r="Y11" s="32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Z11" s="33"/>
       <c r="AA11" s="28" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AB11" s="28"/>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D12" s="6"/>
       <c r="H12" s="5">
@@ -11318,33 +10819,33 @@
       </c>
       <c r="I12" s="21"/>
       <c r="P12" s="26" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Q12" s="21"/>
       <c r="S12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="X12" s="28"/>
       <c r="Y12" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="Z12" s="33"/>
       <c r="AA12" s="28" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AB12" s="28"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:28">
       <c r="A13" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D13" s="6"/>
       <c r="H13" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I13" s="21"/>
       <c r="P13" s="24"/>
@@ -11353,22 +10854,22 @@
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D14" s="6"/>
       <c r="H14" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I14" s="21"/>
       <c r="P14" s="24"/>
       <c r="Q14" s="30"/>
       <c r="X14" s="28"/>
       <c r="Y14" s="28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Z14" s="28"/>
       <c r="AA14" s="28"/>
@@ -11376,35 +10877,35 @@
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D15" s="6"/>
       <c r="N15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="P15" s="24"/>
       <c r="Q15" s="30"/>
       <c r="X15" s="28"/>
       <c r="Y15" s="32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Z15" s="33"/>
       <c r="AA15" s="28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AB15" s="28"/>
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D16" s="6"/>
       <c r="N16" s="20"/>
@@ -11412,35 +10913,35 @@
       <c r="Q16" s="31"/>
       <c r="X16" s="28"/>
       <c r="Y16" s="32" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Z16" s="33"/>
       <c r="AA16" s="28" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AB16" s="28"/>
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="H17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="N17" s="22"/>
       <c r="P17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="X17" s="28"/>
       <c r="Y17" s="32" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Z17" s="33"/>
       <c r="AA17" s="28" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AB17" s="28"/>
     </row>
@@ -11450,28 +10951,28 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="H18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N18" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="P18" s="23" t="s">
         <v>416</v>
-      </c>
-      <c r="P18" s="23" t="s">
-        <v>417</v>
       </c>
       <c r="Q18" s="29"/>
       <c r="X18" s="28"/>
       <c r="Y18" s="32" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Z18" s="33"/>
       <c r="AA18" s="28" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AB18" s="28"/>
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -11481,21 +10982,21 @@
       <c r="Q19" s="30"/>
       <c r="X19" s="28"/>
       <c r="Y19" s="32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Z19" s="33"/>
       <c r="AA19" s="28" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AB19" s="28"/>
     </row>
     <row r="20" spans="1:28">
       <c r="A20" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D20" s="10"/>
       <c r="N20" s="22"/>
@@ -11503,25 +11004,25 @@
       <c r="Q20" s="30"/>
       <c r="X20" s="28"/>
       <c r="Y20" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="Z20" s="33"/>
       <c r="AA20" s="28" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AB20" s="28"/>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:28">
       <c r="A21" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D21" s="10"/>
       <c r="N21" s="25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P21" s="24"/>
       <c r="Q21" s="30"/>
@@ -11529,20 +11030,20 @@
     </row>
     <row r="22" spans="1:28">
       <c r="A22" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D22" s="10"/>
       <c r="P22" s="26" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="Q22" s="21"/>
       <c r="X22" s="28"/>
       <c r="Y22" s="28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Z22" s="28"/>
       <c r="AA22" s="28"/>
@@ -11550,15 +11051,15 @@
     </row>
     <row r="23" spans="1:28">
       <c r="A23" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D23" s="10"/>
       <c r="P23" s="26" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Q23" s="21"/>
       <c r="X23" s="28"/>
@@ -11569,18 +11070,18 @@
     </row>
     <row r="24" spans="1:28">
       <c r="A24" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D24" s="10"/>
       <c r="P24" s="24"/>
       <c r="Q24" s="30"/>
       <c r="X24" s="28"/>
       <c r="Y24" s="28" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Z24" s="28"/>
       <c r="AA24" s="28"/>
@@ -11588,50 +11089,50 @@
     </row>
     <row r="25" spans="1:28">
       <c r="A25" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D25" s="10"/>
       <c r="P25" s="24"/>
       <c r="Q25" s="30"/>
       <c r="X25" s="28"/>
       <c r="Y25" s="32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Z25" s="33"/>
       <c r="AA25" s="28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AB25" s="28"/>
     </row>
     <row r="26" spans="1:28">
       <c r="A26" t="s">
+        <v>435</v>
+      </c>
+      <c r="C26" t="s">
         <v>436</v>
       </c>
-      <c r="C26" t="s">
-        <v>437</v>
-      </c>
       <c r="N26" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="P26" s="24"/>
       <c r="Q26" s="30"/>
       <c r="X26" s="28"/>
       <c r="Y26" s="32" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Z26" s="33"/>
       <c r="AA26" s="28" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AB26" s="28"/>
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -11641,61 +11142,61 @@
       <c r="Q27" s="31"/>
       <c r="X27" s="28"/>
       <c r="Y27" s="32" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Z27" s="33"/>
       <c r="AA27" s="28" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AB27" s="28"/>
     </row>
     <row r="28" spans="1:28">
       <c r="A28" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="N28" s="22"/>
       <c r="P28" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="X28" s="28"/>
       <c r="Y28" s="32" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Z28" s="33"/>
       <c r="AA28" s="28" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AB28" s="28"/>
     </row>
     <row r="29" spans="1:28">
       <c r="A29" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="N29" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="P29" s="23" t="s">
         <v>416</v>
-      </c>
-      <c r="P29" s="23" t="s">
-        <v>417</v>
       </c>
       <c r="Q29" s="29"/>
       <c r="Y29" s="32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Z29" s="33"/>
       <c r="AA29" s="28" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AB29" s="28"/>
     </row>
     <row r="30" spans="1:28">
       <c r="A30" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="2"/>
@@ -11704,17 +11205,17 @@
       <c r="P30" s="24"/>
       <c r="Q30" s="30"/>
       <c r="Y30" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="Z30" s="33"/>
       <c r="AA30" s="28" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AB30" s="28"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:28">
       <c r="A31" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="2"/>
@@ -11723,46 +11224,46 @@
       <c r="P31" s="24"/>
       <c r="Q31" s="30"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:28">
       <c r="A32" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="N32" s="25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P32" s="24"/>
       <c r="Q32" s="30"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="P33" s="26" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="Q33" s="21"/>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="P34" s="26" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Q34" s="21"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="6"/>
@@ -11772,7 +11273,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="6"/>
@@ -11782,20 +11283,20 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="N37" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="P37" s="24"/>
       <c r="Q37" s="30"/>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="6"/>
@@ -11804,30 +11305,30 @@
       <c r="P38" s="27"/>
       <c r="Q38" s="31"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:17">
       <c r="A39" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="N39" s="22"/>
       <c r="P39" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="N40" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="P40" s="23" t="s">
         <v>416</v>
-      </c>
-      <c r="P40" s="23" t="s">
-        <v>417</v>
       </c>
       <c r="Q40" s="29"/>
     </row>
@@ -11851,44 +11352,44 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="N43" s="25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P43" s="24"/>
       <c r="Q43" s="30"/>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="P44" s="26" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="Q44" s="21"/>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="P45" s="26" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Q45" s="21"/>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B46" s="17"/>
       <c r="C46" s="10"/>
@@ -11898,7 +11399,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="10"/>
@@ -11908,7 +11409,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="10"/>
@@ -11916,9 +11417,9 @@
       <c r="P48" s="24"/>
       <c r="Q48" s="30"/>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:25">
       <c r="A49" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B49" s="15"/>
       <c r="C49" s="19"/>
@@ -11926,86 +11427,86 @@
       <c r="P49" s="27"/>
       <c r="Q49" s="31"/>
     </row>
-    <row r="53" s="1" customFormat="1" spans="1:25">
+    <row r="53" spans="1:25" s="1" customFormat="1">
       <c r="A53" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/uCOS操作系统/操作系统笔记.xlsx
+++ b/uCOS操作系统/操作系统笔记.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="450">
   <si>
     <t>操作系统</t>
   </si>
@@ -1355,6 +1355,35 @@
   <si>
     <t>4.5事件标志组管理（没咋学明白）</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.4</t>
+  </si>
+  <si>
+    <t>5.1.5</t>
+  </si>
+  <si>
+    <t>5.1.6</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.7</t>
+  </si>
+  <si>
+    <t>5.1.8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1797,6 +1826,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1808,15 +1846,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5345,14 +5374,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5373,7 +5402,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9283700" cy="5892800"/>
+          <a:ext cx="10864850" cy="5873750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9019,15 +9048,15 @@
       </c>
     </row>
     <row r="87" spans="2:27">
-      <c r="D87" s="47" t="s">
+      <c r="D87" s="50" t="s">
         <v>360</v>
       </c>
-      <c r="E87" s="47"/>
-      <c r="F87" s="47"/>
-      <c r="G87" s="47" t="s">
+      <c r="E87" s="50"/>
+      <c r="F87" s="50"/>
+      <c r="G87" s="50" t="s">
         <v>361</v>
       </c>
-      <c r="H87" s="47"/>
+      <c r="H87" s="50"/>
       <c r="I87" s="42" t="s">
         <v>362</v>
       </c>
@@ -9051,100 +9080,100 @@
       <c r="AA87" s="44"/>
     </row>
     <row r="88" spans="2:27">
-      <c r="D88" s="47" t="s">
+      <c r="D88" s="50" t="s">
         <v>363</v>
       </c>
-      <c r="E88" s="47"/>
-      <c r="F88" s="47"/>
-      <c r="G88" s="47">
+      <c r="E88" s="50"/>
+      <c r="F88" s="50"/>
+      <c r="G88" s="50">
         <v>5</v>
       </c>
-      <c r="H88" s="47"/>
-      <c r="I88" s="48" t="s">
+      <c r="H88" s="50"/>
+      <c r="I88" s="51" t="s">
         <v>364</v>
       </c>
-      <c r="J88" s="49"/>
-      <c r="K88" s="49"/>
-      <c r="L88" s="49"/>
-      <c r="M88" s="49"/>
-      <c r="N88" s="49"/>
-      <c r="O88" s="49"/>
-      <c r="P88" s="49"/>
-      <c r="Q88" s="49"/>
-      <c r="R88" s="49"/>
-      <c r="S88" s="49"/>
-      <c r="T88" s="49"/>
-      <c r="U88" s="49"/>
-      <c r="V88" s="49"/>
-      <c r="W88" s="49"/>
-      <c r="X88" s="49"/>
-      <c r="Y88" s="49"/>
-      <c r="Z88" s="49"/>
-      <c r="AA88" s="50"/>
+      <c r="J88" s="52"/>
+      <c r="K88" s="52"/>
+      <c r="L88" s="52"/>
+      <c r="M88" s="52"/>
+      <c r="N88" s="52"/>
+      <c r="O88" s="52"/>
+      <c r="P88" s="52"/>
+      <c r="Q88" s="52"/>
+      <c r="R88" s="52"/>
+      <c r="S88" s="52"/>
+      <c r="T88" s="52"/>
+      <c r="U88" s="52"/>
+      <c r="V88" s="52"/>
+      <c r="W88" s="52"/>
+      <c r="X88" s="52"/>
+      <c r="Y88" s="52"/>
+      <c r="Z88" s="52"/>
+      <c r="AA88" s="53"/>
     </row>
     <row r="89" spans="2:27">
-      <c r="D89" s="47" t="s">
+      <c r="D89" s="50" t="s">
         <v>365</v>
       </c>
-      <c r="E89" s="47"/>
-      <c r="F89" s="47"/>
-      <c r="G89" s="47">
+      <c r="E89" s="50"/>
+      <c r="F89" s="50"/>
+      <c r="G89" s="50">
         <v>60</v>
       </c>
-      <c r="H89" s="47"/>
-      <c r="I89" s="48" t="s">
+      <c r="H89" s="50"/>
+      <c r="I89" s="51" t="s">
         <v>366</v>
       </c>
-      <c r="J89" s="49"/>
-      <c r="K89" s="49"/>
-      <c r="L89" s="49"/>
-      <c r="M89" s="49"/>
-      <c r="N89" s="49"/>
-      <c r="O89" s="49"/>
-      <c r="P89" s="49"/>
-      <c r="Q89" s="49"/>
-      <c r="R89" s="49"/>
-      <c r="S89" s="49"/>
-      <c r="T89" s="49"/>
-      <c r="U89" s="49"/>
-      <c r="V89" s="49"/>
-      <c r="W89" s="49"/>
-      <c r="X89" s="49"/>
-      <c r="Y89" s="49"/>
-      <c r="Z89" s="49"/>
-      <c r="AA89" s="50"/>
+      <c r="J89" s="52"/>
+      <c r="K89" s="52"/>
+      <c r="L89" s="52"/>
+      <c r="M89" s="52"/>
+      <c r="N89" s="52"/>
+      <c r="O89" s="52"/>
+      <c r="P89" s="52"/>
+      <c r="Q89" s="52"/>
+      <c r="R89" s="52"/>
+      <c r="S89" s="52"/>
+      <c r="T89" s="52"/>
+      <c r="U89" s="52"/>
+      <c r="V89" s="52"/>
+      <c r="W89" s="52"/>
+      <c r="X89" s="52"/>
+      <c r="Y89" s="52"/>
+      <c r="Z89" s="52"/>
+      <c r="AA89" s="53"/>
     </row>
     <row r="90" spans="2:27">
-      <c r="D90" s="47" t="s">
+      <c r="D90" s="50" t="s">
         <v>367</v>
       </c>
-      <c r="E90" s="47"/>
-      <c r="F90" s="47"/>
-      <c r="G90" s="47">
+      <c r="E90" s="50"/>
+      <c r="F90" s="50"/>
+      <c r="G90" s="50">
         <v>20</v>
       </c>
-      <c r="H90" s="47"/>
-      <c r="I90" s="48" t="s">
+      <c r="H90" s="50"/>
+      <c r="I90" s="51" t="s">
         <v>368</v>
       </c>
-      <c r="J90" s="49"/>
-      <c r="K90" s="49"/>
-      <c r="L90" s="49"/>
-      <c r="M90" s="49"/>
-      <c r="N90" s="49"/>
-      <c r="O90" s="49"/>
-      <c r="P90" s="49"/>
-      <c r="Q90" s="49"/>
-      <c r="R90" s="49"/>
-      <c r="S90" s="49"/>
-      <c r="T90" s="49"/>
-      <c r="U90" s="49"/>
-      <c r="V90" s="49"/>
-      <c r="W90" s="49"/>
-      <c r="X90" s="49"/>
-      <c r="Y90" s="49"/>
-      <c r="Z90" s="49"/>
-      <c r="AA90" s="50"/>
+      <c r="J90" s="52"/>
+      <c r="K90" s="52"/>
+      <c r="L90" s="52"/>
+      <c r="M90" s="52"/>
+      <c r="N90" s="52"/>
+      <c r="O90" s="52"/>
+      <c r="P90" s="52"/>
+      <c r="Q90" s="52"/>
+      <c r="R90" s="52"/>
+      <c r="S90" s="52"/>
+      <c r="T90" s="52"/>
+      <c r="U90" s="52"/>
+      <c r="V90" s="52"/>
+      <c r="W90" s="52"/>
+      <c r="X90" s="52"/>
+      <c r="Y90" s="52"/>
+      <c r="Z90" s="52"/>
+      <c r="AA90" s="53"/>
     </row>
     <row r="91" spans="2:27">
       <c r="D91" s="35" t="s">
@@ -9162,7 +9191,7 @@
       </c>
     </row>
     <row r="94" spans="2:27">
-      <c r="B94" s="53" t="s">
+      <c r="B94" s="47" t="s">
         <v>441</v>
       </c>
       <c r="C94" s="36"/>
@@ -9183,72 +9212,72 @@
       </c>
     </row>
     <row r="98" spans="3:19">
-      <c r="D98" s="51">
+      <c r="D98" s="48">
         <v>7</v>
       </c>
-      <c r="E98" s="52"/>
-      <c r="F98" s="51">
+      <c r="E98" s="49"/>
+      <c r="F98" s="48">
         <v>6</v>
       </c>
-      <c r="G98" s="52"/>
-      <c r="H98" s="51">
+      <c r="G98" s="49"/>
+      <c r="H98" s="48">
         <v>5</v>
       </c>
-      <c r="I98" s="52"/>
-      <c r="J98" s="51">
+      <c r="I98" s="49"/>
+      <c r="J98" s="48">
         <v>4</v>
       </c>
-      <c r="K98" s="52"/>
-      <c r="L98" s="51">
+      <c r="K98" s="49"/>
+      <c r="L98" s="48">
         <v>3</v>
       </c>
-      <c r="M98" s="52"/>
-      <c r="N98" s="51">
+      <c r="M98" s="49"/>
+      <c r="N98" s="48">
         <v>2</v>
       </c>
-      <c r="O98" s="52"/>
-      <c r="P98" s="51">
+      <c r="O98" s="49"/>
+      <c r="P98" s="48">
         <v>1</v>
       </c>
-      <c r="Q98" s="52"/>
-      <c r="R98" s="51">
+      <c r="Q98" s="49"/>
+      <c r="R98" s="48">
         <v>0</v>
       </c>
-      <c r="S98" s="52"/>
+      <c r="S98" s="49"/>
     </row>
     <row r="99" spans="3:19">
-      <c r="D99" s="51" t="s">
+      <c r="D99" s="48" t="s">
         <v>375</v>
       </c>
-      <c r="E99" s="52"/>
-      <c r="F99" s="51" t="s">
+      <c r="E99" s="49"/>
+      <c r="F99" s="48" t="s">
         <v>375</v>
       </c>
-      <c r="G99" s="52"/>
-      <c r="H99" s="51" t="s">
+      <c r="G99" s="49"/>
+      <c r="H99" s="48" t="s">
         <v>375</v>
       </c>
-      <c r="I99" s="52"/>
-      <c r="J99" s="51" t="s">
+      <c r="I99" s="49"/>
+      <c r="J99" s="48" t="s">
         <v>375</v>
       </c>
-      <c r="K99" s="52"/>
-      <c r="L99" s="51" t="s">
+      <c r="K99" s="49"/>
+      <c r="L99" s="48" t="s">
         <v>376</v>
       </c>
-      <c r="M99" s="52"/>
-      <c r="N99" s="51" t="s">
+      <c r="M99" s="49"/>
+      <c r="N99" s="48" t="s">
         <v>377</v>
       </c>
-      <c r="O99" s="52"/>
-      <c r="P99" s="51" t="s">
+      <c r="O99" s="49"/>
+      <c r="P99" s="48" t="s">
         <v>378</v>
       </c>
-      <c r="Q99" s="52"/>
-      <c r="R99" s="51" t="s">
+      <c r="Q99" s="49"/>
+      <c r="R99" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="S99" s="52"/>
+      <c r="S99" s="49"/>
     </row>
     <row r="100" spans="3:19">
       <c r="D100" s="35" t="s">
@@ -9256,72 +9285,72 @@
       </c>
     </row>
     <row r="101" spans="3:19">
-      <c r="D101" s="51">
+      <c r="D101" s="48">
         <v>7</v>
       </c>
-      <c r="E101" s="52"/>
-      <c r="F101" s="51">
+      <c r="E101" s="49"/>
+      <c r="F101" s="48">
         <v>6</v>
       </c>
-      <c r="G101" s="52"/>
-      <c r="H101" s="51">
+      <c r="G101" s="49"/>
+      <c r="H101" s="48">
         <v>5</v>
       </c>
-      <c r="I101" s="52"/>
-      <c r="J101" s="51">
+      <c r="I101" s="49"/>
+      <c r="J101" s="48">
         <v>4</v>
       </c>
-      <c r="K101" s="52"/>
-      <c r="L101" s="51">
+      <c r="K101" s="49"/>
+      <c r="L101" s="48">
         <v>3</v>
       </c>
-      <c r="M101" s="52"/>
-      <c r="N101" s="51">
+      <c r="M101" s="49"/>
+      <c r="N101" s="48">
         <v>2</v>
       </c>
-      <c r="O101" s="52"/>
-      <c r="P101" s="51">
+      <c r="O101" s="49"/>
+      <c r="P101" s="48">
         <v>1</v>
       </c>
-      <c r="Q101" s="52"/>
-      <c r="R101" s="51">
+      <c r="Q101" s="49"/>
+      <c r="R101" s="48">
         <v>0</v>
       </c>
-      <c r="S101" s="52"/>
+      <c r="S101" s="49"/>
     </row>
     <row r="102" spans="3:19">
-      <c r="D102" s="51">
+      <c r="D102" s="48">
         <v>0</v>
       </c>
-      <c r="E102" s="52"/>
-      <c r="F102" s="51">
+      <c r="E102" s="49"/>
+      <c r="F102" s="48">
         <v>0</v>
       </c>
-      <c r="G102" s="52"/>
-      <c r="H102" s="51">
+      <c r="G102" s="49"/>
+      <c r="H102" s="48">
         <v>0</v>
       </c>
-      <c r="I102" s="52"/>
-      <c r="J102" s="51">
+      <c r="I102" s="49"/>
+      <c r="J102" s="48">
         <v>0</v>
       </c>
-      <c r="K102" s="52"/>
-      <c r="L102" s="51">
+      <c r="K102" s="49"/>
+      <c r="L102" s="48">
         <v>1</v>
       </c>
-      <c r="M102" s="52"/>
-      <c r="N102" s="51">
+      <c r="M102" s="49"/>
+      <c r="N102" s="48">
         <v>0</v>
       </c>
-      <c r="O102" s="52"/>
-      <c r="P102" s="51">
+      <c r="O102" s="49"/>
+      <c r="P102" s="48">
         <v>0</v>
       </c>
-      <c r="Q102" s="52"/>
-      <c r="R102" s="51">
+      <c r="Q102" s="49"/>
+      <c r="R102" s="48">
         <v>1</v>
       </c>
-      <c r="S102" s="52"/>
+      <c r="S102" s="49"/>
     </row>
     <row r="103" spans="3:19">
       <c r="D103" s="35" t="s">
@@ -9412,6 +9441,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="I88:AA88"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="I89:AA89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="I90:AA90"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="R98:S98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="R99:S99"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="L98:M98"/>
     <mergeCell ref="N101:O101"/>
     <mergeCell ref="P101:Q101"/>
     <mergeCell ref="R101:S101"/>
@@ -9428,33 +9484,6 @@
     <mergeCell ref="H101:I101"/>
     <mergeCell ref="J101:K101"/>
     <mergeCell ref="L101:M101"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="R98:S98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="L99:M99"/>
-    <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="R99:S99"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="L98:M98"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="I89:AA89"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="I90:AA90"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="I88:AA88"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9468,7 +9497,7 @@
   <dimension ref="A1:AE123"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.90625" defaultRowHeight="14"/>
@@ -9592,49 +9621,65 @@
     <row r="7" spans="1:31" s="28" customFormat="1">
       <c r="A7" s="35"/>
       <c r="B7" s="36"/>
-      <c r="C7" s="35"/>
+      <c r="C7" s="35" t="s">
+        <v>442</v>
+      </c>
       <c r="J7" s="35"/>
     </row>
     <row r="8" spans="1:31" s="28" customFormat="1">
       <c r="A8" s="35"/>
       <c r="B8" s="36"/>
-      <c r="C8" s="35"/>
+      <c r="C8" s="35" t="s">
+        <v>443</v>
+      </c>
       <c r="J8" s="35"/>
     </row>
     <row r="9" spans="1:31" s="28" customFormat="1">
       <c r="A9" s="35"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="35"/>
+      <c r="C9" s="35" t="s">
+        <v>444</v>
+      </c>
       <c r="J9" s="35"/>
     </row>
     <row r="10" spans="1:31" s="28" customFormat="1">
       <c r="A10" s="35"/>
       <c r="B10" s="36"/>
-      <c r="C10" s="35"/>
+      <c r="C10" s="35" t="s">
+        <v>445</v>
+      </c>
       <c r="J10" s="35"/>
     </row>
     <row r="11" spans="1:31" s="28" customFormat="1">
       <c r="A11" s="35"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="35"/>
+      <c r="C11" s="35" t="s">
+        <v>446</v>
+      </c>
       <c r="J11" s="35"/>
     </row>
     <row r="12" spans="1:31" s="28" customFormat="1">
       <c r="A12" s="35"/>
       <c r="B12" s="36"/>
-      <c r="C12" s="35"/>
+      <c r="C12" s="35" t="s">
+        <v>447</v>
+      </c>
       <c r="J12" s="35"/>
     </row>
     <row r="13" spans="1:31" s="28" customFormat="1">
       <c r="A13" s="35"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="35"/>
+      <c r="C13" s="35" t="s">
+        <v>448</v>
+      </c>
       <c r="J13" s="35"/>
     </row>
     <row r="14" spans="1:31" s="28" customFormat="1">
       <c r="A14" s="35"/>
       <c r="B14" s="36"/>
-      <c r="C14" s="35"/>
+      <c r="C14" s="35" t="s">
+        <v>449</v>
+      </c>
       <c r="J14" s="35"/>
     </row>
     <row r="15" spans="1:31" s="28" customFormat="1">

--- a/uCOS操作系统/操作系统笔记.xlsx
+++ b/uCOS操作系统/操作系统笔记.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28130" windowHeight="12540" tabRatio="812" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28130" windowHeight="12540" tabRatio="812" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="453">
   <si>
     <t>操作系统</t>
   </si>
@@ -1382,7 +1382,19 @@
     <t>5.1.7</t>
   </si>
   <si>
-    <t>5.1.8</t>
+    <t>5.1.8消息邮箱实验</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskMessageSen在时间片1的时候创建一个邮箱，如果邮箱中没有邮件，每秒向邮箱中发送一个消息，消息内容从0开计数，数每秒++</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskMessageRec从时间片1开始，一直检查邮箱，把邮件打印出来</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序在user.c里面</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1829,12 +1841,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1846,6 +1852,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6526,7 +6538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
@@ -9048,15 +9060,15 @@
       </c>
     </row>
     <row r="87" spans="2:27">
-      <c r="D87" s="50" t="s">
+      <c r="D87" s="48" t="s">
         <v>360</v>
       </c>
-      <c r="E87" s="50"/>
-      <c r="F87" s="50"/>
-      <c r="G87" s="50" t="s">
+      <c r="E87" s="48"/>
+      <c r="F87" s="48"/>
+      <c r="G87" s="48" t="s">
         <v>361</v>
       </c>
-      <c r="H87" s="50"/>
+      <c r="H87" s="48"/>
       <c r="I87" s="42" t="s">
         <v>362</v>
       </c>
@@ -9080,100 +9092,100 @@
       <c r="AA87" s="44"/>
     </row>
     <row r="88" spans="2:27">
-      <c r="D88" s="50" t="s">
+      <c r="D88" s="48" t="s">
         <v>363</v>
       </c>
-      <c r="E88" s="50"/>
-      <c r="F88" s="50"/>
-      <c r="G88" s="50">
+      <c r="E88" s="48"/>
+      <c r="F88" s="48"/>
+      <c r="G88" s="48">
         <v>5</v>
       </c>
-      <c r="H88" s="50"/>
-      <c r="I88" s="51" t="s">
+      <c r="H88" s="48"/>
+      <c r="I88" s="49" t="s">
         <v>364</v>
       </c>
-      <c r="J88" s="52"/>
-      <c r="K88" s="52"/>
-      <c r="L88" s="52"/>
-      <c r="M88" s="52"/>
-      <c r="N88" s="52"/>
-      <c r="O88" s="52"/>
-      <c r="P88" s="52"/>
-      <c r="Q88" s="52"/>
-      <c r="R88" s="52"/>
-      <c r="S88" s="52"/>
-      <c r="T88" s="52"/>
-      <c r="U88" s="52"/>
-      <c r="V88" s="52"/>
-      <c r="W88" s="52"/>
-      <c r="X88" s="52"/>
-      <c r="Y88" s="52"/>
-      <c r="Z88" s="52"/>
-      <c r="AA88" s="53"/>
+      <c r="J88" s="50"/>
+      <c r="K88" s="50"/>
+      <c r="L88" s="50"/>
+      <c r="M88" s="50"/>
+      <c r="N88" s="50"/>
+      <c r="O88" s="50"/>
+      <c r="P88" s="50"/>
+      <c r="Q88" s="50"/>
+      <c r="R88" s="50"/>
+      <c r="S88" s="50"/>
+      <c r="T88" s="50"/>
+      <c r="U88" s="50"/>
+      <c r="V88" s="50"/>
+      <c r="W88" s="50"/>
+      <c r="X88" s="50"/>
+      <c r="Y88" s="50"/>
+      <c r="Z88" s="50"/>
+      <c r="AA88" s="51"/>
     </row>
     <row r="89" spans="2:27">
-      <c r="D89" s="50" t="s">
+      <c r="D89" s="48" t="s">
         <v>365</v>
       </c>
-      <c r="E89" s="50"/>
-      <c r="F89" s="50"/>
-      <c r="G89" s="50">
+      <c r="E89" s="48"/>
+      <c r="F89" s="48"/>
+      <c r="G89" s="48">
         <v>60</v>
       </c>
-      <c r="H89" s="50"/>
-      <c r="I89" s="51" t="s">
+      <c r="H89" s="48"/>
+      <c r="I89" s="49" t="s">
         <v>366</v>
       </c>
-      <c r="J89" s="52"/>
-      <c r="K89" s="52"/>
-      <c r="L89" s="52"/>
-      <c r="M89" s="52"/>
-      <c r="N89" s="52"/>
-      <c r="O89" s="52"/>
-      <c r="P89" s="52"/>
-      <c r="Q89" s="52"/>
-      <c r="R89" s="52"/>
-      <c r="S89" s="52"/>
-      <c r="T89" s="52"/>
-      <c r="U89" s="52"/>
-      <c r="V89" s="52"/>
-      <c r="W89" s="52"/>
-      <c r="X89" s="52"/>
-      <c r="Y89" s="52"/>
-      <c r="Z89" s="52"/>
-      <c r="AA89" s="53"/>
+      <c r="J89" s="50"/>
+      <c r="K89" s="50"/>
+      <c r="L89" s="50"/>
+      <c r="M89" s="50"/>
+      <c r="N89" s="50"/>
+      <c r="O89" s="50"/>
+      <c r="P89" s="50"/>
+      <c r="Q89" s="50"/>
+      <c r="R89" s="50"/>
+      <c r="S89" s="50"/>
+      <c r="T89" s="50"/>
+      <c r="U89" s="50"/>
+      <c r="V89" s="50"/>
+      <c r="W89" s="50"/>
+      <c r="X89" s="50"/>
+      <c r="Y89" s="50"/>
+      <c r="Z89" s="50"/>
+      <c r="AA89" s="51"/>
     </row>
     <row r="90" spans="2:27">
-      <c r="D90" s="50" t="s">
+      <c r="D90" s="48" t="s">
         <v>367</v>
       </c>
-      <c r="E90" s="50"/>
-      <c r="F90" s="50"/>
-      <c r="G90" s="50">
+      <c r="E90" s="48"/>
+      <c r="F90" s="48"/>
+      <c r="G90" s="48">
         <v>20</v>
       </c>
-      <c r="H90" s="50"/>
-      <c r="I90" s="51" t="s">
+      <c r="H90" s="48"/>
+      <c r="I90" s="49" t="s">
         <v>368</v>
       </c>
-      <c r="J90" s="52"/>
-      <c r="K90" s="52"/>
-      <c r="L90" s="52"/>
-      <c r="M90" s="52"/>
-      <c r="N90" s="52"/>
-      <c r="O90" s="52"/>
-      <c r="P90" s="52"/>
-      <c r="Q90" s="52"/>
-      <c r="R90" s="52"/>
-      <c r="S90" s="52"/>
-      <c r="T90" s="52"/>
-      <c r="U90" s="52"/>
-      <c r="V90" s="52"/>
-      <c r="W90" s="52"/>
-      <c r="X90" s="52"/>
-      <c r="Y90" s="52"/>
-      <c r="Z90" s="52"/>
-      <c r="AA90" s="53"/>
+      <c r="J90" s="50"/>
+      <c r="K90" s="50"/>
+      <c r="L90" s="50"/>
+      <c r="M90" s="50"/>
+      <c r="N90" s="50"/>
+      <c r="O90" s="50"/>
+      <c r="P90" s="50"/>
+      <c r="Q90" s="50"/>
+      <c r="R90" s="50"/>
+      <c r="S90" s="50"/>
+      <c r="T90" s="50"/>
+      <c r="U90" s="50"/>
+      <c r="V90" s="50"/>
+      <c r="W90" s="50"/>
+      <c r="X90" s="50"/>
+      <c r="Y90" s="50"/>
+      <c r="Z90" s="50"/>
+      <c r="AA90" s="51"/>
     </row>
     <row r="91" spans="2:27">
       <c r="D91" s="35" t="s">
@@ -9212,72 +9224,72 @@
       </c>
     </row>
     <row r="98" spans="3:19">
-      <c r="D98" s="48">
+      <c r="D98" s="52">
         <v>7</v>
       </c>
-      <c r="E98" s="49"/>
-      <c r="F98" s="48">
+      <c r="E98" s="53"/>
+      <c r="F98" s="52">
         <v>6</v>
       </c>
-      <c r="G98" s="49"/>
-      <c r="H98" s="48">
+      <c r="G98" s="53"/>
+      <c r="H98" s="52">
         <v>5</v>
       </c>
-      <c r="I98" s="49"/>
-      <c r="J98" s="48">
+      <c r="I98" s="53"/>
+      <c r="J98" s="52">
         <v>4</v>
       </c>
-      <c r="K98" s="49"/>
-      <c r="L98" s="48">
+      <c r="K98" s="53"/>
+      <c r="L98" s="52">
         <v>3</v>
       </c>
-      <c r="M98" s="49"/>
-      <c r="N98" s="48">
+      <c r="M98" s="53"/>
+      <c r="N98" s="52">
         <v>2</v>
       </c>
-      <c r="O98" s="49"/>
-      <c r="P98" s="48">
+      <c r="O98" s="53"/>
+      <c r="P98" s="52">
         <v>1</v>
       </c>
-      <c r="Q98" s="49"/>
-      <c r="R98" s="48">
+      <c r="Q98" s="53"/>
+      <c r="R98" s="52">
         <v>0</v>
       </c>
-      <c r="S98" s="49"/>
+      <c r="S98" s="53"/>
     </row>
     <row r="99" spans="3:19">
-      <c r="D99" s="48" t="s">
+      <c r="D99" s="52" t="s">
         <v>375</v>
       </c>
-      <c r="E99" s="49"/>
-      <c r="F99" s="48" t="s">
+      <c r="E99" s="53"/>
+      <c r="F99" s="52" t="s">
         <v>375</v>
       </c>
-      <c r="G99" s="49"/>
-      <c r="H99" s="48" t="s">
+      <c r="G99" s="53"/>
+      <c r="H99" s="52" t="s">
         <v>375</v>
       </c>
-      <c r="I99" s="49"/>
-      <c r="J99" s="48" t="s">
+      <c r="I99" s="53"/>
+      <c r="J99" s="52" t="s">
         <v>375</v>
       </c>
-      <c r="K99" s="49"/>
-      <c r="L99" s="48" t="s">
+      <c r="K99" s="53"/>
+      <c r="L99" s="52" t="s">
         <v>376</v>
       </c>
-      <c r="M99" s="49"/>
-      <c r="N99" s="48" t="s">
+      <c r="M99" s="53"/>
+      <c r="N99" s="52" t="s">
         <v>377</v>
       </c>
-      <c r="O99" s="49"/>
-      <c r="P99" s="48" t="s">
+      <c r="O99" s="53"/>
+      <c r="P99" s="52" t="s">
         <v>378</v>
       </c>
-      <c r="Q99" s="49"/>
-      <c r="R99" s="48" t="s">
+      <c r="Q99" s="53"/>
+      <c r="R99" s="52" t="s">
         <v>379</v>
       </c>
-      <c r="S99" s="49"/>
+      <c r="S99" s="53"/>
     </row>
     <row r="100" spans="3:19">
       <c r="D100" s="35" t="s">
@@ -9285,72 +9297,72 @@
       </c>
     </row>
     <row r="101" spans="3:19">
-      <c r="D101" s="48">
+      <c r="D101" s="52">
         <v>7</v>
       </c>
-      <c r="E101" s="49"/>
-      <c r="F101" s="48">
+      <c r="E101" s="53"/>
+      <c r="F101" s="52">
         <v>6</v>
       </c>
-      <c r="G101" s="49"/>
-      <c r="H101" s="48">
+      <c r="G101" s="53"/>
+      <c r="H101" s="52">
         <v>5</v>
       </c>
-      <c r="I101" s="49"/>
-      <c r="J101" s="48">
+      <c r="I101" s="53"/>
+      <c r="J101" s="52">
         <v>4</v>
       </c>
-      <c r="K101" s="49"/>
-      <c r="L101" s="48">
+      <c r="K101" s="53"/>
+      <c r="L101" s="52">
         <v>3</v>
       </c>
-      <c r="M101" s="49"/>
-      <c r="N101" s="48">
+      <c r="M101" s="53"/>
+      <c r="N101" s="52">
         <v>2</v>
       </c>
-      <c r="O101" s="49"/>
-      <c r="P101" s="48">
+      <c r="O101" s="53"/>
+      <c r="P101" s="52">
         <v>1</v>
       </c>
-      <c r="Q101" s="49"/>
-      <c r="R101" s="48">
+      <c r="Q101" s="53"/>
+      <c r="R101" s="52">
         <v>0</v>
       </c>
-      <c r="S101" s="49"/>
+      <c r="S101" s="53"/>
     </row>
     <row r="102" spans="3:19">
-      <c r="D102" s="48">
+      <c r="D102" s="52">
         <v>0</v>
       </c>
-      <c r="E102" s="49"/>
-      <c r="F102" s="48">
+      <c r="E102" s="53"/>
+      <c r="F102" s="52">
         <v>0</v>
       </c>
-      <c r="G102" s="49"/>
-      <c r="H102" s="48">
+      <c r="G102" s="53"/>
+      <c r="H102" s="52">
         <v>0</v>
       </c>
-      <c r="I102" s="49"/>
-      <c r="J102" s="48">
+      <c r="I102" s="53"/>
+      <c r="J102" s="52">
         <v>0</v>
       </c>
-      <c r="K102" s="49"/>
-      <c r="L102" s="48">
+      <c r="K102" s="53"/>
+      <c r="L102" s="52">
         <v>1</v>
       </c>
-      <c r="M102" s="49"/>
-      <c r="N102" s="48">
+      <c r="M102" s="53"/>
+      <c r="N102" s="52">
         <v>0</v>
       </c>
-      <c r="O102" s="49"/>
-      <c r="P102" s="48">
+      <c r="O102" s="53"/>
+      <c r="P102" s="52">
         <v>0</v>
       </c>
-      <c r="Q102" s="49"/>
-      <c r="R102" s="48">
+      <c r="Q102" s="53"/>
+      <c r="R102" s="52">
         <v>1</v>
       </c>
-      <c r="S102" s="49"/>
+      <c r="S102" s="53"/>
     </row>
     <row r="103" spans="3:19">
       <c r="D103" s="35" t="s">
@@ -9441,17 +9453,22 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="I88:AA88"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="I89:AA89"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="I90:AA90"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="R101:S101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="R102:S102"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="L101:M101"/>
     <mergeCell ref="N98:O98"/>
     <mergeCell ref="P98:Q98"/>
     <mergeCell ref="R98:S98"/>
@@ -9468,22 +9485,17 @@
     <mergeCell ref="H98:I98"/>
     <mergeCell ref="J98:K98"/>
     <mergeCell ref="L98:M98"/>
-    <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="R101:S101"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="L102:M102"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="R102:S102"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="I89:AA89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="I90:AA90"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="I88:AA88"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9496,8 +9508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE123"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.90625" defaultRowHeight="14"/>
@@ -9686,18 +9698,27 @@
       <c r="A15" s="35"/>
       <c r="B15" s="36"/>
       <c r="C15" s="35"/>
+      <c r="D15" s="28" t="s">
+        <v>450</v>
+      </c>
       <c r="J15" s="35"/>
     </row>
     <row r="16" spans="1:31" s="28" customFormat="1">
       <c r="A16" s="35"/>
       <c r="B16" s="36"/>
       <c r="C16" s="35"/>
+      <c r="D16" s="28" t="s">
+        <v>451</v>
+      </c>
       <c r="J16" s="35"/>
     </row>
     <row r="17" spans="1:10" s="28" customFormat="1">
       <c r="A17" s="35"/>
       <c r="B17" s="36"/>
       <c r="C17" s="35"/>
+      <c r="D17" s="28" t="s">
+        <v>452</v>
+      </c>
       <c r="J17" s="35"/>
     </row>
     <row r="18" spans="1:10" s="28" customFormat="1">
